--- a/docs/src/reference/data-dictionaries/T_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/T_Dict.xlsx
@@ -616,72 +616,110 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>AreaSqMi</t>
+          <t>FIPS</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Land Area (Square Miles)</t>
+          <t>Federal Information Processing Standard code</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Land area of geography in sq miles</t>
+          <t>Federal Information Processing Standard code designated by the NIST; is two digits for states, five digits for counties, eleven digits for tracts.</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/GeographicBoundaries.md</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
-        </is>
-      </c>
+          <t>Tiger/Line 2018; Tiger/Line 2010</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>66452.74</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+          <t>36061</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr"/>
@@ -795,7 +833,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/GeographicBoundaries.md</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -814,17 +852,12 @@
           <t>050US01001-2018</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID</t>
-        </is>
-      </c>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Geography</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -851,46 +884,18 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
@@ -899,41 +904,44 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>FIPS</t>
+          <t>Age20_24</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Federal Information Processing Standard code</t>
+          <t>Population: Age 20-24</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Federal Information Processing Standard code designated by the NIST; is two digits for states, five digits for counties, eleven digits for tracts.</t>
+          <t>Total population between age 20-24</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018; Tiger/Line 2010</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr"/>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>36061</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr"/>
+          <t>114772</t>
+        </is>
+      </c>
       <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -973,18 +981,10 @@
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
@@ -994,22 +994,22 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>TotPop</t>
+          <t>Age15_24P</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Total Population</t>
+          <t>% Population: Age 15-24</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Total population</t>
+          <t>Percentage of population between ages of 15 &amp; 24</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1024,24 +1024,15 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>1632480</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>For more information about how these data have been used in homelessness and housing stability research, please refer to https://www.census.gov/newsroom/press-releases/2020/special-operations-homelessness.html or https://www.americanprogress.org/issues/poverty/reports/2020/10/05/491122/count-people-where-they-are/.</t>
-        </is>
-      </c>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1093,22 +1084,22 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Age18_64</t>
+          <t>AgeOv65</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Population: Age 18-64</t>
+          <t>Population: Age 65+</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Total adult population under age 65</t>
+          <t>Total population at or over age 65</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1128,12 +1119,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>1139347</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>257362</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr"/>
@@ -1188,22 +1174,22 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Age0_4</t>
+          <t>Age15_19</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Population: Age 0-4</t>
+          <t>Population: Age 15-19</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Total population between age 0-4</t>
+          <t>Total population between age 15-19</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1223,12 +1209,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>79897</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>68706</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr"/>
@@ -1244,31 +1225,15 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1276,39 +1241,35 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Age5_14</t>
+          <t>Age45_54</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Population: Age 5-14</t>
+          <t>Population: Age 45-54</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Total population between age 5-14</t>
+          <t>Total population between age 45-54</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1318,12 +1279,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>122034</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr"/>
@@ -1378,22 +1334,22 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Age15_19</t>
+          <t>Age18_64</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Population: Age 15-19</t>
+          <t>Population: Age 18-64</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Total population between age 15-19</t>
+          <t>Total adult population under age 65</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1413,12 +1369,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>68706</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>1139347</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr"/>
@@ -1473,22 +1424,22 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Age20_24</t>
+          <t>Age0_4</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Population: Age 20-24</t>
+          <t>Population: Age 0-4</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Total population between age 20-24</t>
+          <t>Total population between age 0-4</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1508,12 +1459,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>114772</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>79897</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr"/>
@@ -1568,22 +1514,22 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Age15_44</t>
+          <t>Age55_59</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Population: Age 15-44</t>
+          <t>Population: Age 55-59</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Total population between age 15-44</t>
+          <t>Total population between age 55-59</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -1603,12 +1549,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>784568</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>94082</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr"/>
@@ -1624,73 +1565,92 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Age45_54</t>
+          <t>Ovr65P</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Population: Age 45-54</t>
+          <t>% Population: Age 65+</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Total population between age 45-54</t>
+          <t>Percentage of population over 65</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function, with county subdivisions as the underlying population weights.</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>The 1980 Census data does not allow for disaggregation into Age45_49 and Age50_54 variables, so this variable is used instead. The data itself is from its respective decennial census as downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using Longitudinal Tract Database crosswalk files. For more on the crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm</t>
-        </is>
-      </c>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1742,22 +1702,22 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Age55_59</t>
+          <t>Age60_64</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Population: Age 55-59</t>
+          <t>Population: Age 60-64</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Total population between age 55-59</t>
+          <t>Total population between age 60-64</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -1777,12 +1737,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>94082</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>90711</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr"/>
@@ -1824,10 +1779,18 @@
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
@@ -1837,22 +1800,22 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Age60_64</t>
+          <t>TotPop</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Population: Age 60-64</t>
+          <t>Total Population</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Total population between age 60-64</t>
+          <t>Total population</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -1872,12 +1835,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>90711</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>1632480</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr"/>
@@ -1932,22 +1890,22 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>AgeOv65</t>
+          <t>Age5_14</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Population: Age 65+</t>
+          <t>Population: Age 5-14</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Total population at or over age 65</t>
+          <t>Total population between age 5-14</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -1967,12 +1925,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>257362</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>122034</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr"/>
@@ -2027,22 +1980,22 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Age15_24P</t>
+          <t>ChildrenP</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>% Population: Age 15-24</t>
+          <t>Children %</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Percentage of population between ages of 15 &amp; 24</t>
+          <t>Percentage of population under age 18</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2062,12 +2015,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr"/>
@@ -2122,22 +2070,22 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Und45P</t>
+          <t>Age15_44</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>% Population: Age under 45</t>
+          <t>Population: Age 15-44</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Percentage of population below 45 years of age</t>
+          <t>Total population between age 15-44</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -2152,17 +2100,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>60.43</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>784568</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr"/>
@@ -2204,18 +2147,10 @@
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
@@ -2225,22 +2160,22 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Ovr65P</t>
+          <t>Und45P</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>% Population: Age 65+</t>
+          <t>% Population: Age under 45</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Percentage of population over 65</t>
+          <t xml:space="preserve">	Percentage of population below 45 years of age</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -2260,12 +2195,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15.77</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>60.43</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr"/>
@@ -2276,76 +2206,56 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>ChildrenP</t>
+          <t>Und18P</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Children %</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Percentage of population under age 18</t>
-        </is>
-      </c>
+          <t>% Population under 18 years old</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2355,12 +2265,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr"/>
@@ -2399,18 +2304,18 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>FemP</t>
+          <t>Und5P</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>% Population that is Female</t>
+          <t xml:space="preserve">% Population under 5 years old </t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -2433,7 +2338,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -2470,18 +2374,18 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>MaleP</t>
+          <t>Ovr18P</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>% Population that is Male</t>
+          <t>% Population over 18 years</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -2504,7 +2408,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2541,18 +2444,18 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t>MedAge</t>
+          <t>SRatio65</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Median age</t>
+          <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -2575,7 +2478,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2623,7 +2525,7 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -2646,7 +2548,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2683,18 +2584,18 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Ovr18P</t>
+          <t>Ovr62P</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>% Population over 18 years</t>
+          <t>% Population over 62 years</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -2717,7 +2618,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2754,18 +2654,18 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Ovr21P</t>
+          <t>SRatio18</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>% Population over 21 years</t>
+          <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -2788,7 +2688,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2825,18 +2724,18 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Ovr62P</t>
+          <t>MaleP</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>% Population over 62 years</t>
+          <t>% Population that is Male</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -2859,7 +2758,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2896,18 +2794,18 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>SRatio</t>
+          <t>Ovr21P</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Sex ratio for the total population (males per 100 females)</t>
+          <t>% Population over 21 years</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -2930,7 +2828,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2967,18 +2864,18 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>SRatio18</t>
+          <t>MedAge</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
+          <t>Median age</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -3001,7 +2898,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -3038,18 +2934,18 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>SRatio65</t>
+          <t>SRatio</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
+          <t>Sex ratio for the total population (males per 100 females)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -3072,7 +2968,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -3109,18 +3004,18 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Und18P</t>
+          <t>FemP</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>% Population under 18 years old</t>
+          <t>% Population that is Female</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -3143,7 +3038,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -3153,68 +3047,79 @@
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Und5P</t>
+          <t>Age45_49</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t xml:space="preserve">% Population under 5 years old </t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr"/>
+          <t>Population: Age 45-49</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Total population between age 45-49</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr"/>
+          <t>467768</t>
+        </is>
+      </c>
       <c r="AD31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -3259,22 +3164,22 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Age45_49</t>
+          <t>Age50_54</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Population: Age 45-49</t>
+          <t>Population: Age 50-54</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Total population between age 45-49</t>
+          <t>Total population between age 50-54</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -3289,20 +3194,15 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>467768</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>476486</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3311,16 +3211,8 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>x</t>
@@ -3346,32 +3238,32 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t>Age50_54</t>
+          <t>AgeOv18</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Population: Age 50-54</t>
+          <t>Population: Age 18+</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Total population between age 50-54</t>
+          <t>Total population at or over age 18</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3381,15 +3273,10 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>476486</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>5661461</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3400,57 +3287,53 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t>AgeOv18</t>
+          <t>GradSclP</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Population: Age 18+</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Total population at or over age 18</t>
-        </is>
-      </c>
+          <t>% Population aged 25 years and over with a graduate or professional degree</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -3460,10 +3343,9 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>5661461</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr"/>
+          <t>60.0</t>
+        </is>
+      </c>
       <c r="AD34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -3500,18 +3382,18 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>BachelorsP</t>
+          <t>EngProf</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>% Persons aged 25 years and over with a bachelor’s degree as their highest level of education</t>
+          <t>Proportion of the population aged 5+ who speak a language other than English at home but are proficient in English</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -3534,7 +3416,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -3571,18 +3452,18 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>EduHsP</t>
+          <t>EduNoHsP</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over whose highest educational attainment is a high school diploma (or equivalent)</t>
+          <t>% Population aged 25 years and over with less than a high school diploma</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
@@ -3605,7 +3486,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -3642,18 +3522,18 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>EduNoHsP</t>
+          <t>EduHsP</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over with less than a high school diploma</t>
+          <t>% Population aged 25 years and over whose highest educational attainment is a high school diploma (or equivalent)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -3676,7 +3556,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -3713,18 +3592,18 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t>GradSclP</t>
+          <t>BachelorsP</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over with a graduate or professional degree</t>
+          <t>% Persons aged 25 years and over with a bachelor’s degree as their highest level of education</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -3747,7 +3626,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -3795,7 +3673,7 @@
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -3818,7 +3696,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3855,18 +3732,18 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t>EngProf</t>
+          <t>HsdTypCo</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Proportion of the population aged 5+ who speak a language other than English at home but are proficient in English</t>
+          <t>% Cohabiting couple household</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -3889,7 +3766,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -3907,11 +3783,7 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
@@ -3930,45 +3802,40 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
-          <t>TotPopHh</t>
+          <t>HhldFS</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Total Population in Households</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Total number of people in households</t>
-        </is>
-      </c>
+          <t>% Female householder 65 years and over living alone</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>7151776</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr"/>
+          <t>60.0</t>
+        </is>
+      </c>
       <c r="AD41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -3986,11 +3853,7 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
@@ -4009,32 +3872,28 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t>NonRelFhhP</t>
+          <t>HhldMS</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Family Households</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Percent of people living in family households that are not related to family</t>
-        </is>
-      </c>
+          <t>% Male householder 65 years and over living alone</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -4044,10 +3903,9 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr"/>
+          <t>60.0</t>
+        </is>
+      </c>
       <c r="AD42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -4088,22 +3946,22 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t>NonRelNfhhP</t>
+          <t>NonRelFhhP</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Non-family Households</t>
+          <t>% Nonrelatives in Family Households</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Percent of people living in non-family households that are not related</t>
+          <t>Percent of people living in family households that are not related to family</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -4123,10 +3981,9 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>25.61</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr"/>
+          <t>3.35</t>
+        </is>
+      </c>
       <c r="AD43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -4163,18 +4020,18 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
-          <t>FamSize</t>
+          <t>OccupantP</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Average family size</t>
+          <t>% Occupied housing units</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
@@ -4197,7 +4054,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -4234,18 +4090,18 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>HsdTot</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Average household size</t>
+          <t>Total households</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
@@ -4268,7 +4124,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -4305,18 +4160,18 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
-          <t>HhldFA</t>
+          <t>FamSize</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>% Female householder with no spouse/partner living alone</t>
+          <t>Average family size</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -4339,7 +4194,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -4376,18 +4230,18 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>HhldFC</t>
+          <t>HsdTypM</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>% Female householder with no spouse/partner living with children under 18 years</t>
+          <t xml:space="preserve">% Married-couple household </t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
@@ -4410,7 +4264,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -4428,7 +4281,11 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
@@ -4447,28 +4304,32 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
-          <t>HhldFS</t>
+          <t>NonRelNfhhP</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>% Female householder 65 years and over living alone</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr"/>
+          <t>% Nonrelatives in Non-family Households</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Percent of people living in non-family households that are not related</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -4478,10 +4339,9 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr"/>
+          <t>25.61</t>
+        </is>
+      </c>
       <c r="AD48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -4518,18 +4378,18 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
-          <t>HhldMA</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>% Male householder with no spouse/partner living alone</t>
+          <t>Average household size</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
@@ -4552,7 +4412,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -4570,7 +4429,11 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -4589,41 +4452,44 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t>HhldMC</t>
+          <t>TotPopHh</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>% Male householder with no spouse/partner living with children under 18 years</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr"/>
+          <t>Total Population in Households</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Total number of people in households</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr"/>
+          <t>7151776</t>
+        </is>
+      </c>
       <c r="AD50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -4660,18 +4526,18 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>HhldMS</t>
+          <t>HhldMC</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>% Male householder 65 years and over living alone</t>
+          <t>% Male householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
@@ -4694,7 +4560,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -4731,18 +4596,18 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t>HsdTot</t>
+          <t>HhldMA</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Total households</t>
+          <t>% Male householder with no spouse/partner living alone</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
@@ -4765,7 +4630,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -4802,18 +4666,18 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
-          <t>HsdTypCo</t>
+          <t>HsdTypMC</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>% Cohabiting couple household</t>
+          <t>% Married-couple household With children under 18 years</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -4836,7 +4700,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -4873,18 +4736,18 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t>HsdTypM</t>
+          <t>HhldFC</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t xml:space="preserve">% Married-couple household </t>
+          <t>% Female householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
@@ -4907,7 +4770,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -4944,18 +4806,18 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
-          <t>HsdTypMC</t>
+          <t>HhldFA</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>% Married-couple household With children under 18 years</t>
+          <t>% Female householder with no spouse/partner living alone</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
@@ -4978,7 +4840,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -5026,7 +4887,7 @@
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
@@ -5049,7 +4910,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -5086,18 +4946,18 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t>OccupantP</t>
+          <t>NvMrrdP</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>% Occupied housing units</t>
+          <t>% Males aged 15 or older who never got married</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
@@ -5120,7 +4980,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -5157,18 +5016,18 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
-          <t>DivrcdP</t>
+          <t>MrrdP</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>% Males 15 years and over who are divorced</t>
+          <t>% Males aged 15 or older who are married and living with their spouse</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
@@ -5191,7 +5050,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -5228,18 +5086,18 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t>MrrdP</t>
+          <t>WidwdP</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>% Males aged 15 or older who are married and living with their spouse</t>
+          <t>% Population aged 15 and over who are widowed</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
@@ -5262,7 +5120,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -5299,18 +5156,18 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t>NvMrrdP</t>
+          <t>DivrcdP</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>% Males aged 15 or older who never got married</t>
+          <t>% Males 15 years and over who are divorced</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
@@ -5333,7 +5190,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -5381,7 +5237,7 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -5404,7 +5260,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -5413,56 +5268,76 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>WidwdP</t>
+          <t>NoHsP</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>% Population aged 15 and over who are widowed</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr"/>
+          <t>% Population without High School Degree</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Percentage of population 25 years and over, less than a high school degree</t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -5472,10 +5347,9 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr"/>
+          <t>13.01</t>
+        </is>
+      </c>
       <c r="AD62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -5484,16 +5358,8 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
           <t>x</t>
@@ -5515,40 +5381,44 @@
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t>NoHsP</t>
+          <t>DisbP</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>% Population without High School Degree</t>
+          <t>% Population with Disability</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Percentage of population 25 years and over, less than a high school degree</t>
+          <t>Percentage of civilian non institutionalized population with a disability</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -5563,12 +5433,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>13.01</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="AD63" t="inlineStr"/>
@@ -5579,8 +5444,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>x</t>
@@ -5616,35 +5489,39 @@
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>DisbP</t>
+          <t>BlackP</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>% Population with Disability</t>
+          <t>% Black/African American Populationw</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Percentage of civilian non institutionalized population with a disability</t>
+          <t>Percentage of population with race identified as Black or African American alone</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -5654,15 +5531,10 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12.7</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr">
-        <is>
-          <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5701,18 +5573,10 @@
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr">
@@ -5722,22 +5586,22 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>WhiteP</t>
+          <t>AsianP</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>% White Population</t>
+          <t>% Asian Population</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as white alone</t>
+          <t>Percentage of population with race identified as Asian alone</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
@@ -5757,12 +5621,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="AD65" t="inlineStr"/>
@@ -5825,22 +5684,22 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>BlackP</t>
+          <t>PacIsP</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>% Black/African American Population</t>
+          <t>% Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Black or African American alone</t>
+          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
@@ -5860,12 +5719,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>14.81</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="AD66" t="inlineStr"/>
@@ -5935,7 +5789,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
@@ -5956,11 +5810,6 @@
       <c r="AB67" t="inlineStr">
         <is>
           <t>25.95</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
       <c r="AD67" t="inlineStr"/>
@@ -6023,22 +5872,22 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>AmIndP</t>
+          <t>OtherP</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>% Native American/Alaska Native Population</t>
+          <t>% Other (race) Population</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
+          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -6058,12 +5907,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="AD68" t="inlineStr"/>
@@ -6105,10 +5949,18 @@
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr">
@@ -6118,22 +5970,22 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>AsianP</t>
+          <t>WhiteP</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>% Asian Population</t>
+          <t>% White Population</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Asian alone</t>
+          <t>Percentage of population with race identified as white alone</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
@@ -6153,12 +6005,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>12.03</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="AD69" t="inlineStr"/>
@@ -6221,22 +6068,22 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>PacIsP</t>
+          <t>AmIndP</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>% Native Hawaiian &amp; Other PI Population</t>
+          <t>% Native American/Alaska Native Population</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
+          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
@@ -6256,12 +6103,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr"/>
@@ -6272,36 +6114,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
@@ -6317,39 +6139,31 @@
       </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
-          <t>OtherP</t>
+          <t>HisP</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>% Other (race) Population</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
-        </is>
-      </c>
+          <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -6359,12 +6173,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>16.48</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AD71" t="inlineStr"/>
@@ -6403,18 +6212,18 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
         <is>
-          <t>HisP</t>
+          <t>TwoRaceP</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
+          <t>% Population identifying as two or more races</t>
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
@@ -6437,7 +6246,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -6449,13 +6257,21 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
@@ -6474,41 +6290,44 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
-          <t>TwoRaceP</t>
+          <t>TotVetPop</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>% Population identifying as two or more races</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr"/>
+          <t>Total Veteran Population</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Total Veteran population</t>
+        </is>
+      </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr"/>
+          <t>537713</t>
+        </is>
+      </c>
       <c r="AD73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -6553,71 +6372,62 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
-          <t>TotVetPop</t>
+          <t>VetP</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Total Veteran Population</t>
+          <t>% Veteran Population</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Total Veteran population</t>
+          <t>Percent of population that are veterans</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>537713</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr"/>
+          <t>9.58</t>
+        </is>
+      </c>
       <c r="AD74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
@@ -6626,42 +6436,38 @@
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t>VetP</t>
+          <t>FqhcMinDis</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>% Veteran Population</t>
+          <t>Distance (mi) to nearest FQHC</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Percent of population that are veterans</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
+          <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -6671,10 +6477,9 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="AC75" t="inlineStr"/>
+          <t>10.23</t>
+        </is>
+      </c>
       <c r="AD75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -6683,26 +6488,10 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -6723,33 +6512,44 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t>MetRm30</t>
+          <t>FqhcCntDr</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Methadone access 30 minutes (RAAM)</t>
+          <t>Count of FQHCs (30-min drive)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Methadone access 30 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+          <t>Count of FQHCs within a 30-minute driving threshold</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>US Covid Atlas via HRSA, 2020</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+        </is>
+      </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr"/>
+          <t>17</t>
+        </is>
+      </c>
       <c r="AD76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -6758,26 +6558,10 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -6794,26 +6578,42 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
-          <t>MetRm60</t>
+          <t>FqhcTmDr</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Methadone access 60 minutes (RAAM)</t>
+          <t>Driving time (min) to nearest FQHC</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Methadone access 60 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip FQHC destination centroid, in minutes</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>US Covid Atlas via HRSA, 2020</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+        </is>
+      </c>
       <c r="AA77" t="inlineStr">
         <is>
           <t>number</t>
@@ -6821,10 +6621,9 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr"/>
+          <t>19.16</t>
+        </is>
+      </c>
       <c r="AD77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -6833,26 +6632,10 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -6873,33 +6656,44 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t>MetRm90</t>
+          <t>HospCntDr</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Methadone access 90 minutes (RAAM)</t>
+          <t>Count of Hospitals (30-min drive)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Methadone access 90 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
+          <t>Count of hospitals within a 30-minute driving threshold</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>CovidCareMap, 2020</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>CovidCareMap, 2020</t>
+        </is>
+      </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
       <c r="AD78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -6928,26 +6722,42 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
-          <t>NaltRm30</t>
+          <t>HospTmDr</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Naltrexone access 30 minutes (RAAM)</t>
+          <t>Driving time (min) to nearest Hospital</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Naltrexone access 30 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>CovidCareMap, 2020</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>CovidCareMap, 2020</t>
+        </is>
+      </c>
       <c r="AA79" t="inlineStr">
         <is>
           <t>number</t>
@@ -6955,10 +6765,9 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC79" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -6991,22 +6800,34 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
-          <t>NaltRm60</t>
+          <t>HospMinDis</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>Naltrexone access 60 minutes (RAAM)</t>
+          <t>Distance (mi) to nearest Hospital</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Naltrexone access 60 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
+          <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>CovidCareMap, 2020</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>CovidCareMap, 2020</t>
+        </is>
+      </c>
       <c r="AA80" t="inlineStr">
         <is>
           <t>number</t>
@@ -7014,10 +6835,9 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC80" t="inlineStr"/>
+          <t>0.31</t>
+        </is>
+      </c>
       <c r="AD80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -7045,38 +6865,53 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t>NaltRm90</t>
+          <t>MetCntWk30</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>Naltrexone access 90 minutes (RAAM)</t>
+          <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Naltrexone access 90 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+          <t>Count of methadone providers in 60 minute walking time threshold</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+        </is>
+      </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC81" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -7104,38 +6939,53 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
-          <t>BupRm30</t>
+          <t>NaltCntWk30</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>Buprenorphine access 30 minutes (RAAM)</t>
+          <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Buprenorphine access 30 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+          <t>Count of naltrexone providers in 30 minute walking time threshold</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+        </is>
+      </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -7163,27 +7013,47 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
-          <t>BupRm60</t>
+          <t>NaltTmDr</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>Buprenorphine access 60 minutes (RAAM)</t>
+          <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Buprenorphine access 60 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+          <t>Driving time (minutes) to nearest naltrexone provider</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+        </is>
+      </c>
       <c r="AA83" t="inlineStr">
         <is>
           <t>number</t>
@@ -7191,10 +7061,9 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC83" t="inlineStr"/>
+          <t>35.34</t>
+        </is>
+      </c>
       <c r="AD83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -7214,35 +7083,47 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t>BupRm90</t>
+          <t>BupCntDr60</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Buprenorphine access 90 minutes (RAAM)</t>
+          <t>Count of buprenorphine providers (drive)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Buprenorphine access 90 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+          <t>Count of buprenorphine providers in 60 minute drive time threshold</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>SAMHSA</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>The Substance Abuse and Mental Health Services Administration</t>
+        </is>
+      </c>
       <c r="AA84" t="inlineStr">
         <is>
           <t>number</t>
@@ -7250,10 +7131,9 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC84" t="inlineStr"/>
+          <t>121.0</t>
+        </is>
+      </c>
       <c r="AD84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -7281,59 +7161,54 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
-          <t>FqhcMinDis</t>
+          <t>BupCntBk60</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest FQHC</t>
+          <t>Count of Buprenorphine Providers (60-min bike)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
+          <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD85" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AD85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7360,41 +7235,41 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
-          <t>FqhcTmDr</t>
+          <t>NaltMinDis</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest FQHC</t>
+          <t>Distance (mi) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip FQHC destination centroid, in minutes</t>
+          <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -7404,19 +7279,10 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>19.16</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD86" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="AD86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7443,37 +7309,41 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
-          <t>FqhcCntDr</t>
+          <t>MetCntBk60</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>Count of FQHCs (30-min drive)</t>
+          <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Count of FQHCs within a 30-minute driving threshold</t>
+          <t>Count of methadone providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -7483,19 +7353,10 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD87" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7531,22 +7392,22 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr">
         <is>
-          <t>MoudMinDis</t>
+          <t>MetMinDis</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest MOUD (any)</t>
+          <t>Distance (mi) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
+          <t>Euclidean distance (miles) to nearest methadone provider</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X88" t="inlineStr">
@@ -7566,19 +7427,10 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD88" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="AD88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7610,26 +7462,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr">
         <is>
-          <t>BupMinDis</t>
+          <t>BupTmDr</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Buprenorphine Provider</t>
+          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
+          <t>Driving time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X89" t="inlineStr">
@@ -7649,19 +7505,10 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD89" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7701,22 +7548,22 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t>BupTmDr</t>
+          <t>MetTmBk</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+          <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest buprenorphine provider</t>
+          <t>Biking time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X90" t="inlineStr">
@@ -7736,19 +7583,10 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD90" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>148.18</t>
+        </is>
+      </c>
+      <c r="AD90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7780,26 +7618,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>BupCntDr30</t>
+          <t>NaltTmWk</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min drive)</t>
+          <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute drive time threshold</t>
+          <t>Walking time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
@@ -7814,24 +7656,11 @@
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="AB91" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD91" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7867,22 +7696,22 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t>MetMinDis</t>
+          <t>BupMinDis</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Methadone Provider</t>
+          <t>Distance (mi) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest methadone provider</t>
+          <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
@@ -7902,19 +7731,10 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>13.22</t>
-        </is>
-      </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD92" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="AD92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7933,11 +7753,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
@@ -7946,40 +7762,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
-          <t>MetTmDr</t>
+          <t>NaltCntDr60</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Methadone Provider</t>
+          <t>Count of naltrexone providers (drive)</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest methadone provider</t>
+          <t>Count of naltrexone providers in 60 minute drive time threshold</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMHSA</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>The Substance Abuse and Mental Health Services Administration</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -7989,19 +7801,10 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD93" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AD93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8020,11 +7823,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
@@ -8037,54 +7836,45 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>MetCntDr30</t>
+          <t>OtpMinDis</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min drive)</t>
+          <t>Distance to nearest OTP</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute drive time threshold</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMHSA</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>The Substance Abuse and Mental Health Services Administration</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD94" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AD94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8120,22 +7910,22 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>NaltMinDis</t>
+          <t>MetCntBk30</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Naltrexone Provider</t>
+          <t>Count of methadone providers (30-min bike)</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
+          <t>Count of methadone providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X95" t="inlineStr">
@@ -8150,24 +7940,15 @@
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>18.04</t>
-        </is>
-      </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD95" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8186,11 +7967,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
@@ -8199,40 +7976,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>NaltTmDr</t>
+          <t>MetCntDr60</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Naltrexone Provider</t>
+          <t>Count of methadone providers (drive)</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest naltrexone provider</t>
+          <t>Count of methadone providers in 60 minute drive time threshold</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMHSA</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>The Substance Abuse and Mental Health Services Administration</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -8242,19 +8015,10 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>35.34</t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD96" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AD96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8273,12 +8037,12 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
@@ -8286,58 +8050,53 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t>NaltCntDr30</t>
+          <t>OtpTmDr</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min drive)</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute drive time threshold</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC97" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD97" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="AD97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8356,12 +8115,12 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr">
@@ -8369,62 +8128,49 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
-          <t>BupTmWk</t>
+          <t>OtpCntDr</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest buprenorphine provider</t>
+          <t>Count of OTPs within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD98" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8460,22 +8206,22 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
-          <t>BupCntWk60</t>
+          <t>NaltCntBk30</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min walk)</t>
+          <t>Count of Naltrexone Providers (30-min bike)</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
+          <t>Count of naltrexone providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X99" t="inlineStr">
@@ -8495,19 +8241,10 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD99" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8558,7 +8295,7 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X100" t="inlineStr">
@@ -8581,16 +8318,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD100" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8622,30 +8350,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
-          <t>MetTmWk</t>
+          <t>MetCntDr30</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Methadone Provider</t>
+          <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest methadone provider</t>
+          <t>Count of methadone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X101" t="inlineStr">
@@ -8660,24 +8384,15 @@
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>1744.66</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD101" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8713,22 +8428,22 @@
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr">
         <is>
-          <t>MetCntWk30</t>
+          <t>NaltCntWk60</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min walk)</t>
+          <t>Count of Naltrexone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute walking time threshold</t>
+          <t>Count of naltrexone providers in 60 minute walking time threshold</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
@@ -8751,16 +8466,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD102" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8811,7 +8517,7 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X103" t="inlineStr">
@@ -8834,16 +8540,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC103" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD103" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8875,30 +8572,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr">
         <is>
-          <t>NaltTmWk</t>
+          <t>NaltCntDr30</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+          <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest naltrexone provider</t>
+          <t>Count of naltrexone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X104" t="inlineStr">
@@ -8913,20 +8606,15 @@
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AB104" t="inlineStr"/>
-      <c r="AC104" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD104" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8958,26 +8646,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R105" t="inlineStr"/>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr">
         <is>
-          <t>NaltCntWk60</t>
+          <t>NaltTmBk</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min walk)</t>
+          <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute walking time threshold</t>
+          <t>Biking time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X105" t="inlineStr">
@@ -8992,24 +8684,15 @@
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC105" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD105" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>165.18</t>
+        </is>
+      </c>
+      <c r="AD105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9041,26 +8724,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R106" t="inlineStr"/>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr">
         <is>
-          <t>NaltCntWk30</t>
+          <t>BupTmBk</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min walk)</t>
+          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute walking time threshold</t>
+          <t>Biking time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X106" t="inlineStr">
@@ -9075,7 +8762,7 @@
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
@@ -9083,16 +8770,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC106" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD106" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9124,30 +8802,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr">
         <is>
-          <t>BupTmBk</t>
+          <t>MoudMinDis</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Distance (mi) to nearest MOUD (any)</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest buprenorphine provider</t>
+          <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X107" t="inlineStr">
@@ -9167,19 +8841,10 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC107" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD107" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="AD107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9211,26 +8876,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr">
         <is>
-          <t>BupCntBk60</t>
+          <t>MetTmWk</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min bike)</t>
+          <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
+          <t>Walking time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X108" t="inlineStr">
@@ -9245,24 +8914,15 @@
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AC108" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD108" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>1744.66</t>
+        </is>
+      </c>
+      <c r="AD108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9298,22 +8958,22 @@
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr">
         <is>
-          <t>BupCntBk30</t>
+          <t>NaltCntBk60</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min bike)</t>
+          <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
+          <t>Count of naltrexone providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X109" t="inlineStr">
@@ -9333,19 +8993,10 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AC109" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD109" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9385,22 +9036,22 @@
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr">
         <is>
-          <t>MetTmBk</t>
+          <t>MetTmDr</t>
         </is>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Methadone Provider</t>
+          <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest methadone provider</t>
+          <t>Driving time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X110" t="inlineStr">
@@ -9420,19 +9071,10 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>148.18</t>
-        </is>
-      </c>
-      <c r="AC110" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD110" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="AD110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9468,22 +9110,22 @@
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr">
         <is>
-          <t>MetCntBk60</t>
+          <t>BupCntDr30</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min bike)</t>
+          <t>Count of Buprenorphine Providers (30-min drive)</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute biking time threshold</t>
+          <t>Count of methadone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X111" t="inlineStr">
@@ -9503,19 +9145,10 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC111" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD111" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AD111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9547,26 +9180,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr">
         <is>
-          <t>MetCntBk30</t>
+          <t>BupTmWk</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>Count of methadone providers (30-min bike)</t>
+          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute biking time threshold</t>
+          <t>Walking time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X112" t="inlineStr">
@@ -9581,7 +9218,7 @@
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB112" t="inlineStr">
@@ -9589,16 +9226,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC112" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD112" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9630,30 +9258,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr">
         <is>
-          <t>NaltTmBk</t>
+          <t>BupCntWk60</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Naltrexone Provider</t>
+          <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest naltrexone provider</t>
+          <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X113" t="inlineStr">
@@ -9668,24 +9292,15 @@
       </c>
       <c r="AA113" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>165.18</t>
-        </is>
-      </c>
-      <c r="AC113" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD113" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9721,22 +9336,22 @@
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr">
         <is>
-          <t>NaltCntBk60</t>
+          <t>BupCntBk30</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min bike)</t>
+          <t>Count of Buprenorphine Providers (30-min bike)</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute biking time threshold</t>
+          <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X114" t="inlineStr">
@@ -9756,19 +9371,10 @@
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC114" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD114" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AD114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9776,10 +9382,26 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
@@ -9795,63 +9417,42 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr">
         <is>
-          <t>NaltCntBk30</t>
+          <t>MetRm60</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min bike)</t>
+          <t>Methadone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute biking time threshold</t>
+          <t>Methadone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
-        </is>
-      </c>
-      <c r="Y115" t="inlineStr">
-        <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC115" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD115" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>1.232</t>
+        </is>
+      </c>
+      <c r="AD115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9859,10 +9460,26 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -9870,47 +9487,39 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr">
         <is>
-          <t>BupCntDr60</t>
+          <t>MetRm90</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers (drive)</t>
+          <t>Methadone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute drive time threshold</t>
+          <t>Methadone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
-        </is>
-      </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>SAMHSA</t>
-        </is>
-      </c>
-      <c r="Y116" t="inlineStr">
-        <is>
-          <t>The Substance Abuse and Mental Health Services Administration</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
       <c r="AA116" t="inlineStr">
         <is>
           <t>number</t>
@@ -9918,10 +9527,9 @@
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="AC116" t="inlineStr"/>
+          <t>1.232</t>
+        </is>
+      </c>
       <c r="AD116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -9930,10 +9538,26 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -9941,47 +9565,39 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr">
         <is>
-          <t>NaltCntDr60</t>
+          <t>MetRm30</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers (drive)</t>
+          <t>Methadone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute drive time threshold</t>
+          <t>Methadone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
-        </is>
-      </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>SAMHSA</t>
-        </is>
-      </c>
-      <c r="Y117" t="inlineStr">
-        <is>
-          <t>The Substance Abuse and Mental Health Services Administration</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
       <c r="AA117" t="inlineStr">
         <is>
           <t>number</t>
@@ -9989,10 +9605,9 @@
       </c>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="AC117" t="inlineStr"/>
+          <t>1.232</t>
+        </is>
+      </c>
       <c r="AD117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -10012,47 +9627,39 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr">
         <is>
-          <t>MetCntDr60</t>
+          <t>NaltRm60</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>Count of methadone providers (drive)</t>
+          <t>Naltrexone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute drive time threshold</t>
+          <t>Naltrexone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
-        </is>
-      </c>
-      <c r="X118" t="inlineStr">
-        <is>
-          <t>SAMHSA</t>
-        </is>
-      </c>
-      <c r="Y118" t="inlineStr">
-        <is>
-          <t>The Substance Abuse and Mental Health Services Administration</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
       <c r="AA118" t="inlineStr">
         <is>
           <t>number</t>
@@ -10060,10 +9667,9 @@
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="AC118" t="inlineStr"/>
+          <t>1.232</t>
+        </is>
+      </c>
       <c r="AD118" t="inlineStr"/>
     </row>
     <row r="119">
@@ -10096,34 +9702,26 @@
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr">
         <is>
-          <t>MhMinDis</t>
+          <t>BupRm60</t>
         </is>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Mental Health Provider</t>
+          <t>Buprenorphine access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
+          <t>Buprenorphine access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
-        </is>
-      </c>
-      <c r="X119" t="inlineStr">
-        <is>
-          <t>SAMHSA, 2020</t>
-        </is>
-      </c>
-      <c r="Y119" t="inlineStr">
-        <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
       <c r="AA119" t="inlineStr">
         <is>
           <t>number</t>
@@ -10131,19 +9729,10 @@
       </c>
       <c r="AB119" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="AC119" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD119" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>1.232</t>
+        </is>
+      </c>
+      <c r="AD119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10171,42 +9760,30 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr">
         <is>
-          <t>MhTmDr</t>
+          <t>NaltRm30</t>
         </is>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Naltrexone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
+          <t>Naltrexone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
-        </is>
-      </c>
-      <c r="X120" t="inlineStr">
-        <is>
-          <t>SAMHSA, 2020</t>
-        </is>
-      </c>
-      <c r="Y120" t="inlineStr">
-        <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
       <c r="AA120" t="inlineStr">
         <is>
           <t>number</t>
@@ -10214,19 +9791,10 @@
       </c>
       <c r="AB120" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC120" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD120" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>1.232</t>
+        </is>
+      </c>
+      <c r="AD120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10258,54 +9826,37 @@
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr">
         <is>
-          <t>MhCntDr</t>
+          <t>NaltRm90</t>
         </is>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>Count of Mental Health Providers (30-min drive)</t>
+          <t>Naltrexone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>Count of MH providers within a 30-minute driving threshold</t>
+          <t>Naltrexone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
-        </is>
-      </c>
-      <c r="X121" t="inlineStr">
-        <is>
-          <t>SAMHSA, 2020</t>
-        </is>
-      </c>
-      <c r="Y121" t="inlineStr">
-        <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
       <c r="AA121" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AC121" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD121" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>1.232</t>
+        </is>
+      </c>
+      <c r="AD121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10324,47 +9875,39 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr">
         <is>
-          <t>OtpMinDis</t>
+          <t>BupRm90</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>Distance to nearest OTP</t>
+          <t>Buprenorphine access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
+          <t>Buprenorphine access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
-        </is>
-      </c>
-      <c r="X122" t="inlineStr">
-        <is>
-          <t>SAMHSA</t>
-        </is>
-      </c>
-      <c r="Y122" t="inlineStr">
-        <is>
-          <t>The Substance Abuse and Mental Health Services Administration</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
       <c r="AA122" t="inlineStr">
         <is>
           <t>number</t>
@@ -10372,10 +9915,9 @@
       </c>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="AC122" t="inlineStr"/>
+          <t>1.232</t>
+        </is>
+      </c>
       <c r="AD122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -10395,55 +9937,39 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr">
         <is>
-          <t>OtpTmDr</t>
+          <t>BupRm30</t>
         </is>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>Buprenorphine access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
+          <t>Buprenorphine access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
-        </is>
-      </c>
-      <c r="X123" t="inlineStr">
-        <is>
-          <t>SAMSHA, 2021</t>
-        </is>
-      </c>
-      <c r="Y123" t="inlineStr">
-        <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
       <c r="AA123" t="inlineStr">
         <is>
           <t>number</t>
@@ -10451,15 +9977,10 @@
       </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="AC123" t="inlineStr"/>
-      <c r="AD123" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>1.232</t>
+        </is>
+      </c>
+      <c r="AD123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10478,49 +9999,45 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr">
         <is>
-          <t>OtpCntDr</t>
+          <t>MhCntDr</t>
         </is>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
+          <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>Count of OTPs within a 30-minute driving threshold</t>
+          <t>Count of MH providers within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
@@ -10530,15 +10047,10 @@
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC124" t="inlineStr"/>
-      <c r="AD124" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AD124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10556,12 +10068,12 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
@@ -10570,32 +10082,32 @@
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr">
         <is>
-          <t>RxMinDis</t>
+          <t>MhMinDis</t>
         </is>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Pharmacy</t>
+          <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="X125" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
@@ -10605,19 +10117,10 @@
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="AC125" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD125" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="AD125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10635,12 +10138,12 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
@@ -10653,32 +10156,32 @@
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr">
         <is>
-          <t>RxTmDr</t>
+          <t>MhTmDr</t>
         </is>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Pharmacy</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
         </is>
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="X126" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
@@ -10691,16 +10194,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC126" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD126" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+      <c r="AD126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10747,7 +10241,7 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
@@ -10770,16 +10264,7 @@
           <t>58</t>
         </is>
       </c>
-      <c r="AC127" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD127" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+      <c r="AD127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10797,46 +10282,50 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr">
         <is>
-          <t>SutMinDis</t>
+          <t>RxTmDr</t>
         </is>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
+          <t>Driving Time (min) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
         </is>
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA128" t="inlineStr">
@@ -10846,19 +10335,10 @@
       </c>
       <c r="AB128" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="AC128" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD128" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10876,50 +10356,46 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr">
         <is>
-          <t>SutTmDr</t>
+          <t>RxMinDis</t>
         </is>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
+          <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
         </is>
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA129" t="inlineStr">
@@ -10929,19 +10405,10 @@
       </c>
       <c r="AB129" t="inlineStr">
         <is>
-          <t>17.76</t>
-        </is>
-      </c>
-      <c r="AC129" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD129" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="AD129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10988,7 +10455,7 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="X130" t="inlineStr">
@@ -11011,16 +10478,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="AC130" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD130" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+      <c r="AD130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11052,32 +10510,32 @@
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr">
         <is>
-          <t>HospMinDis</t>
+          <t>SutMinDis</t>
         </is>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Hospital</t>
+          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
         </is>
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
@@ -11087,19 +10545,10 @@
       </c>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="AC131" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD131" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="AD131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11135,32 +10584,32 @@
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr">
         <is>
-          <t>HospTmDr</t>
+          <t>SutTmDr</t>
         </is>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest Hospital</t>
+          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
@@ -11170,19 +10619,10 @@
       </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC132" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD132" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="AD132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11199,13 +10639,13 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
@@ -11214,54 +10654,45 @@
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr">
         <is>
-          <t>HospCntDr</t>
+          <t>AreaSqMi</t>
         </is>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>Count of Hospitals (30-min drive)</t>
+          <t>Land Area (Square Miles)</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>Count of hospitals within a 30-minute driving threshold</t>
+          <t>Land area of geography in sq miles</t>
         </is>
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup, 2018</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB133" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AC133" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD133" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>66452.74</t>
+        </is>
+      </c>
+      <c r="AD133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11308,7 +10739,7 @@
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="X134" t="inlineStr">
@@ -11329,12 +10760,6 @@
       <c r="AB134" t="inlineStr">
         <is>
           <t>421</t>
-        </is>
-      </c>
-      <c r="AC134" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
       <c r="AD134" t="inlineStr"/>
@@ -11384,7 +10809,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="X135" t="inlineStr">
@@ -11405,12 +10830,6 @@
       <c r="AB135" t="inlineStr">
         <is>
           <t>0.01</t>
-        </is>
-      </c>
-      <c r="AC135" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
       <c r="AD135" t="inlineStr"/>
@@ -11460,7 +10879,7 @@
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="X136" t="inlineStr">
@@ -11481,12 +10900,6 @@
       <c r="AB136" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="AC136" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
       <c r="AD136" t="inlineStr"/>
@@ -11500,17 +10913,17 @@
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
@@ -11521,47 +10934,42 @@
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr">
         <is>
-          <t>TotPcp</t>
+          <t>Ndvi</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>Count of Primary Care Physicians (PCPs)</t>
+          <t>NDVI Average</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>Number of primary care providers in area</t>
+          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Greenspace_Measures.md</t>
         </is>
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas, 2010</t>
+          <t>Sentinel-2 MSI, 2018</t>
         </is>
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
+          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
         </is>
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>5904</t>
-        </is>
-      </c>
-      <c r="AC137" t="inlineStr">
-        <is>
-          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="AD137" t="inlineStr"/>
@@ -11611,7 +11019,7 @@
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="X138" t="inlineStr">
@@ -11632,11 +11040,6 @@
       <c r="AB138" t="inlineStr">
         <is>
           <t>9499</t>
-        </is>
-      </c>
-      <c r="AC138" t="inlineStr">
-        <is>
-          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
         </is>
       </c>
       <c r="AD138" t="inlineStr"/>
@@ -11667,30 +11070,26 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R139" t="inlineStr"/>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr">
         <is>
-          <t>PcpPer100k</t>
+          <t>TotPcp</t>
         </is>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>Primary Care Physicians (PCP) per 100k</t>
+          <t>Count of Primary Care Physicians (PCPs)</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>PCPs per total Population X 100,000</t>
+          <t>Number of primary care providers in area</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="X139" t="inlineStr">
@@ -11700,22 +11099,17 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
+          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB139" t="inlineStr">
         <is>
-          <t>133.42</t>
-        </is>
-      </c>
-      <c r="AC139" t="inlineStr">
-        <is>
-          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
+          <t>5904</t>
         </is>
       </c>
       <c r="AD139" t="inlineStr"/>
@@ -11746,26 +11140,30 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr">
         <is>
-          <t>SpPer100k</t>
+          <t>PcpPer100k</t>
         </is>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>Specialty Physicians per 100k</t>
+          <t>Primary Care Physicians (PCP) per 100k</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>Specialty Physicians per total Population X 100,000</t>
+          <t>PCPs per total Population X 100,000</t>
         </is>
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="X140" t="inlineStr">
@@ -11785,12 +11183,7 @@
       </c>
       <c r="AB140" t="inlineStr">
         <is>
-          <t>41.05</t>
-        </is>
-      </c>
-      <c r="AC140" t="inlineStr">
-        <is>
-          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
+          <t>133.42</t>
         </is>
       </c>
       <c r="AD140" t="inlineStr"/>
@@ -11801,21 +11194,9 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
           <t>x</t>
@@ -11826,74 +11207,53 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr">
         <is>
-          <t>TotUnits</t>
+          <t>SpPer100k</t>
         </is>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>Total Occupied Housing Units</t>
+          <t>Specialty Physicians per 100k</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>Count of total occupied housing units</t>
+          <t>Specialty Physicians per total Population X 100,000</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="X141" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
+          <t>Dartmouth Atlas, 2010</t>
         </is>
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
+          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>874237</t>
-        </is>
-      </c>
-      <c r="AC141" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+          <t>41.05</t>
         </is>
       </c>
       <c r="AD141" t="inlineStr"/>
@@ -11971,7 +11331,7 @@
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X142" t="inlineStr">
@@ -11992,11 +11352,6 @@
       <c r="AB142" t="inlineStr">
         <is>
           <t>13.28</t>
-        </is>
-      </c>
-      <c r="AC142" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
       <c r="AD142" t="inlineStr"/>
@@ -12007,10 +11362,26 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -12036,48 +11407,51 @@
       </c>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>MobileP</t>
+          <t>TotUnits</t>
         </is>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>Mobile Homes %</t>
+          <t>Total Occupied Housing Units</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>Percentage of total housing units categorized as mobile housing structures</t>
+          <t>Count of total occupied housing units</t>
         </is>
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X143" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
         </is>
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="AC143" t="inlineStr"/>
+          <t>874237</t>
+        </is>
+      </c>
       <c r="AD143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -12118,22 +11492,22 @@
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr">
         <is>
-          <t>LngTermP</t>
+          <t>UnitDens</t>
         </is>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>Long-Term Occupancy %</t>
+          <t>Housing Unit Density</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
+          <t>Number of housing units per square mile of land area</t>
         </is>
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X144" t="inlineStr">
@@ -12153,10 +11527,9 @@
       </c>
       <c r="AB144" t="inlineStr">
         <is>
-          <t>19.99</t>
-        </is>
-      </c>
-      <c r="AC144" t="inlineStr"/>
+          <t>46.11</t>
+        </is>
+      </c>
       <c r="AD144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -12212,7 +11585,7 @@
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X145" t="inlineStr">
@@ -12235,7 +11608,6 @@
           <t>37.28</t>
         </is>
       </c>
-      <c r="AC145" t="inlineStr"/>
       <c r="AD145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -12276,22 +11648,22 @@
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr">
         <is>
-          <t>UnitDens</t>
+          <t>MobileP</t>
         </is>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>Housing Unit Density</t>
+          <t>Mobile Homes %</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>Number of housing units per square mile of land area</t>
+          <t>Percentage of total housing units categorized as mobile housing structures</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X146" t="inlineStr">
@@ -12311,10 +11683,9 @@
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>46.11</t>
-        </is>
-      </c>
-      <c r="AC146" t="inlineStr"/>
+          <t>6.39</t>
+        </is>
+      </c>
       <c r="AD146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -12332,47 +11703,55 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>LngTermP</t>
         </is>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Long-Term Occupancy %</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>Percentage of Households without Internet access</t>
+          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>ACS, 2019</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5 Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
@@ -12382,10 +11761,9 @@
       </c>
       <c r="AB147" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="AC147" t="inlineStr"/>
+          <t>19.99</t>
+        </is>
+      </c>
       <c r="AD147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -12397,7 +11775,11 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
@@ -12418,47 +11800,42 @@
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr">
         <is>
-          <t>Ndvi</t>
+          <t>Ruca1</t>
         </is>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>NDVI Average</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>Sentinel-2 MSI, 2018</t>
+          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr">
         <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="AC148" t="inlineStr">
-        <is>
-          <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD148" t="inlineStr"/>
@@ -12472,7 +11849,11 @@
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
@@ -12493,22 +11874,22 @@
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr">
         <is>
-          <t>Ruca1</t>
+          <t>Ruca2</t>
         </is>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="X149" t="inlineStr">
@@ -12528,10 +11909,9 @@
       </c>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC149" t="inlineStr"/>
+          <t>1.1</t>
+        </is>
+      </c>
       <c r="AD149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -12560,26 +11940,30 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr">
         <is>
-          <t>Ruca2</t>
+          <t>Rurality</t>
         </is>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Urban-Suburban-Rural</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Urban/Suburban/Rural</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="X150" t="inlineStr">
@@ -12599,22 +11983,37 @@
       </c>
       <c r="AB150" t="inlineStr">
         <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="AC150" t="inlineStr"/>
+          <t>Urban</t>
+        </is>
+      </c>
       <c r="AD150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Environment</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -12626,58 +12025,65 @@
         </is>
       </c>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t>Rurality</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>Urban-Suburban-Rural</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural</t>
+          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic.md</t>
         </is>
       </c>
       <c r="X151" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="AC151" t="inlineStr"/>
+          <t>16.6</t>
+        </is>
+      </c>
       <c r="AD151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -12738,22 +12144,22 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
+          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic.md</t>
         </is>
       </c>
       <c r="X152" t="inlineStr">
@@ -12773,19 +12179,10 @@
       </c>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>16.6</t>
-        </is>
-      </c>
-      <c r="AC152" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
-      <c r="AD152" t="inlineStr">
-        <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
-        </is>
-      </c>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="AD152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12793,21 +12190,9 @@
           <t>Economic</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
           <t>x</t>
@@ -12838,61 +12223,48 @@
       </c>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
+          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic.md</t>
         </is>
       </c>
       <c r="X153" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB153" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AC153" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
-      <c r="AD153" t="inlineStr">
-        <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
-        </is>
-      </c>
+          <t>36888</t>
+        </is>
+      </c>
+      <c r="AD153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12951,7 +12323,7 @@
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic.md</t>
         </is>
       </c>
       <c r="X154" t="inlineStr">
@@ -12974,7 +12346,6 @@
           <t>34148</t>
         </is>
       </c>
-      <c r="AC154" t="inlineStr"/>
       <c r="AD154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -13019,22 +12390,22 @@
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="X155" t="inlineStr">
@@ -13049,15 +12420,14 @@
       </c>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB155" t="inlineStr">
         <is>
-          <t>36888</t>
-        </is>
-      </c>
-      <c r="AC155" t="inlineStr"/>
+          <t>0.46</t>
+        </is>
+      </c>
       <c r="AD155" t="inlineStr"/>
     </row>
     <row r="156">
@@ -13069,11 +12439,7 @@
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
@@ -13085,49 +12451,41 @@
         </is>
       </c>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
         </is>
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="X156" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>HUD, 2018</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr">
@@ -13137,10 +12495,9 @@
       </c>
       <c r="AB156" t="inlineStr">
         <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="AC156" t="inlineStr"/>
+          <t>48.09</t>
+        </is>
+      </c>
       <c r="AD156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -13188,7 +12545,7 @@
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="X157" t="inlineStr">
@@ -13211,16 +12568,7 @@
           <t>5.53</t>
         </is>
       </c>
-      <c r="AC157" t="inlineStr">
-        <is>
-          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
-        </is>
-      </c>
-      <c r="AD157" t="inlineStr">
-        <is>
-          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
-        </is>
-      </c>
+      <c r="AD157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -13237,12 +12585,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
@@ -13252,32 +12600,32 @@
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
+          <t>Percentage of Households without Internet access</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>HUD, 2018</t>
+          <t>ACS, 2019</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
+          <t>American Community Survey 2015-2019 5 Year Estimate</t>
         </is>
       </c>
       <c r="AA158" t="inlineStr">
@@ -13287,19 +12635,10 @@
       </c>
       <c r="AB158" t="inlineStr">
         <is>
-          <t>48.09</t>
-        </is>
-      </c>
-      <c r="AC158" t="inlineStr">
-        <is>
-          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
-        </is>
-      </c>
-      <c r="AD158" t="inlineStr">
-        <is>
-          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
-        </is>
-      </c>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="AD158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -13354,7 +12693,7 @@
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X159" t="inlineStr">
@@ -13377,7 +12716,6 @@
           <t>3513856</t>
         </is>
       </c>
-      <c r="AC159" t="inlineStr"/>
       <c r="AD159" t="inlineStr"/>
     </row>
     <row r="160">
@@ -13418,22 +12756,22 @@
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr">
         <is>
-          <t>EduP</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>Employed % - Education</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>Percentage of population employed in educational services industry</t>
+          <t>Percentage of population employed in retail trade industry</t>
         </is>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X160" t="inlineStr">
@@ -13453,12 +12791,7 @@
       </c>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="AC160" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AD160" t="inlineStr"/>
@@ -13516,7 +12849,7 @@
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X161" t="inlineStr">
@@ -13537,11 +12870,6 @@
       <c r="AB161" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AC161" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
       <c r="AD161" t="inlineStr"/>
@@ -13599,7 +12927,7 @@
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X162" t="inlineStr">
@@ -13620,11 +12948,6 @@
       <c r="AB162" t="inlineStr">
         <is>
           <t>13.13</t>
-        </is>
-      </c>
-      <c r="AC162" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
       <c r="AD162" t="inlineStr"/>
@@ -13667,22 +12990,22 @@
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>EduP</t>
         </is>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Employed % - Education</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>Percentage of population employed in retail trade industry</t>
+          <t>Percentage of population employed in educational services industry</t>
         </is>
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X163" t="inlineStr">
@@ -13702,12 +13025,7 @@
       </c>
       <c r="AB163" t="inlineStr">
         <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="AC163" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="AD163" t="inlineStr"/>
@@ -13765,7 +13083,7 @@
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
       <c r="X164" t="inlineStr">
@@ -13788,7 +13106,6 @@
           <t>42.96</t>
         </is>
       </c>
-      <c r="AC164" t="inlineStr"/>
       <c r="AD164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -13836,7 +13153,7 @@
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
       <c r="X165" t="inlineStr">
@@ -13859,7 +13176,6 @@
           <t>1509709</t>
         </is>
       </c>
-      <c r="AC165" t="inlineStr"/>
       <c r="AD165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -13907,7 +13223,7 @@
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="X166" t="inlineStr">
@@ -13928,11 +13244,6 @@
       <c r="AB166" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="AC166" t="inlineStr">
-        <is>
-          <t>Some tracts are not assigned with any typologies because data are missing for factor analysis.</t>
         </is>
       </c>
       <c r="AD166" t="inlineStr"/>
@@ -13971,22 +13282,22 @@
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr">
         <is>
-          <t>SocEcAdvIn</t>
+          <t>UrbCoreInd</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>Socioeconomic Advantage Index</t>
+          <t>Urban Core Opportunity Index</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>Raw Socioeconomic Advantage Index (https://sdohatlas.github.io/)</t>
+          <t>Raw Urban Core Opportunity Index (https://sdohatlas.github.io/)</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="X167" t="inlineStr">
@@ -14006,10 +13317,9 @@
       </c>
       <c r="AB167" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="AC167" t="inlineStr"/>
+          <t>-0.06</t>
+        </is>
+      </c>
       <c r="AD167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -14046,22 +13356,22 @@
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr">
         <is>
-          <t>LimMobInd</t>
+          <t>MicaInd</t>
         </is>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>Limited Moblility Index</t>
+          <t>Mixed Immigrant Cohesion and Accesibility (MICA) Index</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>Raw Limited Mobility Index (https://sdohatlas.github.io/)</t>
+          <t>Raw Mixed Immigrant Cohesion and Accessibility (MICA) Index (https://sdohatlas.github.io/)</t>
         </is>
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="X168" t="inlineStr">
@@ -14081,10 +13391,9 @@
       </c>
       <c r="AB168" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="AC168" t="inlineStr"/>
+          <t>0.59</t>
+        </is>
+      </c>
       <c r="AD168" t="inlineStr"/>
     </row>
     <row r="169">
@@ -14121,22 +13430,22 @@
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr">
         <is>
-          <t>UrbCoreInd</t>
+          <t>SocEcAdvIn</t>
         </is>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>Urban Core Opportunity Index</t>
+          <t>Socioeconomic Advantage Index</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>Raw Urban Core Opportunity Index (https://sdohatlas.github.io/)</t>
+          <t>Raw Socioeconomic Advantage Index (https://sdohatlas.github.io/)</t>
         </is>
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="X169" t="inlineStr">
@@ -14156,10 +13465,9 @@
       </c>
       <c r="AB169" t="inlineStr">
         <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="AC169" t="inlineStr"/>
+          <t>1.17</t>
+        </is>
+      </c>
       <c r="AD169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -14196,22 +13504,22 @@
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr">
         <is>
-          <t>MicaInd</t>
+          <t>LimMobInd</t>
         </is>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>Mixed Immigrant Cohesion and Accesibility (MICA) Index</t>
+          <t>Limited Moblility Index</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>Raw Mixed Immigrant Cohesion and Accessibility (MICA) Index (https://sdohatlas.github.io/)</t>
+          <t>Raw Limited Mobility Index (https://sdohatlas.github.io/)</t>
         </is>
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="X170" t="inlineStr">
@@ -14231,10 +13539,9 @@
       </c>
       <c r="AB170" t="inlineStr">
         <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="AC170" t="inlineStr"/>
+          <t>0.54</t>
+        </is>
+      </c>
       <c r="AD170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -14279,22 +13586,22 @@
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr">
         <is>
-          <t>SviTh1</t>
+          <t>SviTh4</t>
         </is>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
+          <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 1: Socioeconomic</t>
+          <t>SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X171" t="inlineStr">
@@ -14314,12 +13621,7 @@
       </c>
       <c r="AB171" t="inlineStr">
         <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="AC171" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="AD171" t="inlineStr"/>
@@ -14362,22 +13664,22 @@
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr">
         <is>
-          <t>SviTh2</t>
+          <t>SviSmryRnk</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
+          <t>Overall summary ranking</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X172" t="inlineStr">
@@ -14397,12 +13699,7 @@
       </c>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="AC172" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="AD172" t="inlineStr"/>
@@ -14460,7 +13757,7 @@
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X173" t="inlineStr">
@@ -14481,11 +13778,6 @@
       <c r="AB173" t="inlineStr">
         <is>
           <t>0.2</t>
-        </is>
-      </c>
-      <c r="AC173" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
       <c r="AD173" t="inlineStr"/>
@@ -14532,22 +13824,22 @@
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr">
         <is>
-          <t>SviTh4</t>
+          <t>SviTh1</t>
         </is>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
+          <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
+          <t>SVI Ranking, Theme 1: Socioeconomic</t>
         </is>
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X174" t="inlineStr">
@@ -14567,12 +13859,7 @@
       </c>
       <c r="AB174" t="inlineStr">
         <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="AC174" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="AD174" t="inlineStr"/>
@@ -14615,22 +13902,22 @@
       <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr">
         <is>
-          <t>SviSmryRnk</t>
+          <t>SviTh2</t>
         </is>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
+          <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>Overall summary ranking</t>
+          <t>SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
         </is>
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X175" t="inlineStr">
@@ -14650,12 +13937,7 @@
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="AC175" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AD175" t="inlineStr"/>

--- a/docs/src/reference/data-dictionaries/T_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/T_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC172"/>
+  <dimension ref="A1:AC185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7233,7 +7233,11 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
@@ -7296,7 +7300,11 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
@@ -7359,7 +7367,11 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S89" t="inlineStr">
         <is>
           <t>x</t>
@@ -10325,7 +10337,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -10339,41 +10351,41 @@
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr">
         <is>
-          <t>MhCntDr</t>
+          <t>TlBupCntBk30</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>Count of Mental Health Providers (30-min drive)</t>
+          <t>Count of telehealth buprenorphine providers within 30-minute bike ride</t>
         </is>
       </c>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA133" t="inlineStr"/>
@@ -10388,7 +10400,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -10402,41 +10414,41 @@
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr">
         <is>
-          <t>MhMinDis</t>
+          <t>TlBupCntDr30</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Mental Health Provider</t>
+          <t>Count of telehealth buprenorphine providers within 30-minute drive</t>
         </is>
       </c>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr"/>
@@ -10451,7 +10463,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -10465,45 +10477,41 @@
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr">
         <is>
-          <t>MhTmDr</t>
+          <t>TlBupCntDr60</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Count of telehealth buprenorphine providers within 60-minute drive</t>
         </is>
       </c>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA135" t="inlineStr"/>
@@ -10518,7 +10526,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -10531,42 +10539,42 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr">
         <is>
-          <t>RxCntDr</t>
+          <t>TlBupCntWk30</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>Count of Pharmacies (30-min drive)</t>
+          <t>Count of telehealth buprenorphine providers within 30-minute walk</t>
         </is>
       </c>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr"/>
@@ -10581,7 +10589,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -10594,42 +10602,42 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr">
         <is>
-          <t>RxMinDis</t>
+          <t>TlBupMinDis</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Pharmacy</t>
+          <t>Minimum distance to telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA137" t="inlineStr"/>
@@ -10644,7 +10652,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -10657,46 +10665,42 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr">
         <is>
-          <t>RxTmDr</t>
+          <t>TlBupTmBk</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Pharmacy</t>
+          <t>Biking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA138" t="inlineStr"/>
@@ -10711,7 +10715,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -10725,41 +10729,41 @@
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr">
         <is>
-          <t>SutCntDr</t>
+          <t>TlBupTmDr</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
+          <t>Driving time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr"/>
@@ -10774,7 +10778,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -10788,41 +10792,41 @@
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr">
         <is>
-          <t>SutMinDis</t>
+          <t>TlBupTmWk</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
+          <t>Walking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA140" t="inlineStr"/>
@@ -10837,7 +10841,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -10859,27 +10863,27 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr">
         <is>
-          <t>SutTmDr</t>
+          <t>MhCntDr</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
+          <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Y141" t="inlineStr">
@@ -10904,7 +10908,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -10926,33 +10930,37 @@
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr">
         <is>
-          <t>FqhcCntDr</t>
+          <t>MhMinDis</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>Count of FQHCs (30-min drive)</t>
+          <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr"/>
@@ -10967,7 +10975,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -10989,33 +10997,41 @@
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr">
         <is>
-          <t>FqhcMinDis</t>
+          <t>MhTmDr</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest FQHC</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr"/>
@@ -11030,7 +11046,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -11043,46 +11059,42 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr">
         <is>
-          <t>FqhcTmDr</t>
+          <t>RxCntDr</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest FQHC</t>
+          <t>Count of Pharmacies (30-min drive)</t>
         </is>
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA144" t="inlineStr"/>
@@ -11097,24 +11109,24 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
@@ -11124,28 +11136,28 @@
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr">
         <is>
-          <t>Ruca1</t>
+          <t>RxMinDis</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA145" t="inlineStr"/>
@@ -11160,55 +11172,59 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr">
         <is>
-          <t>Ruca2</t>
+          <t>RxTmDr</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Driving Time (min) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr"/>
@@ -11223,17 +11239,13 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
@@ -11241,41 +11253,45 @@
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr">
         <is>
-          <t>Rurality</t>
+          <t>SutCntDr</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>Urban-Suburban-Rural</t>
+          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
         </is>
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr"/>
@@ -11285,12 +11301,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -11302,11 +11318,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
@@ -11315,38 +11327,38 @@
       </c>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr">
         <is>
-          <t>EduP</t>
+          <t>SutMinDis</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>Employed % - Education</t>
+          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr"/>
@@ -11356,12 +11368,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -11373,43 +11385,51 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>SutTmDr</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr"/>
@@ -11419,12 +11439,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -11436,51 +11456,43 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>HcvCntDr</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>Count of HCV Providers</t>
         </is>
       </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr"/>
@@ -11490,12 +11502,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -11507,51 +11519,43 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>HcvMinDis</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
+          <t>Distance to nearest HCV Provider</t>
         </is>
       </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr"/>
@@ -11561,12 +11565,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -11578,51 +11582,43 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>HcvTmDr</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
+          <t>Driving time to nearest HCV Provider</t>
         </is>
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr"/>
@@ -11632,12 +11628,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -11649,51 +11645,43 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>HivCntDr</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Count of HIV Providers</t>
         </is>
       </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr"/>
@@ -11703,12 +11691,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -11720,51 +11708,43 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>HivMinDis</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>Distance to nearest HIV Provider</t>
         </is>
       </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr"/>
@@ -11774,12 +11754,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -11791,43 +11771,43 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>HivTmDr</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>Driving time to nearest HIV Provider</t>
         </is>
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr"/>
@@ -11837,12 +11817,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -11854,43 +11834,47 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>FqhcCntDr</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Count of FQHCs (30-min drive)</t>
         </is>
       </c>
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr"/>
@@ -11900,32 +11884,24 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
@@ -11934,38 +11910,38 @@
       </c>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>FqhcMinDis</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Distance (mi) to nearest FQHC</t>
         </is>
       </c>
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr"/>
@@ -11975,12 +11951,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Internet Access</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -11993,42 +11969,50 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>FqhcTmDr</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Driving time (min) to nearest FQHC</t>
         </is>
       </c>
       <c r="W158" t="inlineStr"/>
       <c r="X158" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>ACS 2019</t>
+          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5-Year Estimate</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
       <c r="AA158" t="inlineStr"/>
@@ -12038,12 +12022,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -12059,51 +12043,39 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>Ruca1</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="W159" t="inlineStr"/>
       <c r="X159" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA159" t="inlineStr"/>
@@ -12113,12 +12085,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -12134,51 +12106,39 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>Ruca2</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA160" t="inlineStr"/>
@@ -12188,29 +12148,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Urban/Suburban/Rural Classification</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
           <t>x</t>
@@ -12221,55 +12169,43 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
-      <c r="T161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>Rurality</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Urban-Suburban-Rural</t>
         </is>
       </c>
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr"/>
@@ -12284,29 +12220,13 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Employment Trends</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
@@ -12318,49 +12238,37 @@
         </is>
       </c>
       <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="inlineStr"/>
-      <c r="T162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA162" t="inlineStr"/>
@@ -12370,12 +12278,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SDOH Indices &amp; Typology</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -12383,51 +12291,55 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr">
         <is>
-          <t>LimMobInd</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>Limited Moblility Index</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA163" t="inlineStr"/>
@@ -12437,12 +12349,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SDOH Indices &amp; Typology</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -12450,51 +12362,55 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr">
         <is>
-          <t>MicaInd</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>Mixed Immigrant Cohesion and Accesibility (MICA) Index</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA164" t="inlineStr"/>
@@ -12504,12 +12420,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SDOH Indices &amp; Typology</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -12517,47 +12433,55 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr">
         <is>
-          <t>NeighbTyp</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>Neighborhood Type</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA165" t="inlineStr"/>
@@ -12567,12 +12491,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SDOH Indices &amp; Typology</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -12580,51 +12504,55 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr"/>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr">
         <is>
-          <t>SocEcAdvIn</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>Socioeconomic Advantage Index</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr"/>
@@ -12634,12 +12562,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SDOH Indices &amp; Typology</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -12647,51 +12575,55 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr">
         <is>
-          <t>UrbCoreInd</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>Urban Core Opportunity Index</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA167" t="inlineStr"/>
@@ -12701,12 +12633,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -12724,45 +12656,37 @@
         </is>
       </c>
       <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr">
         <is>
-          <t>SviSmryRnk</t>
+          <t>ForDqP</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
+          <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA168" t="inlineStr"/>
@@ -12772,12 +12696,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -12795,49 +12719,37 @@
         </is>
       </c>
       <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
-      <c r="S169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr">
         <is>
-          <t>SviTh1</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr"/>
@@ -12847,18 +12759,22 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
@@ -12876,39 +12792,39 @@
         </is>
       </c>
       <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr">
         <is>
-          <t>SviTh2</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr"/>
@@ -12918,12 +12834,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Internet Access</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -12935,51 +12851,43 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr">
         <is>
-          <t>SviTh3</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 3</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2019</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2015-2019 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA171" t="inlineStr"/>
@@ -12989,18 +12897,22 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
@@ -13018,48 +12930,995 @@
         </is>
       </c>
       <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R172" t="inlineStr"/>
-      <c r="S172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr">
         <is>
-          <t>SviTh4</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr"/>
       <c r="AC172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>PciE</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>Per Capita Income</t>
+        </is>
+      </c>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+        </is>
+      </c>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
+        </is>
+      </c>
+      <c r="Z173" t="inlineStr">
+        <is>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+        </is>
+      </c>
+      <c r="AA173" t="inlineStr"/>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>PovP</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>Poverty %</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+        </is>
+      </c>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
+        </is>
+      </c>
+      <c r="Z174" t="inlineStr">
+        <is>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+        </is>
+      </c>
+      <c r="AA174" t="inlineStr"/>
+      <c r="AB174" t="inlineStr"/>
+      <c r="AC174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>UnempP</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>Unemployment %</t>
+        </is>
+      </c>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+        </is>
+      </c>
+      <c r="Y175" t="inlineStr">
+        <is>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
+        </is>
+      </c>
+      <c r="Z175" t="inlineStr">
+        <is>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+        </is>
+      </c>
+      <c r="AA175" t="inlineStr"/>
+      <c r="AB175" t="inlineStr"/>
+      <c r="AC175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>SDOH Indices &amp; Typology</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>LimMobInd</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>Limited Moblility Index</t>
+        </is>
+      </c>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+        </is>
+      </c>
+      <c r="Y176" t="inlineStr">
+        <is>
+          <t>Kolak et al., 2020</t>
+        </is>
+      </c>
+      <c r="Z176" t="inlineStr">
+        <is>
+          <t>Kolak et al., 2020</t>
+        </is>
+      </c>
+      <c r="AA176" t="inlineStr"/>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>SDOH Indices &amp; Typology</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>MicaInd</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>Mixed Immigrant Cohesion and Accesibility (MICA) Index</t>
+        </is>
+      </c>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+        </is>
+      </c>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>Kolak et al., 2020</t>
+        </is>
+      </c>
+      <c r="Z177" t="inlineStr">
+        <is>
+          <t>Kolak et al., 2020</t>
+        </is>
+      </c>
+      <c r="AA177" t="inlineStr"/>
+      <c r="AB177" t="inlineStr"/>
+      <c r="AC177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>SDOH Indices &amp; Typology</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>NeighbTyp</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>Neighborhood Type</t>
+        </is>
+      </c>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+        </is>
+      </c>
+      <c r="Y178" t="inlineStr">
+        <is>
+          <t>Kolak et al., 2020</t>
+        </is>
+      </c>
+      <c r="Z178" t="inlineStr">
+        <is>
+          <t>Kolak et al., 2020</t>
+        </is>
+      </c>
+      <c r="AA178" t="inlineStr"/>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SDOH Indices &amp; Typology</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>SocEcAdvIn</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>Socioeconomic Advantage Index</t>
+        </is>
+      </c>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+        </is>
+      </c>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>Kolak et al., 2020</t>
+        </is>
+      </c>
+      <c r="Z179" t="inlineStr">
+        <is>
+          <t>Kolak et al., 2020</t>
+        </is>
+      </c>
+      <c r="AA179" t="inlineStr"/>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>SDOH Indices &amp; Typology</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>UrbCoreInd</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>Urban Core Opportunity Index</t>
+        </is>
+      </c>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+        </is>
+      </c>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>Kolak et al., 2020</t>
+        </is>
+      </c>
+      <c r="Z180" t="inlineStr">
+        <is>
+          <t>Kolak et al., 2020</t>
+        </is>
+      </c>
+      <c r="AA180" t="inlineStr"/>
+      <c r="AB180" t="inlineStr"/>
+      <c r="AC180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>SviSmryRnk</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
+        </is>
+      </c>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y181" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z181" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="inlineStr"/>
+      <c r="AC181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>SviTh1</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 1</t>
+        </is>
+      </c>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y182" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z182" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>SviTh2</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 2</t>
+        </is>
+      </c>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y183" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z183" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>SviTh3</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 3</t>
+        </is>
+      </c>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y184" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z184" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>SviTh4</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 4</t>
+        </is>
+      </c>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y185" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z185" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/src/reference/data-dictionaries/T_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/T_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AD185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,17 +444,18 @@
     <col width="5" customWidth="1" min="16" max="16"/>
     <col width="5" customWidth="1" min="17" max="17"/>
     <col width="5" customWidth="1" min="18" max="18"/>
-    <col width="10" customWidth="1" min="19" max="19"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
     <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="20" customWidth="1" min="21" max="21"/>
-    <col width="30" customWidth="1" min="22" max="22"/>
-    <col width="25" customWidth="1" min="23" max="23"/>
+    <col width="10" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="30" customWidth="1" min="23" max="23"/>
     <col width="25" customWidth="1" min="24" max="24"/>
     <col width="25" customWidth="1" min="25" max="25"/>
     <col width="25" customWidth="1" min="26" max="26"/>
     <col width="25" customWidth="1" min="27" max="27"/>
     <col width="25" customWidth="1" min="28" max="28"/>
-    <col width="100" customWidth="1" min="29" max="29"/>
+    <col width="25" customWidth="1" min="29" max="29"/>
+    <col width="100" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,60 +546,65 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>2025</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Analysis</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Longitudinal</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Metadata Location</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Source Long</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Example</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -695,41 +701,46 @@
           <t>x</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>FIPS</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>Federal Information Processing Standard code</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/GeographicBoundaries.md</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Tiger/Line 2010, 2018;</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>Tiger/Line 2010, 2018 Shapefiles &amp; U.S. Census Bureau Cartographic Boundary Files</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -822,41 +833,46 @@
           <t>x</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>HEROP_ID</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>HEROP_ID</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/GeographicBoundaries.md</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Tiger/Line 2010, 2018;</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>Tiger/Line 2010, 2018 Shapefiles &amp; U.S. Census Bureau Cartographic Boundary Files</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -911,35 +927,36 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
         <is>
           <t>BachelorsP</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>% Persons aged 25 years and over with a bachelor’s degree as their highest level of education</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>American Community Survey 5-Year Estimates (2020??)</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -998,35 +1015,36 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
         <is>
           <t>EduHsP</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>% Population aged 25 years and over whose highest educational attainment is a high school diploma (or equivalent)</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>American Community Survey 5-Year Estimates (2020??)</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1085,35 +1103,36 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
         <is>
           <t>EduNoHsP</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>% Population aged 25 years and over with less than a high school diploma</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>American Community Survey 5-Year Estimates (2020??)</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1156,35 +1175,36 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
         <is>
           <t>EngProf</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>Proportion of the population aged 5+ who speak a language other than English at home but are proficient in English</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>American Community Survey 5-Year Estimates (2020??)</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1239,35 +1259,36 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
         <is>
           <t>GradSclP</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>% Population aged 25 years and over with a graduate or professional degree</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>American Community Survey 5-Year Estimates (2020??)</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1326,35 +1347,36 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
         <is>
           <t>SomeCollegeP</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>% Population 25 years and over with some college, but no degree</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>American Community Survey 5-Year Estimates (2020??)</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1393,35 +1415,36 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
         <is>
           <t>CrowdHsng</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>Proportion of occupied housing units that are considered crowded (more than 1 person per room)</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1460,35 +1483,36 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
         <is>
           <t>DivrcdP</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>% Males 15 years and over who are divorced</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>American Community Survey 2020, 2023</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1527,35 +1551,36 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
         <is>
           <t>FamSize</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>Average family size</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr">
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1594,35 +1619,36 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
         <is>
           <t>HHSize</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>Average household size</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr">
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1661,35 +1687,36 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
         <is>
           <t>HhldFA</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>% Female householder with no spouse/partner living alone</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr">
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1728,35 +1755,36 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
         <is>
           <t>HhldFC</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>% Female householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr">
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1795,35 +1823,36 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
         <is>
           <t>HhldFS</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>% Female householder 65 years and over living alone</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr">
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1862,35 +1891,36 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
         <is>
           <t>HhldMA</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>% Male householder with no spouse/partner living alone</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr">
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1929,35 +1959,36 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
         <is>
           <t>HhldMC</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>% Male householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr">
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1996,35 +2027,36 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
         <is>
           <t>HhldMS</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>% Male householder 65 years and over living alone</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr">
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2063,35 +2095,36 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
         <is>
           <t>HsdTot</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>Total households</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr">
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2130,35 +2163,36 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
         <is>
           <t>HsdTypCo</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>% Cohabiting couple household</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr">
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2197,35 +2231,36 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
         <is>
           <t>HsdTypM</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t xml:space="preserve">% Married-couple household </t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr">
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2264,35 +2299,36 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
         <is>
           <t>HsdTypMC</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>% Married-couple household With children under 18 years</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr">
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2331,35 +2367,36 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
         <is>
           <t>MrrdP</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>% Males aged 15 or older who are married and living with their spouse</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr">
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>American Community Survey 2020, 2023</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2402,35 +2439,36 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
         <is>
           <t>NonRelFhhP</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>% Nonrelatives in Family Households</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr">
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2473,35 +2511,36 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
         <is>
           <t>NonRelNfhhP</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>% Nonrelatives in Non-family Households</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr">
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2540,35 +2579,36 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
         <is>
           <t>NvMrrdP</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>% Males aged 15 or older who never got married</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr">
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>American Community Survey 2020, 2023</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2607,35 +2647,36 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
         <is>
           <t>OccupantP</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>% Occupied housing units</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr">
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2674,35 +2715,36 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
         <is>
           <t>SepartedP</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t>% Males aged 15 years and over who are separated from their spouse</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr">
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AA29" t="inlineStr">
         <is>
           <t>American Community Survey 2020, 2023</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2745,35 +2787,36 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
         <is>
           <t>TotPopHh</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>Total Population in Households</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr">
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2812,35 +2855,36 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
         <is>
           <t>WidwdP</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>% Population aged 15 and over who are widowed</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr">
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="AA31" t="inlineStr">
         <is>
           <t>American Community Survey 2020, 2023</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2891,35 +2935,36 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
         <is>
           <t>DisbP</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>% Population with Disability</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr">
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Population_withDisability.md</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Z32" t="inlineStr">
         <is>
           <t>ACS 2012, 2018, 2023; IPUMS NHGIS 2000</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AA32" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012, 2014-2018, &amp; 2019-2023 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems, 2000</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2969,40 +3014,41 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
           <t>Age15_44</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>% Population: Age 15-44</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr">
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="Z33" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AA33" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3052,40 +3098,41 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
           <t>Age15_44P</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>% Population: Age 15-44</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr">
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AA34" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3135,40 +3182,41 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
           <t>ChildrenP</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>Children %</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr">
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3227,35 +3275,36 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
         <is>
           <t>FemP</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="W36" t="inlineStr">
         <is>
           <t>% Population that is Female</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr">
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="AA36" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3314,35 +3363,36 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
         <is>
           <t>MaleP</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>% Population that is Male</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr">
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="Z37" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AA37" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3381,35 +3431,36 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
         <is>
           <t>MedAge</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t>Median age</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr">
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="Z38" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AA38" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3460,35 +3511,36 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
         <is>
           <t>Ovr16</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t>Count persons over 16 years</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr">
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AA39" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3547,35 +3599,36 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
         <is>
           <t>Ovr16P</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="W40" t="inlineStr">
         <is>
           <t>% Population over 16 years</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr">
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="Z40" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="AA40" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3626,35 +3679,36 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
         <is>
           <t>Ovr18</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
+      <c r="W41" t="inlineStr">
         <is>
           <t>Count persons over 18 years</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr">
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="Z41" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="AA41" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3713,35 +3767,36 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
         <is>
           <t>Ovr18P</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>% Population over 18 years</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr">
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y42" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3792,35 +3847,36 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
         <is>
           <t>Ovr21</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
+      <c r="W43" t="inlineStr">
         <is>
           <t>Count persons over 21 years</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr">
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="Z43" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="AA43" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3879,35 +3935,36 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
         <is>
           <t>Ovr21P</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>% Population over 21 years</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr">
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="Z44" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
+      <c r="AA44" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3946,35 +4003,36 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
         <is>
           <t>Ovr62P</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr">
+      <c r="W45" t="inlineStr">
         <is>
           <t>% Population over 62 years</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr">
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="Z45" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
+      <c r="AA45" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4024,40 +4082,41 @@
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
           <t>Ovr65</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
+      <c r="W46" t="inlineStr">
         <is>
           <t>% Population: Age 65+</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr">
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="Z46" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AA46" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4115,40 +4174,41 @@
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
           <t>Ovr65P</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t>% Population: Age 65+</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr">
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y47" t="inlineStr">
+      <c r="Z47" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
+      <c r="AA47" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4207,35 +4267,36 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
         <is>
           <t>SRatio</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t>Sex ratio for the total population (males per 100 females)</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr">
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="Z48" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AA48" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4294,35 +4355,36 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
         <is>
           <t>SRatio18</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
+      <c r="W49" t="inlineStr">
         <is>
           <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr">
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="Z49" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
+      <c r="AA49" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4381,35 +4443,36 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
         <is>
           <t>SRatio65</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="W50" t="inlineStr">
         <is>
           <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr">
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr">
+      <c r="Z50" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
+      <c r="AA50" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4467,40 +4530,41 @@
       </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
           <t>TotPop</t>
         </is>
       </c>
-      <c r="V51" t="inlineStr">
+      <c r="W51" t="inlineStr">
         <is>
           <t>Total Population</t>
         </is>
       </c>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr">
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y51" t="inlineStr">
+      <c r="Z51" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
+      <c r="AA51" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4539,35 +4603,36 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
         <is>
           <t>Und18P</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t>% Population under 18 years old</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr">
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y52" t="inlineStr">
+      <c r="Z52" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
+      <c r="AA52" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4621,40 +4686,41 @@
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
           <t>AmIndE</t>
         </is>
       </c>
-      <c r="V53" t="inlineStr">
+      <c r="W53" t="inlineStr">
         <is>
           <t>Count Native American/Alaska Native Population</t>
         </is>
       </c>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr">
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y53" t="inlineStr">
+      <c r="Z53" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
+      <c r="AA53" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4712,40 +4778,41 @@
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
           <t>AmIndP</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr">
+      <c r="W54" t="inlineStr">
         <is>
           <t>% Native American/Alaska Native Population</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr">
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y54" t="inlineStr">
+      <c r="Z54" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
+      <c r="AA54" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4799,40 +4866,41 @@
       </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
           <t>AsianE</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr">
+      <c r="W55" t="inlineStr">
         <is>
           <t>Count Asian Population</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr">
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y55" t="inlineStr">
+      <c r="Z55" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
+      <c r="AA55" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4886,40 +4954,41 @@
       </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
           <t>AsianP</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr">
+      <c r="W56" t="inlineStr">
         <is>
           <t>% Asian Population</t>
         </is>
       </c>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr">
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y56" t="inlineStr">
+      <c r="Z56" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
+      <c r="AA56" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4973,40 +5042,41 @@
       </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
           <t>BlackE</t>
         </is>
       </c>
-      <c r="V57" t="inlineStr">
+      <c r="W57" t="inlineStr">
         <is>
           <t>Count Black/African American Populationw</t>
         </is>
       </c>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr">
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y57" t="inlineStr">
+      <c r="Z57" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
+      <c r="AA57" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5064,40 +5134,41 @@
       </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
           <t>BlackP</t>
         </is>
       </c>
-      <c r="V58" t="inlineStr">
+      <c r="W58" t="inlineStr">
         <is>
           <t>% Black/African American Populationw</t>
         </is>
       </c>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr">
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y58" t="inlineStr">
+      <c r="Z58" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
+      <c r="AA58" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5152,35 +5223,36 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr">
         <is>
           <t>HisE</t>
         </is>
       </c>
-      <c r="V59" t="inlineStr">
+      <c r="W59" t="inlineStr">
         <is>
           <t>Count Hispanic/Latinx Population</t>
         </is>
       </c>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr">
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr">
+      <c r="Z59" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
+      <c r="AA59" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5235,35 +5307,36 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
         <is>
           <t>HisP</t>
         </is>
       </c>
-      <c r="V60" t="inlineStr">
+      <c r="W60" t="inlineStr">
         <is>
           <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
         </is>
       </c>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr">
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y60" t="inlineStr">
+      <c r="Z60" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
+      <c r="AA60" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5313,40 +5386,41 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
           <t>HispP</t>
         </is>
       </c>
-      <c r="V61" t="inlineStr">
+      <c r="W61" t="inlineStr">
         <is>
           <t>% Hispanic/Latinx Population</t>
         </is>
       </c>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr">
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y61" t="inlineStr">
+      <c r="Z61" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
+      <c r="AA61" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5388,40 +5462,41 @@
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
           <t>OtherE</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr">
+      <c r="W62" t="inlineStr">
         <is>
           <t>Count Other (race) Population</t>
         </is>
       </c>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr">
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y62" t="inlineStr">
+      <c r="Z62" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
+      <c r="AA62" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5479,40 +5554,41 @@
       </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
           <t>OtherP</t>
         </is>
       </c>
-      <c r="V63" t="inlineStr">
+      <c r="W63" t="inlineStr">
         <is>
           <t>% Other (race) Population</t>
         </is>
       </c>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr">
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr">
+      <c r="Z63" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
+      <c r="AA63" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5566,40 +5642,41 @@
       </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
           <t>PacIsE</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr">
+      <c r="W64" t="inlineStr">
         <is>
           <t>Count Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr">
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y64" t="inlineStr">
+      <c r="Z64" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
+      <c r="AA64" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5657,40 +5734,41 @@
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
           <t>PacIsP</t>
         </is>
       </c>
-      <c r="V65" t="inlineStr">
+      <c r="W65" t="inlineStr">
         <is>
           <t>% Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr">
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y65" t="inlineStr">
+      <c r="Z65" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
+      <c r="AA65" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5733,35 +5811,36 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr">
         <is>
           <t>TwoRaceE</t>
         </is>
       </c>
-      <c r="V66" t="inlineStr">
+      <c r="W66" t="inlineStr">
         <is>
           <t>Count Population identifying as two or more races</t>
         </is>
       </c>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr">
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y66" t="inlineStr">
+      <c r="Z66" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
+      <c r="AA66" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5808,35 +5887,36 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
         <is>
           <t>TwoRaceP</t>
         </is>
       </c>
-      <c r="V67" t="inlineStr">
+      <c r="W67" t="inlineStr">
         <is>
           <t>% Population identifying as two or more races</t>
         </is>
       </c>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr">
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y67" t="inlineStr">
+      <c r="Z67" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
+      <c r="AA67" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5890,40 +5970,41 @@
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
           <t>WhiteE</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr">
+      <c r="W68" t="inlineStr">
         <is>
           <t>Count White Population</t>
         </is>
       </c>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr">
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y68" t="inlineStr">
+      <c r="Z68" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
+      <c r="AA68" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5981,40 +6062,41 @@
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
           <t>WhiteP</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr">
+      <c r="W69" t="inlineStr">
         <is>
           <t>% White Population</t>
         </is>
       </c>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr">
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y69" t="inlineStr">
+      <c r="Z69" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
+      <c r="AA69" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6061,35 +6143,36 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
         <is>
           <t>TotVetPop</t>
         </is>
       </c>
-      <c r="V70" t="inlineStr">
+      <c r="W70" t="inlineStr">
         <is>
           <t>Total Veteran Population</t>
         </is>
       </c>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr">
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
         </is>
       </c>
-      <c r="Y70" t="inlineStr">
+      <c r="Z70" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
+      <c r="AA70" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6136,35 +6219,36 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
         <is>
           <t>VetP</t>
         </is>
       </c>
-      <c r="V71" t="inlineStr">
+      <c r="W71" t="inlineStr">
         <is>
           <t>% Veteran Population</t>
         </is>
       </c>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr">
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
         </is>
       </c>
-      <c r="Y71" t="inlineStr">
+      <c r="Z71" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
+      <c r="AA71" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6199,35 +6283,36 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
         <is>
           <t>AlcDens</t>
         </is>
       </c>
-      <c r="V72" t="inlineStr">
+      <c r="W72" t="inlineStr">
         <is>
           <t>Alcohol Outlets Density</t>
         </is>
       </c>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr">
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
-      <c r="Y72" t="inlineStr">
+      <c r="Z72" t="inlineStr">
         <is>
           <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
+      <c r="AA72" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6262,35 +6347,36 @@
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr">
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr">
         <is>
           <t>AlcPerCap</t>
         </is>
       </c>
-      <c r="V73" t="inlineStr">
+      <c r="W73" t="inlineStr">
         <is>
           <t>Alcohol Outlets per Capita</t>
         </is>
       </c>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr">
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
-      <c r="Y73" t="inlineStr">
+      <c r="Z73" t="inlineStr">
         <is>
           <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
+      <c r="AA73" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6325,35 +6411,36 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr">
         <is>
           <t>AlcTot</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr">
+      <c r="W74" t="inlineStr">
         <is>
           <t>Total Alcohol Outlets</t>
         </is>
       </c>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr">
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
-      <c r="Y74" t="inlineStr">
+      <c r="Z74" t="inlineStr">
         <is>
           <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
+      <c r="AA74" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6388,35 +6475,36 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr">
         <is>
           <t>AreaSqMi</t>
         </is>
       </c>
-      <c r="V75" t="inlineStr">
+      <c r="W75" t="inlineStr">
         <is>
           <t>Land Area (Square Miles)</t>
         </is>
       </c>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr">
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
-      <c r="Y75" t="inlineStr">
+      <c r="Z75" t="inlineStr">
         <is>
           <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
+      <c r="AA75" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6451,35 +6539,36 @@
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr">
         <is>
           <t>Ndvi</t>
         </is>
       </c>
-      <c r="V76" t="inlineStr">
+      <c r="W76" t="inlineStr">
         <is>
           <t>NDVI Average</t>
         </is>
       </c>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr">
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Greenspace_Measures.md</t>
         </is>
       </c>
-      <c r="Y76" t="inlineStr">
+      <c r="Z76" t="inlineStr">
         <is>
           <t>Tiger/Line 2018; Sentinel-2 MSI 2018; OSM</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
+      <c r="AA76" t="inlineStr">
         <is>
           <t>Tiger/Line 2018 Shapefiles; Sentinel 2 MSI: MultiSpectral Instrument Level-1 C, 2018; OpenStreetMap Contributors</t>
         </is>
       </c>
-      <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6512,41 +6601,42 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr">
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr">
         <is>
           <t>PcpPer100k</t>
         </is>
       </c>
-      <c r="V77" t="inlineStr">
+      <c r="W77" t="inlineStr">
         <is>
           <t>Primary Care Physicians (PCP) per 100k</t>
         </is>
       </c>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr">
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
-      <c r="Y77" t="inlineStr">
+      <c r="Z77" t="inlineStr">
         <is>
           <t>Dartmouth Atlas 2010</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
+      <c r="AA77" t="inlineStr">
         <is>
           <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
         </is>
       </c>
-      <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6581,35 +6671,36 @@
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr">
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr">
         <is>
           <t>SpPer100k</t>
         </is>
       </c>
-      <c r="V78" t="inlineStr">
+      <c r="W78" t="inlineStr">
         <is>
           <t>Specialty Physicians per 100k</t>
         </is>
       </c>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr">
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
-      <c r="Y78" t="inlineStr">
+      <c r="Z78" t="inlineStr">
         <is>
           <t>Dartmouth Atlas 2010</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
+      <c r="AA78" t="inlineStr">
         <is>
           <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
         </is>
       </c>
-      <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6644,35 +6735,36 @@
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr">
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr">
         <is>
           <t>TotPcp</t>
         </is>
       </c>
-      <c r="V79" t="inlineStr">
+      <c r="W79" t="inlineStr">
         <is>
           <t>Count of Primary Care Physicians (PCPs)</t>
         </is>
       </c>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr">
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
-      <c r="Y79" t="inlineStr">
+      <c r="Z79" t="inlineStr">
         <is>
           <t>Dartmouth Atlas 2010</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
+      <c r="AA79" t="inlineStr">
         <is>
           <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
         </is>
       </c>
-      <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6707,35 +6799,36 @@
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr">
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr">
         <is>
           <t>TotSp</t>
         </is>
       </c>
-      <c r="V80" t="inlineStr">
+      <c r="W80" t="inlineStr">
         <is>
           <t>Count of Specialty Physicians</t>
         </is>
       </c>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr">
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
-      <c r="Y80" t="inlineStr">
+      <c r="Z80" t="inlineStr">
         <is>
           <t>Dartmouth Atlas 2010</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
+      <c r="AA80" t="inlineStr">
         <is>
           <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
         </is>
       </c>
-      <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6778,35 +6871,36 @@
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr">
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr">
         <is>
           <t>LngTermP</t>
         </is>
       </c>
-      <c r="V81" t="inlineStr">
+      <c r="W81" t="inlineStr">
         <is>
           <t>Long-Term Occupancy %</t>
         </is>
       </c>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr">
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
-      <c r="Y81" t="inlineStr">
+      <c r="Z81" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr">
+      <c r="AA81" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6849,35 +6943,36 @@
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr">
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr">
         <is>
           <t>MobileP</t>
         </is>
       </c>
-      <c r="V82" t="inlineStr">
+      <c r="W82" t="inlineStr">
         <is>
           <t>Mobile Homes %</t>
         </is>
       </c>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr">
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
-      <c r="Y82" t="inlineStr">
+      <c r="Z82" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
+      <c r="AA82" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6920,35 +7015,36 @@
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr">
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
         <is>
           <t>RentalP</t>
         </is>
       </c>
-      <c r="V83" t="inlineStr">
+      <c r="W83" t="inlineStr">
         <is>
           <t>Rentals %</t>
         </is>
       </c>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr">
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
-      <c r="Y83" t="inlineStr">
+      <c r="Z83" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
+      <c r="AA83" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7006,40 +7102,41 @@
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
           <t>TotUnits</t>
         </is>
       </c>
-      <c r="V84" t="inlineStr">
+      <c r="W84" t="inlineStr">
         <is>
           <t>Total Occupied Housing Units</t>
         </is>
       </c>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr">
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
-      <c r="Y84" t="inlineStr">
+      <c r="Z84" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
+      <c r="AA84" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7082,35 +7179,36 @@
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr">
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
         <is>
           <t>UnitDens</t>
         </is>
       </c>
-      <c r="V85" t="inlineStr">
+      <c r="W85" t="inlineStr">
         <is>
           <t>Housing Unit Density</t>
         </is>
       </c>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr">
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
-      <c r="Y85" t="inlineStr">
+      <c r="Z85" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr">
+      <c r="AA85" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7168,40 +7266,41 @@
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
           <t>VacantP</t>
         </is>
       </c>
-      <c r="V86" t="inlineStr">
+      <c r="W86" t="inlineStr">
         <is>
           <t>Vacant Housing Units %</t>
         </is>
       </c>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr">
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
-      <c r="Y86" t="inlineStr">
+      <c r="Z86" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr">
+      <c r="AA86" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7233,42 +7332,43 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr">
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr">
         <is>
           <t>HospCntDr</t>
         </is>
       </c>
-      <c r="V87" t="inlineStr">
+      <c r="W87" t="inlineStr">
         <is>
           <t>Count of Hospitals (30-min drive)</t>
         </is>
       </c>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr">
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
-      <c r="Y87" t="inlineStr">
+      <c r="Z87" t="inlineStr">
         <is>
           <t>CovidCareMap 2020</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
+      <c r="AA87" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7300,42 +7400,43 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr">
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr">
         <is>
           <t>HospMinDis</t>
         </is>
       </c>
-      <c r="V88" t="inlineStr">
+      <c r="W88" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Hospital</t>
         </is>
       </c>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr">
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
-      <c r="Y88" t="inlineStr">
+      <c r="Z88" t="inlineStr">
         <is>
           <t>CovidCareMap 2020</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr">
+      <c r="AA88" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7367,46 +7468,47 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr">
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr">
         <is>
           <t>HospTmDr</t>
         </is>
       </c>
-      <c r="V89" t="inlineStr">
+      <c r="W89" t="inlineStr">
         <is>
           <t>Driving time (min) to nearest Hospital</t>
         </is>
       </c>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr">
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
-      <c r="Y89" t="inlineStr">
+      <c r="Z89" t="inlineStr">
         <is>
           <t>CovidCareMap 2020</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr">
+      <c r="AA89" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7438,42 +7540,43 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr">
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr">
         <is>
           <t>BupCntBk30</t>
         </is>
       </c>
-      <c r="V90" t="inlineStr">
+      <c r="W90" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (30-min bike)</t>
         </is>
       </c>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr">
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y90" t="inlineStr">
+      <c r="Z90" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr">
+      <c r="AA90" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7505,42 +7608,43 @@
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr">
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr">
         <is>
           <t>BupCntBk60</t>
         </is>
       </c>
-      <c r="V91" t="inlineStr">
+      <c r="W91" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (60-min bike)</t>
         </is>
       </c>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr">
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y91" t="inlineStr">
+      <c r="Z91" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr">
+      <c r="AA91" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7572,42 +7676,43 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr">
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr">
         <is>
           <t>BupCntDr30</t>
         </is>
       </c>
-      <c r="V92" t="inlineStr">
+      <c r="W92" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (30-min drive)</t>
         </is>
       </c>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr">
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y92" t="inlineStr">
+      <c r="Z92" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr">
+      <c r="AA92" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7635,42 +7740,43 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr">
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr">
         <is>
           <t>BupCntDr60</t>
         </is>
       </c>
-      <c r="V93" t="inlineStr">
+      <c r="W93" t="inlineStr">
         <is>
           <t>Count of buprenorphine providers (drive)</t>
         </is>
       </c>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr">
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y93" t="inlineStr">
+      <c r="Z93" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr">
+      <c r="AA93" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7702,42 +7808,43 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr">
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr">
         <is>
           <t>BupCntWk30</t>
         </is>
       </c>
-      <c r="V94" t="inlineStr">
+      <c r="W94" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (30-min walk)</t>
         </is>
       </c>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr">
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y94" t="inlineStr">
+      <c r="Z94" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr">
+      <c r="AA94" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7769,42 +7876,43 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr">
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr">
         <is>
           <t>BupCntWk60</t>
         </is>
       </c>
-      <c r="V95" t="inlineStr">
+      <c r="W95" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr">
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y95" t="inlineStr">
+      <c r="Z95" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr">
+      <c r="AA95" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7836,42 +7944,43 @@
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr">
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr">
         <is>
           <t>BupMinDis</t>
         </is>
       </c>
-      <c r="V96" t="inlineStr">
+      <c r="W96" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Buprenorphine Provider</t>
         </is>
       </c>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr">
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y96" t="inlineStr">
+      <c r="Z96" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr">
+      <c r="AA96" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7906,35 +8015,36 @@
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr">
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr">
         <is>
           <t>BupRm30</t>
         </is>
       </c>
-      <c r="V97" t="inlineStr">
+      <c r="W97" t="inlineStr">
         <is>
           <t>Buprenorphine access 30 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr">
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y97" t="inlineStr">
+      <c r="Z97" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr">
+      <c r="AA97" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7969,35 +8079,36 @@
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr">
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr">
         <is>
           <t>BupRm60</t>
         </is>
       </c>
-      <c r="V98" t="inlineStr">
+      <c r="W98" t="inlineStr">
         <is>
           <t>Buprenorphine access 60 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr">
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y98" t="inlineStr">
+      <c r="Z98" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr">
+      <c r="AA98" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8032,35 +8143,36 @@
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr">
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr">
         <is>
           <t>BupRm90</t>
         </is>
       </c>
-      <c r="V99" t="inlineStr">
+      <c r="W99" t="inlineStr">
         <is>
           <t>Buprenorphine access 90 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr">
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y99" t="inlineStr">
+      <c r="Z99" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr">
+      <c r="AA99" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8092,46 +8204,47 @@
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr">
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr">
         <is>
           <t>BupTmBk</t>
         </is>
       </c>
-      <c r="V100" t="inlineStr">
+      <c r="W100" t="inlineStr">
         <is>
           <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr">
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y100" t="inlineStr">
+      <c r="Z100" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr">
+      <c r="AA100" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8163,46 +8276,47 @@
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr">
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr">
         <is>
           <t>BupTmDr</t>
         </is>
       </c>
-      <c r="V101" t="inlineStr">
+      <c r="W101" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr">
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y101" t="inlineStr">
+      <c r="Z101" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr">
+      <c r="AA101" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8234,46 +8348,47 @@
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr">
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr">
         <is>
           <t>BupTmWk</t>
         </is>
       </c>
-      <c r="V102" t="inlineStr">
+      <c r="W102" t="inlineStr">
         <is>
           <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr">
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y102" t="inlineStr">
+      <c r="Z102" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr">
+      <c r="AA102" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8305,42 +8420,43 @@
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr">
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr">
         <is>
           <t>MetCntBk30</t>
         </is>
       </c>
-      <c r="V103" t="inlineStr">
+      <c r="W103" t="inlineStr">
         <is>
           <t>Count of methadone providers (30-min bike)</t>
         </is>
       </c>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr">
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y103" t="inlineStr">
+      <c r="Z103" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr">
+      <c r="AA103" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="inlineStr"/>
       <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8372,42 +8488,43 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr">
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr">
         <is>
           <t>MetCntBk60</t>
         </is>
       </c>
-      <c r="V104" t="inlineStr">
+      <c r="W104" t="inlineStr">
         <is>
           <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr">
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y104" t="inlineStr">
+      <c r="Z104" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr">
+      <c r="AA104" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr"/>
       <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8439,42 +8556,43 @@
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr">
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr">
         <is>
           <t>MetCntDr30</t>
         </is>
       </c>
-      <c r="V105" t="inlineStr">
+      <c r="W105" t="inlineStr">
         <is>
           <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr">
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y105" t="inlineStr">
+      <c r="Z105" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr">
+      <c r="AA105" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
       <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8502,42 +8620,43 @@
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr">
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr">
         <is>
           <t>MetCntDr60</t>
         </is>
       </c>
-      <c r="V106" t="inlineStr">
+      <c r="W106" t="inlineStr">
         <is>
           <t>Count of methadone providers (drive)</t>
         </is>
       </c>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr">
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y106" t="inlineStr">
+      <c r="Z106" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr">
+      <c r="AA106" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="inlineStr"/>
       <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8569,42 +8688,43 @@
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr">
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr">
         <is>
           <t>MetCntWk30</t>
         </is>
       </c>
-      <c r="V107" t="inlineStr">
+      <c r="W107" t="inlineStr">
         <is>
           <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr">
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y107" t="inlineStr">
+      <c r="Z107" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr">
+      <c r="AA107" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
       <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8636,42 +8756,43 @@
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr">
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr">
         <is>
           <t>MetCntWk60</t>
         </is>
       </c>
-      <c r="V108" t="inlineStr">
+      <c r="W108" t="inlineStr">
         <is>
           <t>Count of Methadone Providers (30-min walk)</t>
         </is>
       </c>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr">
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y108" t="inlineStr">
+      <c r="Z108" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr">
+      <c r="AA108" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="inlineStr"/>
       <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8703,42 +8824,43 @@
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr">
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr">
         <is>
           <t>MetMinDis</t>
         </is>
       </c>
-      <c r="V109" t="inlineStr">
+      <c r="W109" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Methadone Provider</t>
         </is>
       </c>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr">
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y109" t="inlineStr">
+      <c r="Z109" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr">
+      <c r="AA109" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="inlineStr"/>
       <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8789,35 +8911,36 @@
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr">
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr">
         <is>
           <t>MetRm30</t>
         </is>
       </c>
-      <c r="V110" t="inlineStr">
+      <c r="W110" t="inlineStr">
         <is>
           <t>Methadone access 30 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr">
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y110" t="inlineStr">
+      <c r="Z110" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr">
+      <c r="AA110" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="inlineStr"/>
       <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8868,35 +8991,36 @@
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr">
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr">
         <is>
           <t>MetRm60</t>
         </is>
       </c>
-      <c r="V111" t="inlineStr">
+      <c r="W111" t="inlineStr">
         <is>
           <t>Methadone access 60 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr">
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y111" t="inlineStr">
+      <c r="Z111" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr">
+      <c r="AA111" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="inlineStr"/>
       <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8947,35 +9071,36 @@
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr">
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr">
         <is>
           <t>MetRm90</t>
         </is>
       </c>
-      <c r="V112" t="inlineStr">
+      <c r="W112" t="inlineStr">
         <is>
           <t>Methadone access 90 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr">
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y112" t="inlineStr">
+      <c r="Z112" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr">
+      <c r="AA112" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr"/>
       <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9007,46 +9132,47 @@
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr">
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr">
         <is>
           <t>MetTmBk</t>
         </is>
       </c>
-      <c r="V113" t="inlineStr">
+      <c r="W113" t="inlineStr">
         <is>
           <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr">
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y113" t="inlineStr">
+      <c r="Z113" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr">
+      <c r="AA113" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="inlineStr"/>
       <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9078,46 +9204,47 @@
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr">
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr">
         <is>
           <t>MetTmDr</t>
         </is>
       </c>
-      <c r="V114" t="inlineStr">
+      <c r="W114" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr">
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y114" t="inlineStr">
+      <c r="Z114" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr">
+      <c r="AA114" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="inlineStr"/>
       <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9149,46 +9276,47 @@
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr">
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr">
         <is>
           <t>MetTmWk</t>
         </is>
       </c>
-      <c r="V115" t="inlineStr">
+      <c r="W115" t="inlineStr">
         <is>
           <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr">
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y115" t="inlineStr">
+      <c r="Z115" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr">
+      <c r="AA115" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="inlineStr"/>
       <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9220,42 +9348,43 @@
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr">
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr">
         <is>
           <t>MoudMinDis</t>
         </is>
       </c>
-      <c r="V116" t="inlineStr">
+      <c r="W116" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest MOUD (any)</t>
         </is>
       </c>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr">
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y116" t="inlineStr">
+      <c r="Z116" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr">
+      <c r="AA116" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="inlineStr"/>
       <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9287,42 +9416,43 @@
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr">
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr">
         <is>
           <t>NaltCntBk30</t>
         </is>
       </c>
-      <c r="V117" t="inlineStr">
+      <c r="W117" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (30-min bike)</t>
         </is>
       </c>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr">
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y117" t="inlineStr">
+      <c r="Z117" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr">
+      <c r="AA117" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr"/>
       <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9354,42 +9484,43 @@
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr">
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr">
         <is>
           <t>NaltCntBk60</t>
         </is>
       </c>
-      <c r="V118" t="inlineStr">
+      <c r="W118" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr">
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y118" t="inlineStr">
+      <c r="Z118" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr">
+      <c r="AA118" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="inlineStr"/>
       <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9421,42 +9552,43 @@
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr">
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr">
         <is>
           <t>NaltCntDr30</t>
         </is>
       </c>
-      <c r="V119" t="inlineStr">
+      <c r="W119" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr">
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y119" t="inlineStr">
+      <c r="Z119" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr">
+      <c r="AA119" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="inlineStr"/>
       <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9484,42 +9616,43 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr">
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr">
         <is>
           <t>NaltCntDr60</t>
         </is>
       </c>
-      <c r="V120" t="inlineStr">
+      <c r="W120" t="inlineStr">
         <is>
           <t>Count of naltrexone providers (drive)</t>
         </is>
       </c>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr">
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y120" t="inlineStr">
+      <c r="Z120" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr">
+      <c r="AA120" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="inlineStr"/>
       <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9551,42 +9684,43 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr">
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr">
         <is>
           <t>NaltCntWk30</t>
         </is>
       </c>
-      <c r="V121" t="inlineStr">
+      <c r="W121" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr">
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y121" t="inlineStr">
+      <c r="Z121" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr">
+      <c r="AA121" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="inlineStr"/>
       <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9618,42 +9752,43 @@
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr">
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr">
         <is>
           <t>NaltCntWk60</t>
         </is>
       </c>
-      <c r="V122" t="inlineStr">
+      <c r="W122" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (60-min walk)</t>
         </is>
       </c>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr">
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y122" t="inlineStr">
+      <c r="Z122" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr">
+      <c r="AA122" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr"/>
       <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9685,42 +9820,43 @@
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr">
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr">
         <is>
           <t>NaltMinDis</t>
         </is>
       </c>
-      <c r="V123" t="inlineStr">
+      <c r="W123" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Naltrexone Provider</t>
         </is>
       </c>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr">
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y123" t="inlineStr">
+      <c r="Z123" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr">
+      <c r="AA123" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="inlineStr"/>
       <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9755,35 +9891,36 @@
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr">
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr">
         <is>
           <t>NaltRm30</t>
         </is>
       </c>
-      <c r="V124" t="inlineStr">
+      <c r="W124" t="inlineStr">
         <is>
           <t>Naltrexone access 30 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr">
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y124" t="inlineStr">
+      <c r="Z124" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z124" t="inlineStr">
+      <c r="AA124" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="inlineStr"/>
       <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9818,35 +9955,36 @@
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr">
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr">
         <is>
           <t>NaltRm60</t>
         </is>
       </c>
-      <c r="V125" t="inlineStr">
+      <c r="W125" t="inlineStr">
         <is>
           <t>Naltrexone access 60 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr">
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y125" t="inlineStr">
+      <c r="Z125" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z125" t="inlineStr">
+      <c r="AA125" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr"/>
       <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9881,35 +10019,36 @@
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr">
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr">
         <is>
           <t>NaltRm90</t>
         </is>
       </c>
-      <c r="V126" t="inlineStr">
+      <c r="W126" t="inlineStr">
         <is>
           <t>Naltrexone access 90 minutes (RAAM)</t>
         </is>
       </c>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr">
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y126" t="inlineStr">
+      <c r="Z126" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z126" t="inlineStr">
+      <c r="AA126" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="inlineStr"/>
       <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9941,46 +10080,47 @@
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R127" t="inlineStr"/>
       <c r="S127" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr">
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr">
         <is>
           <t>NaltTmBk</t>
         </is>
       </c>
-      <c r="V127" t="inlineStr">
+      <c r="W127" t="inlineStr">
         <is>
           <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr">
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y127" t="inlineStr">
+      <c r="Z127" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr">
+      <c r="AA127" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr"/>
       <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10012,46 +10152,47 @@
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr">
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr">
         <is>
           <t>NaltTmDr</t>
         </is>
       </c>
-      <c r="V128" t="inlineStr">
+      <c r="W128" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr">
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y128" t="inlineStr">
+      <c r="Z128" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z128" t="inlineStr">
+      <c r="AA128" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="inlineStr"/>
       <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10083,46 +10224,47 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr">
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr">
         <is>
           <t>NaltTmWk</t>
         </is>
       </c>
-      <c r="V129" t="inlineStr">
+      <c r="W129" t="inlineStr">
         <is>
           <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr">
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y129" t="inlineStr">
+      <c r="Z129" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z129" t="inlineStr">
+      <c r="AA129" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="inlineStr"/>
       <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10154,42 +10296,43 @@
       </c>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr">
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr">
         <is>
           <t>OtpCntDr</t>
         </is>
       </c>
-      <c r="V130" t="inlineStr">
+      <c r="W130" t="inlineStr">
         <is>
           <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
         </is>
       </c>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr">
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y130" t="inlineStr">
+      <c r="Z130" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z130" t="inlineStr">
+      <c r="AA130" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="inlineStr"/>
       <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10221,42 +10364,43 @@
       </c>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr">
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr">
         <is>
           <t>OtpMinDis</t>
         </is>
       </c>
-      <c r="V131" t="inlineStr">
+      <c r="W131" t="inlineStr">
         <is>
           <t>Distance to nearest OTP</t>
         </is>
       </c>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr">
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y131" t="inlineStr">
+      <c r="Z131" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z131" t="inlineStr">
+      <c r="AA131" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="inlineStr"/>
       <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -10288,46 +10432,47 @@
       </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R132" t="inlineStr"/>
       <c r="S132" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr">
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr">
         <is>
           <t>OtpTmDr</t>
         </is>
       </c>
-      <c r="V132" t="inlineStr">
+      <c r="W132" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr">
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y132" t="inlineStr">
+      <c r="Z132" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z132" t="inlineStr">
+      <c r="AA132" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr"/>
       <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10355,42 +10500,43 @@
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr">
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr">
         <is>
           <t>TlBupCntBk30</t>
         </is>
       </c>
-      <c r="V133" t="inlineStr">
+      <c r="W133" t="inlineStr">
         <is>
           <t>Count of telehealth buprenorphine providers within 30-minute bike ride</t>
         </is>
       </c>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr">
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y133" t="inlineStr">
+      <c r="Z133" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z133" t="inlineStr">
+      <c r="AA133" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="inlineStr"/>
       <c r="AC133" t="inlineStr"/>
+      <c r="AD133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10418,42 +10564,43 @@
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr">
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr">
         <is>
           <t>TlBupCntDr30</t>
         </is>
       </c>
-      <c r="V134" t="inlineStr">
+      <c r="W134" t="inlineStr">
         <is>
           <t>Count of telehealth buprenorphine providers within 30-minute drive</t>
         </is>
       </c>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr">
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y134" t="inlineStr">
+      <c r="Z134" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z134" t="inlineStr">
+      <c r="AA134" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="inlineStr"/>
       <c r="AC134" t="inlineStr"/>
+      <c r="AD134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10481,42 +10628,43 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr">
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr">
         <is>
           <t>TlBupCntDr60</t>
         </is>
       </c>
-      <c r="V135" t="inlineStr">
+      <c r="W135" t="inlineStr">
         <is>
           <t>Count of telehealth buprenorphine providers within 60-minute drive</t>
         </is>
       </c>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr">
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y135" t="inlineStr">
+      <c r="Z135" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z135" t="inlineStr">
+      <c r="AA135" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="inlineStr"/>
       <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -10544,42 +10692,43 @@
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr">
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr">
         <is>
           <t>TlBupCntWk30</t>
         </is>
       </c>
-      <c r="V136" t="inlineStr">
+      <c r="W136" t="inlineStr">
         <is>
           <t>Count of telehealth buprenorphine providers within 30-minute walk</t>
         </is>
       </c>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr">
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y136" t="inlineStr">
+      <c r="Z136" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z136" t="inlineStr">
+      <c r="AA136" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="inlineStr"/>
       <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10607,42 +10756,43 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr">
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr">
         <is>
           <t>TlBupMinDis</t>
         </is>
       </c>
-      <c r="V137" t="inlineStr">
+      <c r="W137" t="inlineStr">
         <is>
           <t>Minimum distance to telehealth buprenorphine provider</t>
         </is>
       </c>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr">
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y137" t="inlineStr">
+      <c r="Z137" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z137" t="inlineStr">
+      <c r="AA137" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr"/>
       <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -10670,42 +10820,43 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr">
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr">
         <is>
           <t>TlBupTmBk</t>
         </is>
       </c>
-      <c r="V138" t="inlineStr">
+      <c r="W138" t="inlineStr">
         <is>
           <t>Biking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr">
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y138" t="inlineStr">
+      <c r="Z138" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z138" t="inlineStr">
+      <c r="AA138" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="inlineStr"/>
       <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10733,42 +10884,43 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr">
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr">
         <is>
           <t>TlBupTmDr</t>
         </is>
       </c>
-      <c r="V139" t="inlineStr">
+      <c r="W139" t="inlineStr">
         <is>
           <t>Driving time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr">
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y139" t="inlineStr">
+      <c r="Z139" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z139" t="inlineStr">
+      <c r="AA139" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="inlineStr"/>
       <c r="AC139" t="inlineStr"/>
+      <c r="AD139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10796,42 +10948,43 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr">
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr">
         <is>
           <t>TlBupTmWk</t>
         </is>
       </c>
-      <c r="V140" t="inlineStr">
+      <c r="W140" t="inlineStr">
         <is>
           <t>Walking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr">
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y140" t="inlineStr">
+      <c r="Z140" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z140" t="inlineStr">
+      <c r="AA140" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="inlineStr"/>
       <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10863,42 +11016,43 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr">
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr">
         <is>
           <t>MhCntDr</t>
         </is>
       </c>
-      <c r="V141" t="inlineStr">
+      <c r="W141" t="inlineStr">
         <is>
           <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr">
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
-      <c r="Y141" t="inlineStr">
+      <c r="Z141" t="inlineStr">
         <is>
           <t>SAMHSA 2020</t>
         </is>
       </c>
-      <c r="Z141" t="inlineStr">
+      <c r="AA141" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
-      <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="inlineStr"/>
       <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10930,42 +11084,43 @@
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr">
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr">
         <is>
           <t>MhMinDis</t>
         </is>
       </c>
-      <c r="V142" t="inlineStr">
+      <c r="W142" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr">
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
-      <c r="Y142" t="inlineStr">
+      <c r="Z142" t="inlineStr">
         <is>
           <t>SAMHSA 2020</t>
         </is>
       </c>
-      <c r="Z142" t="inlineStr">
+      <c r="AA142" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
-      <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr"/>
       <c r="AC142" t="inlineStr"/>
+      <c r="AD142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10997,46 +11152,47 @@
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr">
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr">
         <is>
           <t>MhTmDr</t>
         </is>
       </c>
-      <c r="V143" t="inlineStr">
+      <c r="W143" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr">
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
-      <c r="Y143" t="inlineStr">
+      <c r="Z143" t="inlineStr">
         <is>
           <t>SAMHSA 2020</t>
         </is>
       </c>
-      <c r="Z143" t="inlineStr">
+      <c r="AA143" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
-      <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="inlineStr"/>
       <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11071,35 +11227,36 @@
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr">
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr">
         <is>
           <t>RxCntDr</t>
         </is>
       </c>
-      <c r="V144" t="inlineStr">
+      <c r="W144" t="inlineStr">
         <is>
           <t>Count of Pharmacies (30-min drive)</t>
         </is>
       </c>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr">
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
-      <c r="Y144" t="inlineStr">
+      <c r="Z144" t="inlineStr">
         <is>
           <t>InfoGroup 2019</t>
         </is>
       </c>
-      <c r="Z144" t="inlineStr">
+      <c r="AA144" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="inlineStr"/>
       <c r="AC144" t="inlineStr"/>
+      <c r="AD144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -11134,35 +11291,36 @@
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr">
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr">
         <is>
           <t>RxMinDis</t>
         </is>
       </c>
-      <c r="V145" t="inlineStr">
+      <c r="W145" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr">
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
-      <c r="Y145" t="inlineStr">
+      <c r="Z145" t="inlineStr">
         <is>
           <t>InfoGroup 2019</t>
         </is>
       </c>
-      <c r="Z145" t="inlineStr">
+      <c r="AA145" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="inlineStr"/>
       <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -11195,41 +11353,42 @@
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr">
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr">
         <is>
           <t>RxTmDr</t>
         </is>
       </c>
-      <c r="V146" t="inlineStr">
+      <c r="W146" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Pharmacy</t>
         </is>
       </c>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr">
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
-      <c r="Y146" t="inlineStr">
+      <c r="Z146" t="inlineStr">
         <is>
           <t>InfoGroup 2019</t>
         </is>
       </c>
-      <c r="Z146" t="inlineStr">
+      <c r="AA146" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="inlineStr"/>
       <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -11261,42 +11420,43 @@
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr">
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr">
         <is>
           <t>SutCntDr</t>
         </is>
       </c>
-      <c r="V147" t="inlineStr">
+      <c r="W147" t="inlineStr">
         <is>
           <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
         </is>
       </c>
-      <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr">
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
-      <c r="Y147" t="inlineStr">
+      <c r="Z147" t="inlineStr">
         <is>
           <t>SAMHSA 2020</t>
         </is>
       </c>
-      <c r="Z147" t="inlineStr">
+      <c r="AA147" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
-      <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="inlineStr"/>
       <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11328,42 +11488,43 @@
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T148" t="inlineStr"/>
-      <c r="U148" t="inlineStr">
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr">
         <is>
           <t>SutMinDis</t>
         </is>
       </c>
-      <c r="V148" t="inlineStr">
+      <c r="W148" t="inlineStr">
         <is>
           <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
-      <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr">
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
-      <c r="Y148" t="inlineStr">
+      <c r="Z148" t="inlineStr">
         <is>
           <t>SAMHSA 2020</t>
         </is>
       </c>
-      <c r="Z148" t="inlineStr">
+      <c r="AA148" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
-      <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="inlineStr"/>
       <c r="AC148" t="inlineStr"/>
+      <c r="AD148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -11395,46 +11556,47 @@
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R149" t="inlineStr"/>
       <c r="S149" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr">
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr">
         <is>
           <t>SutTmDr</t>
         </is>
       </c>
-      <c r="V149" t="inlineStr">
+      <c r="W149" t="inlineStr">
         <is>
           <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
-      <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr">
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
-      <c r="Y149" t="inlineStr">
+      <c r="Z149" t="inlineStr">
         <is>
           <t>SAMHSA 2020</t>
         </is>
       </c>
-      <c r="Z149" t="inlineStr">
+      <c r="AA149" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
-      <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="inlineStr"/>
       <c r="AC149" t="inlineStr"/>
+      <c r="AD149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -11462,42 +11624,43 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr">
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr">
         <is>
           <t>HcvCntDr</t>
         </is>
       </c>
-      <c r="V150" t="inlineStr">
+      <c r="W150" t="inlineStr">
         <is>
           <t>Count of HCV Providers</t>
         </is>
       </c>
-      <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr">
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
-      <c r="Y150" t="inlineStr">
+      <c r="Z150" t="inlineStr">
         <is>
           <t>SAMHSA 2025</t>
         </is>
       </c>
-      <c r="Z150" t="inlineStr">
+      <c r="AA150" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
-      <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="inlineStr"/>
       <c r="AC150" t="inlineStr"/>
+      <c r="AD150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -11525,42 +11688,43 @@
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr">
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr">
         <is>
           <t>HcvMinDis</t>
         </is>
       </c>
-      <c r="V151" t="inlineStr">
+      <c r="W151" t="inlineStr">
         <is>
           <t>Distance to nearest HCV Provider</t>
         </is>
       </c>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr">
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
-      <c r="Y151" t="inlineStr">
+      <c r="Z151" t="inlineStr">
         <is>
           <t>SAMHSA 2025</t>
         </is>
       </c>
-      <c r="Z151" t="inlineStr">
+      <c r="AA151" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
-      <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="inlineStr"/>
       <c r="AC151" t="inlineStr"/>
+      <c r="AD151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -11588,42 +11752,43 @@
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr">
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr">
         <is>
           <t>HcvTmDr</t>
         </is>
       </c>
-      <c r="V152" t="inlineStr">
+      <c r="W152" t="inlineStr">
         <is>
           <t>Driving time to nearest HCV Provider</t>
         </is>
       </c>
-      <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr">
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
-      <c r="Y152" t="inlineStr">
+      <c r="Z152" t="inlineStr">
         <is>
           <t>SAMHSA 2025</t>
         </is>
       </c>
-      <c r="Z152" t="inlineStr">
+      <c r="AA152" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
-      <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr"/>
       <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11651,42 +11816,43 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T153" t="inlineStr"/>
-      <c r="U153" t="inlineStr">
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr">
         <is>
           <t>HivCntDr</t>
         </is>
       </c>
-      <c r="V153" t="inlineStr">
+      <c r="W153" t="inlineStr">
         <is>
           <t>Count of HIV Providers</t>
         </is>
       </c>
-      <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr">
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
-      <c r="Y153" t="inlineStr">
+      <c r="Z153" t="inlineStr">
         <is>
           <t>SAMHSA 2025</t>
         </is>
       </c>
-      <c r="Z153" t="inlineStr">
+      <c r="AA153" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
-      <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="inlineStr"/>
       <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11714,42 +11880,43 @@
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr">
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr">
         <is>
           <t>HivMinDis</t>
         </is>
       </c>
-      <c r="V154" t="inlineStr">
+      <c r="W154" t="inlineStr">
         <is>
           <t>Distance to nearest HIV Provider</t>
         </is>
       </c>
-      <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr">
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
-      <c r="Y154" t="inlineStr">
+      <c r="Z154" t="inlineStr">
         <is>
           <t>SAMHSA 2025</t>
         </is>
       </c>
-      <c r="Z154" t="inlineStr">
+      <c r="AA154" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
-      <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="inlineStr"/>
       <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11777,42 +11944,43 @@
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr">
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr">
         <is>
           <t>HivTmDr</t>
         </is>
       </c>
-      <c r="V155" t="inlineStr">
+      <c r="W155" t="inlineStr">
         <is>
           <t>Driving time to nearest HIV Provider</t>
         </is>
       </c>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="inlineStr">
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
-      <c r="Y155" t="inlineStr">
+      <c r="Z155" t="inlineStr">
         <is>
           <t>SAMHSA 2025</t>
         </is>
       </c>
-      <c r="Z155" t="inlineStr">
+      <c r="AA155" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
-      <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="inlineStr"/>
       <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11844,42 +12012,43 @@
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr">
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr">
         <is>
           <t>FqhcCntDr</t>
         </is>
       </c>
-      <c r="V156" t="inlineStr">
+      <c r="W156" t="inlineStr">
         <is>
           <t>Count of FQHCs (30-min drive)</t>
         </is>
       </c>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr">
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
-      <c r="Y156" t="inlineStr">
+      <c r="Z156" t="inlineStr">
         <is>
           <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
-      <c r="Z156" t="inlineStr">
+      <c r="AA156" t="inlineStr">
         <is>
           <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
-      <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="inlineStr"/>
       <c r="AC156" t="inlineStr"/>
+      <c r="AD156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11911,42 +12080,43 @@
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr">
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr">
         <is>
           <t>FqhcMinDis</t>
         </is>
       </c>
-      <c r="V157" t="inlineStr">
+      <c r="W157" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest FQHC</t>
         </is>
       </c>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr">
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
-      <c r="Y157" t="inlineStr">
+      <c r="Z157" t="inlineStr">
         <is>
           <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
-      <c r="Z157" t="inlineStr">
+      <c r="AA157" t="inlineStr">
         <is>
           <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
-      <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="inlineStr"/>
       <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11978,46 +12148,47 @@
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr">
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr">
         <is>
           <t>FqhcTmDr</t>
         </is>
       </c>
-      <c r="V158" t="inlineStr">
+      <c r="W158" t="inlineStr">
         <is>
           <t>Driving time (min) to nearest FQHC</t>
         </is>
       </c>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr">
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
-      <c r="Y158" t="inlineStr">
+      <c r="Z158" t="inlineStr">
         <is>
           <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
-      <c r="Z158" t="inlineStr">
+      <c r="AA158" t="inlineStr">
         <is>
           <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
-      <c r="AA158" t="inlineStr"/>
       <c r="AB158" t="inlineStr"/>
       <c r="AC158" t="inlineStr"/>
+      <c r="AD158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -12052,35 +12223,36 @@
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
-      <c r="U159" t="inlineStr">
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr">
         <is>
           <t>Ruca1</t>
         </is>
       </c>
-      <c r="V159" t="inlineStr">
+      <c r="W159" t="inlineStr">
         <is>
           <t>Primary RUCA Code</t>
         </is>
       </c>
-      <c r="W159" t="inlineStr"/>
-      <c r="X159" t="inlineStr">
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
-      <c r="Y159" t="inlineStr">
+      <c r="Z159" t="inlineStr">
         <is>
           <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
-      <c r="Z159" t="inlineStr">
+      <c r="AA159" t="inlineStr">
         <is>
           <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
-      <c r="AA159" t="inlineStr"/>
       <c r="AB159" t="inlineStr"/>
       <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -12115,35 +12287,36 @@
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr">
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr">
         <is>
           <t>Ruca2</t>
         </is>
       </c>
-      <c r="V160" t="inlineStr">
+      <c r="W160" t="inlineStr">
         <is>
           <t>Secondary RUCA Code</t>
         </is>
       </c>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr">
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
-      <c r="Y160" t="inlineStr">
+      <c r="Z160" t="inlineStr">
         <is>
           <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
-      <c r="Z160" t="inlineStr">
+      <c r="AA160" t="inlineStr">
         <is>
           <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
-      <c r="AA160" t="inlineStr"/>
       <c r="AB160" t="inlineStr"/>
       <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -12176,41 +12349,42 @@
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T161" t="inlineStr"/>
-      <c r="U161" t="inlineStr">
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr">
         <is>
           <t>Rurality</t>
         </is>
       </c>
-      <c r="V161" t="inlineStr">
+      <c r="W161" t="inlineStr">
         <is>
           <t>Urban-Suburban-Rural</t>
         </is>
       </c>
-      <c r="W161" t="inlineStr"/>
-      <c r="X161" t="inlineStr">
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
-      <c r="Y161" t="inlineStr">
+      <c r="Z161" t="inlineStr">
         <is>
           <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
-      <c r="Z161" t="inlineStr">
+      <c r="AA161" t="inlineStr">
         <is>
           <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
-      <c r="AA161" t="inlineStr"/>
       <c r="AB161" t="inlineStr"/>
       <c r="AC161" t="inlineStr"/>
+      <c r="AD161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -12245,35 +12419,36 @@
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
-      <c r="U162" t="inlineStr">
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr">
         <is>
           <t>EssnWrkE</t>
         </is>
       </c>
-      <c r="V162" t="inlineStr">
+      <c r="W162" t="inlineStr">
         <is>
           <t>Count of Essential Workers</t>
         </is>
       </c>
-      <c r="W162" t="inlineStr"/>
-      <c r="X162" t="inlineStr">
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
-      <c r="Y162" t="inlineStr">
+      <c r="Z162" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z162" t="inlineStr">
+      <c r="AA162" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr"/>
       <c r="AC162" t="inlineStr"/>
+      <c r="AD162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -12316,35 +12491,36 @@
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr">
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr">
         <is>
           <t>EssnWrkP</t>
         </is>
       </c>
-      <c r="V163" t="inlineStr">
+      <c r="W163" t="inlineStr">
         <is>
           <t>Essential Workers %</t>
         </is>
       </c>
-      <c r="W163" t="inlineStr"/>
-      <c r="X163" t="inlineStr">
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
-      <c r="Y163" t="inlineStr">
+      <c r="Z163" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z163" t="inlineStr">
+      <c r="AA163" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA163" t="inlineStr"/>
       <c r="AB163" t="inlineStr"/>
       <c r="AC163" t="inlineStr"/>
+      <c r="AD163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -12387,35 +12563,36 @@
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr">
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr">
         <is>
           <t>HghRskP</t>
         </is>
       </c>
-      <c r="V164" t="inlineStr">
+      <c r="W164" t="inlineStr">
         <is>
           <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
-      <c r="W164" t="inlineStr"/>
-      <c r="X164" t="inlineStr">
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
-      <c r="Y164" t="inlineStr">
+      <c r="Z164" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z164" t="inlineStr">
+      <c r="AA164" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA164" t="inlineStr"/>
       <c r="AB164" t="inlineStr"/>
       <c r="AC164" t="inlineStr"/>
+      <c r="AD164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -12458,35 +12635,36 @@
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr">
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr">
         <is>
           <t>HltCrP</t>
         </is>
       </c>
-      <c r="V165" t="inlineStr">
+      <c r="W165" t="inlineStr">
         <is>
           <t>Employed % - Health Care</t>
         </is>
       </c>
-      <c r="W165" t="inlineStr"/>
-      <c r="X165" t="inlineStr">
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
-      <c r="Y165" t="inlineStr">
+      <c r="Z165" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z165" t="inlineStr">
+      <c r="AA165" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA165" t="inlineStr"/>
       <c r="AB165" t="inlineStr"/>
       <c r="AC165" t="inlineStr"/>
+      <c r="AD165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -12529,35 +12707,36 @@
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
-      <c r="U166" t="inlineStr">
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr">
         <is>
           <t>RetailP</t>
         </is>
       </c>
-      <c r="V166" t="inlineStr">
+      <c r="W166" t="inlineStr">
         <is>
           <t>Employed % - Retail</t>
         </is>
       </c>
-      <c r="W166" t="inlineStr"/>
-      <c r="X166" t="inlineStr">
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
-      <c r="Y166" t="inlineStr">
+      <c r="Z166" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z166" t="inlineStr">
+      <c r="AA166" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA166" t="inlineStr"/>
       <c r="AB166" t="inlineStr"/>
       <c r="AC166" t="inlineStr"/>
+      <c r="AD166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -12600,35 +12779,36 @@
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
-      <c r="U167" t="inlineStr">
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr">
         <is>
           <t>TotWrkE</t>
         </is>
       </c>
-      <c r="V167" t="inlineStr">
+      <c r="W167" t="inlineStr">
         <is>
           <t>Count of Working Population</t>
         </is>
       </c>
-      <c r="W167" t="inlineStr"/>
-      <c r="X167" t="inlineStr">
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
-      <c r="Y167" t="inlineStr">
+      <c r="Z167" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z167" t="inlineStr">
+      <c r="AA167" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA167" t="inlineStr"/>
       <c r="AB167" t="inlineStr"/>
       <c r="AC167" t="inlineStr"/>
+      <c r="AD167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -12663,35 +12843,36 @@
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
-      <c r="U168" t="inlineStr">
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr">
         <is>
           <t>ForDqP</t>
         </is>
       </c>
-      <c r="V168" t="inlineStr">
+      <c r="W168" t="inlineStr">
         <is>
           <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
-      <c r="W168" t="inlineStr"/>
-      <c r="X168" t="inlineStr">
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
-      <c r="Y168" t="inlineStr">
+      <c r="Z168" t="inlineStr">
         <is>
           <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
-      <c r="Z168" t="inlineStr">
+      <c r="AA168" t="inlineStr">
         <is>
           <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA168" t="inlineStr"/>
       <c r="AB168" t="inlineStr"/>
       <c r="AC168" t="inlineStr"/>
+      <c r="AD168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12726,35 +12907,36 @@
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
-      <c r="U169" t="inlineStr">
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr">
         <is>
           <t>ForDqTot</t>
         </is>
       </c>
-      <c r="V169" t="inlineStr">
+      <c r="W169" t="inlineStr">
         <is>
           <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
-      <c r="W169" t="inlineStr"/>
-      <c r="X169" t="inlineStr">
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
-      <c r="Y169" t="inlineStr">
+      <c r="Z169" t="inlineStr">
         <is>
           <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
-      <c r="Z169" t="inlineStr">
+      <c r="AA169" t="inlineStr">
         <is>
           <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA169" t="inlineStr"/>
       <c r="AB169" t="inlineStr"/>
       <c r="AC169" t="inlineStr"/>
+      <c r="AD169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12801,35 +12983,36 @@
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr">
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr">
         <is>
           <t>GiniCoeff</t>
         </is>
       </c>
-      <c r="V170" t="inlineStr">
+      <c r="W170" t="inlineStr">
         <is>
           <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
-      <c r="W170" t="inlineStr"/>
-      <c r="X170" t="inlineStr">
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
-      <c r="Y170" t="inlineStr">
+      <c r="Z170" t="inlineStr">
         <is>
           <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
-      <c r="Z170" t="inlineStr">
+      <c r="AA170" t="inlineStr">
         <is>
           <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA170" t="inlineStr"/>
       <c r="AB170" t="inlineStr"/>
       <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12864,35 +13047,36 @@
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
-      <c r="U171" t="inlineStr">
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr">
         <is>
           <t>NoIntP</t>
         </is>
       </c>
-      <c r="V171" t="inlineStr">
+      <c r="W171" t="inlineStr">
         <is>
           <t>Households without Internet Access %</t>
         </is>
       </c>
-      <c r="W171" t="inlineStr"/>
-      <c r="X171" t="inlineStr">
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
-      <c r="Y171" t="inlineStr">
+      <c r="Z171" t="inlineStr">
         <is>
           <t>ACS 2019</t>
         </is>
       </c>
-      <c r="Z171" t="inlineStr">
+      <c r="AA171" t="inlineStr">
         <is>
           <t>American Community Survey 2015-2019 5-Year Estimate</t>
         </is>
       </c>
-      <c r="AA171" t="inlineStr"/>
       <c r="AB171" t="inlineStr"/>
       <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12939,35 +13123,36 @@
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
-      <c r="U172" t="inlineStr">
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr">
         <is>
           <t>MedInc</t>
         </is>
       </c>
-      <c r="V172" t="inlineStr">
+      <c r="W172" t="inlineStr">
         <is>
           <t>Median Income</t>
         </is>
       </c>
-      <c r="W172" t="inlineStr"/>
-      <c r="X172" t="inlineStr">
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y172" t="inlineStr">
+      <c r="Z172" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z172" t="inlineStr">
+      <c r="AA172" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr"/>
       <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -13014,35 +13199,36 @@
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
-      <c r="U173" t="inlineStr">
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr">
         <is>
           <t>PciE</t>
         </is>
       </c>
-      <c r="V173" t="inlineStr">
+      <c r="W173" t="inlineStr">
         <is>
           <t>Per Capita Income</t>
         </is>
       </c>
-      <c r="W173" t="inlineStr"/>
-      <c r="X173" t="inlineStr">
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y173" t="inlineStr">
+      <c r="Z173" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z173" t="inlineStr">
+      <c r="AA173" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA173" t="inlineStr"/>
       <c r="AB173" t="inlineStr"/>
       <c r="AC173" t="inlineStr"/>
+      <c r="AD173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -13100,40 +13286,41 @@
       </c>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="inlineStr"/>
-      <c r="T174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
           <t>PovP</t>
         </is>
       </c>
-      <c r="V174" t="inlineStr">
+      <c r="W174" t="inlineStr">
         <is>
           <t>Poverty %</t>
         </is>
       </c>
-      <c r="W174" t="inlineStr"/>
-      <c r="X174" t="inlineStr">
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y174" t="inlineStr">
+      <c r="Z174" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z174" t="inlineStr">
+      <c r="AA174" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA174" t="inlineStr"/>
       <c r="AB174" t="inlineStr"/>
       <c r="AC174" t="inlineStr"/>
+      <c r="AD174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -13191,40 +13378,41 @@
       </c>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="inlineStr"/>
-      <c r="T175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
           <t>UnempP</t>
         </is>
       </c>
-      <c r="V175" t="inlineStr">
+      <c r="W175" t="inlineStr">
         <is>
           <t>Unemployment %</t>
         </is>
       </c>
-      <c r="W175" t="inlineStr"/>
-      <c r="X175" t="inlineStr">
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y175" t="inlineStr">
+      <c r="Z175" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z175" t="inlineStr">
+      <c r="AA175" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA175" t="inlineStr"/>
       <c r="AB175" t="inlineStr"/>
       <c r="AC175" t="inlineStr"/>
+      <c r="AD175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -13257,41 +13445,42 @@
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T176" t="inlineStr"/>
-      <c r="U176" t="inlineStr">
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr">
         <is>
           <t>LimMobInd</t>
         </is>
       </c>
-      <c r="V176" t="inlineStr">
+      <c r="W176" t="inlineStr">
         <is>
           <t>Limited Moblility Index</t>
         </is>
       </c>
-      <c r="W176" t="inlineStr"/>
-      <c r="X176" t="inlineStr">
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
-      <c r="Y176" t="inlineStr">
+      <c r="Z176" t="inlineStr">
         <is>
           <t>Kolak et al., 2020</t>
         </is>
       </c>
-      <c r="Z176" t="inlineStr">
+      <c r="AA176" t="inlineStr">
         <is>
           <t>Kolak et al., 2020</t>
         </is>
       </c>
-      <c r="AA176" t="inlineStr"/>
       <c r="AB176" t="inlineStr"/>
       <c r="AC176" t="inlineStr"/>
+      <c r="AD176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -13324,41 +13513,42 @@
       <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr"/>
-      <c r="S177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T177" t="inlineStr"/>
-      <c r="U177" t="inlineStr">
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr">
         <is>
           <t>MicaInd</t>
         </is>
       </c>
-      <c r="V177" t="inlineStr">
+      <c r="W177" t="inlineStr">
         <is>
           <t>Mixed Immigrant Cohesion and Accesibility (MICA) Index</t>
         </is>
       </c>
-      <c r="W177" t="inlineStr"/>
-      <c r="X177" t="inlineStr">
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
-      <c r="Y177" t="inlineStr">
+      <c r="Z177" t="inlineStr">
         <is>
           <t>Kolak et al., 2020</t>
         </is>
       </c>
-      <c r="Z177" t="inlineStr">
+      <c r="AA177" t="inlineStr">
         <is>
           <t>Kolak et al., 2020</t>
         </is>
       </c>
-      <c r="AA177" t="inlineStr"/>
       <c r="AB177" t="inlineStr"/>
       <c r="AC177" t="inlineStr"/>
+      <c r="AD177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -13393,35 +13583,36 @@
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
-      <c r="U178" t="inlineStr">
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr">
         <is>
           <t>NeighbTyp</t>
         </is>
       </c>
-      <c r="V178" t="inlineStr">
+      <c r="W178" t="inlineStr">
         <is>
           <t>Neighborhood Type</t>
         </is>
       </c>
-      <c r="W178" t="inlineStr"/>
-      <c r="X178" t="inlineStr">
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
-      <c r="Y178" t="inlineStr">
+      <c r="Z178" t="inlineStr">
         <is>
           <t>Kolak et al., 2020</t>
         </is>
       </c>
-      <c r="Z178" t="inlineStr">
+      <c r="AA178" t="inlineStr">
         <is>
           <t>Kolak et al., 2020</t>
         </is>
       </c>
-      <c r="AA178" t="inlineStr"/>
       <c r="AB178" t="inlineStr"/>
       <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -13454,41 +13645,42 @@
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr"/>
-      <c r="S179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T179" t="inlineStr"/>
-      <c r="U179" t="inlineStr">
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr">
         <is>
           <t>SocEcAdvIn</t>
         </is>
       </c>
-      <c r="V179" t="inlineStr">
+      <c r="W179" t="inlineStr">
         <is>
           <t>Socioeconomic Advantage Index</t>
         </is>
       </c>
-      <c r="W179" t="inlineStr"/>
-      <c r="X179" t="inlineStr">
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
-      <c r="Y179" t="inlineStr">
+      <c r="Z179" t="inlineStr">
         <is>
           <t>Kolak et al., 2020</t>
         </is>
       </c>
-      <c r="Z179" t="inlineStr">
+      <c r="AA179" t="inlineStr">
         <is>
           <t>Kolak et al., 2020</t>
         </is>
       </c>
-      <c r="AA179" t="inlineStr"/>
       <c r="AB179" t="inlineStr"/>
       <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -13521,41 +13713,42 @@
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr"/>
-      <c r="S180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T180" t="inlineStr"/>
-      <c r="U180" t="inlineStr">
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr">
         <is>
           <t>UrbCoreInd</t>
         </is>
       </c>
-      <c r="V180" t="inlineStr">
+      <c r="W180" t="inlineStr">
         <is>
           <t>Urban Core Opportunity Index</t>
         </is>
       </c>
-      <c r="W180" t="inlineStr"/>
-      <c r="X180" t="inlineStr">
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
-      <c r="Y180" t="inlineStr">
+      <c r="Z180" t="inlineStr">
         <is>
           <t>Kolak et al., 2020</t>
         </is>
       </c>
-      <c r="Z180" t="inlineStr">
+      <c r="AA180" t="inlineStr">
         <is>
           <t>Kolak et al., 2020</t>
         </is>
       </c>
-      <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="inlineStr"/>
       <c r="AC180" t="inlineStr"/>
+      <c r="AD180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -13598,35 +13791,36 @@
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
-      <c r="U181" t="inlineStr">
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr">
         <is>
           <t>SviSmryRnk</t>
         </is>
       </c>
-      <c r="V181" t="inlineStr">
+      <c r="W181" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
-      <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr">
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
-      <c r="Y181" t="inlineStr">
+      <c r="Z181" t="inlineStr">
         <is>
           <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="Z181" t="inlineStr">
+      <c r="AA181" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="inlineStr"/>
       <c r="AC181" t="inlineStr"/>
+      <c r="AD181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -13667,41 +13861,42 @@
       </c>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T182" t="inlineStr"/>
-      <c r="U182" t="inlineStr">
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr">
         <is>
           <t>SviTh1</t>
         </is>
       </c>
-      <c r="V182" t="inlineStr">
+      <c r="W182" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
-      <c r="W182" t="inlineStr"/>
-      <c r="X182" t="inlineStr">
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
-      <c r="Y182" t="inlineStr">
+      <c r="Z182" t="inlineStr">
         <is>
           <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="Z182" t="inlineStr">
+      <c r="AA182" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="inlineStr"/>
       <c r="AC182" t="inlineStr"/>
+      <c r="AD182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -13744,35 +13939,36 @@
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
-      <c r="U183" t="inlineStr">
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr">
         <is>
           <t>SviTh2</t>
         </is>
       </c>
-      <c r="V183" t="inlineStr">
+      <c r="W183" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
-      <c r="W183" t="inlineStr"/>
-      <c r="X183" t="inlineStr">
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
-      <c r="Y183" t="inlineStr">
+      <c r="Z183" t="inlineStr">
         <is>
           <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="Z183" t="inlineStr">
+      <c r="AA183" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="inlineStr"/>
       <c r="AC183" t="inlineStr"/>
+      <c r="AD183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -13815,35 +14011,36 @@
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr">
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr">
         <is>
           <t>SviTh3</t>
         </is>
       </c>
-      <c r="V184" t="inlineStr">
+      <c r="W184" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 3</t>
         </is>
       </c>
-      <c r="W184" t="inlineStr"/>
-      <c r="X184" t="inlineStr">
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
-      <c r="Y184" t="inlineStr">
+      <c r="Z184" t="inlineStr">
         <is>
           <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="Z184" t="inlineStr">
+      <c r="AA184" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="inlineStr"/>
       <c r="AC184" t="inlineStr"/>
+      <c r="AD184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -13884,41 +14081,42 @@
       </c>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T185" t="inlineStr"/>
-      <c r="U185" t="inlineStr">
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr">
         <is>
           <t>SviTh4</t>
         </is>
       </c>
-      <c r="V185" t="inlineStr">
+      <c r="W185" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
-      <c r="W185" t="inlineStr"/>
-      <c r="X185" t="inlineStr">
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
-      <c r="Y185" t="inlineStr">
+      <c r="Z185" t="inlineStr">
         <is>
           <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="Z185" t="inlineStr">
+      <c r="AA185" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="inlineStr"/>
       <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/src/reference/data-dictionaries/T_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/T_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD185"/>
+  <dimension ref="A1:AD190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6106,17 +6106,13 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Veteran Population</t>
+          <t>Social capital index</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -6128,11 +6124,7 @@
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
@@ -6146,28 +6138,28 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>TotVetPop</t>
+          <t>LibPerCap</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>Total Veteran Population</t>
+          <t>Libraries per Capita</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/232-add-social-capital-metadata-and-registry-files-prep-for-index/metadata/Social_Capital.md</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023; Census 2010, 2020</t>
+          <t>ACS 2018, 2023; Overture</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census</t>
+          <t>American Community Survey 2018 5-year estimates, 2023 5-year estimates; Overture Maps Foundation</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr"/>
@@ -6182,17 +6174,13 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Veteran Population</t>
+          <t>Social capital index</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -6204,11 +6192,7 @@
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
@@ -6222,28 +6206,28 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>VetP</t>
+          <t>MedHsgTen</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>% Veteran Population</t>
+          <t>Median Housing Tenure</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/232-add-social-capital-metadata-and-registry-files-prep-for-index/metadata/Social_Capital.md</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023; Census 2010, 2020</t>
+          <t>ACS 2018, 2023; Overture</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census</t>
+          <t>American Community Survey 2018 5-year estimates, 2023 5-year estimates; Overture Maps Foundation</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr"/>
@@ -6253,12 +6237,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Alcohol Outlet Density Measures</t>
+          <t>Social capital index</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -6279,35 +6263,39 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr">
         <is>
-          <t>AlcDens</t>
+          <t>RlgPerCap</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>Alcohol Outlets Density</t>
+          <t>Religious institutions per capita</t>
         </is>
       </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/232-add-social-capital-metadata-and-registry-files-prep-for-index/metadata/Social_Capital.md</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t xml:space="preserve">InfoGroup 2018 </t>
+          <t>ACS 2018, 2023; Overture</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>American Community Survey 2018 5-year estimates, 2023 5-year estimates; Overture Maps Foundation</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr"/>
@@ -6317,12 +6305,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Alcohol Outlet Density Measures</t>
+          <t>Social capital index</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -6343,35 +6331,39 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr">
         <is>
-          <t>AlcPerCap</t>
+          <t>SocCapInd</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>Alcohol Outlets per Capita</t>
+          <t>Social Capital Index</t>
         </is>
       </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/232-add-social-capital-metadata-and-registry-files-prep-for-index/metadata/Social_Capital.md</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t xml:space="preserve">InfoGroup 2018 </t>
+          <t>ACS 2018, 2023; Overture</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>American Community Survey 2018 5-year estimates, 2023 5-year estimates; Overture Maps Foundation</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr"/>
@@ -6381,18 +6373,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Alcohol Outlet Density Measures</t>
+          <t>Veteran Population</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -6404,38 +6400,46 @@
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
-          <t>AlcTot</t>
+          <t>TotVetPop</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>Total Alcohol Outlets</t>
+          <t>Total Veteran Population</t>
         </is>
       </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t xml:space="preserve">InfoGroup 2018 </t>
+          <t>ACS 2018, 2023; Census 2010, 2020</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr"/>
@@ -6445,18 +6449,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Alcohol Outlet Density Measures</t>
+          <t>Veteran Population</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -6468,38 +6476,46 @@
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
         <is>
-          <t>AreaSqMi</t>
+          <t>VetP</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>Land Area (Square Miles)</t>
+          <t>% Veteran Population</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t xml:space="preserve">InfoGroup 2018 </t>
+          <t>ACS 2018, 2023; Census 2010, 2020</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
@@ -6514,7 +6530,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Greenspace Measures</t>
+          <t>Alcohol Outlet Density Measures</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -6542,28 +6558,28 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Ndvi</t>
+          <t>AlcDens</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>NDVI Average</t>
+          <t>Alcohol Outlets Density</t>
         </is>
       </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Greenspace_Measures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018; Sentinel-2 MSI 2018; OSM</t>
+          <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018 Shapefiles; Sentinel 2 MSI: MultiSpectral Instrument Level-1 C, 2018; OpenStreetMap Contributors</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr"/>
@@ -6578,23 +6594,23 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Healthcare Provider Access</t>
+          <t>Alcohol Outlet Density Measures</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -6602,36 +6618,32 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>PcpPer100k</t>
+          <t>AlcPerCap</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>Primary Care Physicians (PCP) per 100k</t>
+          <t>Alcohol Outlets per Capita</t>
         </is>
       </c>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas 2010</t>
+          <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr"/>
@@ -6646,23 +6658,23 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Healthcare Provider Access</t>
+          <t>Alcohol Outlet Density Measures</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -6674,28 +6686,28 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>SpPer100k</t>
+          <t>AlcTot</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>Specialty Physicians per 100k</t>
+          <t>Total Alcohol Outlets</t>
         </is>
       </c>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas 2010</t>
+          <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr"/>
@@ -6710,23 +6722,23 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Healthcare Provider Access</t>
+          <t>Alcohol Outlet Density Measures</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -6738,28 +6750,28 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>TotPcp</t>
+          <t>AreaSqMi</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>Count of Primary Care Physicians (PCPs)</t>
+          <t>Land Area (Square Miles)</t>
         </is>
       </c>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas 2010</t>
+          <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr"/>
@@ -6774,23 +6786,23 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Healthcare Provider Access</t>
+          <t>Greenspace Measures</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -6802,28 +6814,28 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr">
         <is>
-          <t>TotSp</t>
+          <t>Ndvi</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>Count of Specialty Physicians</t>
+          <t>NDVI Average</t>
         </is>
       </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Greenspace_Measures.md</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas 2010</t>
+          <t>Tiger/Line 2018; Sentinel-2 MSI 2018; OSM</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
+          <t>Tiger/Line 2018 Shapefiles; Sentinel 2 MSI: MultiSpectral Instrument Level-1 C, 2018; OpenStreetMap Contributors</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr"/>
@@ -6838,64 +6850,60 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Housing Characteristics </t>
+          <t>Healthcare Provider Access</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr">
         <is>
-          <t>LngTermP</t>
+          <t>PcpPer100k</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>Long-Term Occupancy %</t>
+          <t>Primary Care Physicians (PCP) per 100k</t>
         </is>
       </c>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>Dartmouth Atlas 2010</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr"/>
@@ -6910,64 +6918,56 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Housing Characteristics </t>
+          <t>Healthcare Provider Access</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr">
         <is>
-          <t>MobileP</t>
+          <t>SpPer100k</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>Mobile Homes %</t>
+          <t>Specialty Physicians per 100k</t>
         </is>
       </c>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>Dartmouth Atlas 2010</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr"/>
@@ -6982,64 +6982,56 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Housing Characteristics </t>
+          <t>Healthcare Provider Access</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr">
         <is>
-          <t>RentalP</t>
+          <t>TotPcp</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>Rentals %</t>
+          <t>Count of Primary Care Physicians (PCPs)</t>
         </is>
       </c>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>Dartmouth Atlas 2010</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr"/>
@@ -7054,24 +7046,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Housing Characteristics </t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Healthcare Provider Access</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
           <t>x</t>
@@ -7082,56 +7062,40 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr">
         <is>
-          <t>TotUnits</t>
+          <t>TotSp</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>Total Occupied Housing Units</t>
+          <t>Count of Specialty Physicians</t>
         </is>
       </c>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>Dartmouth Atlas 2010</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr"/>
@@ -7182,12 +7146,12 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr">
         <is>
-          <t>UnitDens</t>
+          <t>LngTermP</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>Housing Unit Density</t>
+          <t>Long-Term Occupancy %</t>
         </is>
       </c>
       <c r="X85" t="inlineStr"/>
@@ -7221,26 +7185,10 @@
           <t xml:space="preserve">Housing Characteristics </t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
@@ -7267,19 +7215,15 @@
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr">
         <is>
-          <t>VacantP</t>
+          <t>MobileP</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>Vacant Housing Units %</t>
+          <t>Mobile Homes %</t>
         </is>
       </c>
       <c r="X86" t="inlineStr"/>
@@ -7310,7 +7254,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Spatial Access to Hospitals</t>
+          <t xml:space="preserve">Housing Characteristics </t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -7322,7 +7266,11 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
@@ -7331,39 +7279,39 @@
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr">
         <is>
-          <t>HospCntDr</t>
+          <t>RentalP</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>Count of Hospitals (30-min drive)</t>
+          <t>Rentals %</t>
         </is>
       </c>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>CovidCareMap 2020</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr"/>
@@ -7378,19 +7326,39 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Spatial Access to Hospitals</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+          <t xml:space="preserve">Housing Characteristics </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
@@ -7399,39 +7367,43 @@
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>HospMinDis</t>
+          <t>TotUnits</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Hospital</t>
+          <t>Total Occupied Housing Units</t>
         </is>
       </c>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>CovidCareMap 2020</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr"/>
@@ -7446,7 +7418,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Spatial Access to Hospitals</t>
+          <t xml:space="preserve">Housing Characteristics </t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -7458,7 +7430,11 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
@@ -7467,43 +7443,39 @@
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr">
         <is>
-          <t>HospTmDr</t>
+          <t>UnitDens</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest Hospital</t>
+          <t>Housing Unit Density</t>
         </is>
       </c>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>CovidCareMap 2020</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr"/>
@@ -7518,19 +7490,39 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+          <t xml:space="preserve">Housing Characteristics </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
@@ -7539,39 +7531,43 @@
       </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>BupCntBk30</t>
+          <t>VacantP</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min bike)</t>
+          <t>Vacant Housing Units %</t>
         </is>
       </c>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr"/>
@@ -7586,7 +7582,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Hospitals</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -7618,28 +7614,28 @@
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr">
         <is>
-          <t>BupCntBk60</t>
+          <t>HospCntDr</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min bike)</t>
+          <t>Count of Hospitals (30-min drive)</t>
         </is>
       </c>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>CovidCareMap 2020</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr"/>
@@ -7654,7 +7650,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Hospitals</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -7686,28 +7682,28 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr">
         <is>
-          <t>BupCntDr30</t>
+          <t>HospMinDis</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min drive)</t>
+          <t>Distance (mi) to nearest Hospital</t>
         </is>
       </c>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>CovidCareMap 2020</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr"/>
@@ -7722,7 +7718,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Hospitals</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -7736,7 +7732,11 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
@@ -7746,32 +7746,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T93" t="inlineStr"/>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr">
         <is>
-          <t>BupCntDr60</t>
+          <t>HospTmDr</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers (drive)</t>
+          <t>Driving time (min) to nearest Hospital</t>
         </is>
       </c>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>CovidCareMap 2020</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr"/>
@@ -7818,12 +7822,12 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr">
         <is>
-          <t>BupCntWk30</t>
+          <t>BupCntBk30</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min walk)</t>
+          <t>Count of Buprenorphine Providers (30-min bike)</t>
         </is>
       </c>
       <c r="X94" t="inlineStr"/>
@@ -7886,12 +7890,12 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr">
         <is>
-          <t>BupCntWk60</t>
+          <t>BupCntBk60</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min walk)</t>
+          <t>Count of Buprenorphine Providers (60-min bike)</t>
         </is>
       </c>
       <c r="X95" t="inlineStr"/>
@@ -7954,12 +7958,12 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr">
         <is>
-          <t>BupMinDis</t>
+          <t>BupCntDr30</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Buprenorphine Provider</t>
+          <t>Count of Buprenorphine Providers (30-min drive)</t>
         </is>
       </c>
       <c r="X96" t="inlineStr"/>
@@ -8004,26 +8008,26 @@
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr">
         <is>
-          <t>BupRm30</t>
+          <t>BupCntDr60</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>Buprenorphine access 30 minutes (RAAM)</t>
+          <t>Count of buprenorphine providers (drive)</t>
         </is>
       </c>
       <c r="X97" t="inlineStr"/>
@@ -8077,17 +8081,21 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr">
         <is>
-          <t>BupRm60</t>
+          <t>BupCntWk30</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>Buprenorphine access 60 minutes (RAAM)</t>
+          <t>Count of Buprenorphine Providers (30-min walk)</t>
         </is>
       </c>
       <c r="X98" t="inlineStr"/>
@@ -8141,17 +8149,21 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr">
         <is>
-          <t>BupRm90</t>
+          <t>BupCntWk60</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>Buprenorphine access 90 minutes (RAAM)</t>
+          <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
       <c r="X99" t="inlineStr"/>
@@ -8210,20 +8222,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr">
         <is>
-          <t>BupTmBk</t>
+          <t>BupMinDis</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Distance (mi) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X100" t="inlineStr"/>
@@ -8277,25 +8285,17 @@
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr">
         <is>
-          <t>BupTmDr</t>
+          <t>BupRm30</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+          <t>Buprenorphine access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X101" t="inlineStr"/>
@@ -8349,25 +8349,17 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr">
         <is>
-          <t>BupTmWk</t>
+          <t>BupRm60</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Buprenorphine access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X102" t="inlineStr"/>
@@ -8421,21 +8413,17 @@
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr">
         <is>
-          <t>MetCntBk30</t>
+          <t>BupRm90</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>Count of methadone providers (30-min bike)</t>
+          <t>Buprenorphine access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X103" t="inlineStr"/>
@@ -8494,16 +8482,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T104" t="inlineStr"/>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr">
         <is>
-          <t>MetCntBk60</t>
+          <t>BupTmBk</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min bike)</t>
+          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X104" t="inlineStr"/>
@@ -8562,16 +8554,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T105" t="inlineStr"/>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr">
         <is>
-          <t>MetCntDr30</t>
+          <t>BupTmDr</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min drive)</t>
+          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X105" t="inlineStr"/>
@@ -8616,7 +8612,11 @@
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
@@ -8626,16 +8626,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T106" t="inlineStr"/>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr">
         <is>
-          <t>MetCntDr60</t>
+          <t>BupTmWk</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>Count of methadone providers (drive)</t>
+          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X106" t="inlineStr"/>
@@ -8698,12 +8702,12 @@
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr">
         <is>
-          <t>MetCntWk30</t>
+          <t>MetCntBk30</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min walk)</t>
+          <t>Count of methadone providers (30-min bike)</t>
         </is>
       </c>
       <c r="X107" t="inlineStr"/>
@@ -8766,12 +8770,12 @@
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr">
         <is>
-          <t>MetCntWk60</t>
+          <t>MetCntBk60</t>
         </is>
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min walk)</t>
+          <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="X108" t="inlineStr"/>
@@ -8834,12 +8838,12 @@
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr">
         <is>
-          <t>MetMinDis</t>
+          <t>MetCntDr30</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Methadone Provider</t>
+          <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="X109" t="inlineStr"/>
@@ -8873,26 +8877,10 @@
           <t>Spatial Access to MOUDs</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
@@ -8900,26 +8888,26 @@
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr">
         <is>
-          <t>MetRm30</t>
+          <t>MetCntDr60</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>Methadone access 30 minutes (RAAM)</t>
+          <t>Count of methadone providers (drive)</t>
         </is>
       </c>
       <c r="X110" t="inlineStr"/>
@@ -8953,26 +8941,10 @@
           <t>Spatial Access to MOUDs</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
@@ -8989,17 +8961,21 @@
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr">
         <is>
-          <t>MetRm60</t>
+          <t>MetCntWk30</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>Methadone access 60 minutes (RAAM)</t>
+          <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="X111" t="inlineStr"/>
@@ -9033,26 +9009,10 @@
           <t>Spatial Access to MOUDs</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
@@ -9069,17 +9029,21 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr">
         <is>
-          <t>MetRm90</t>
+          <t>MetCntWk60</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>Methadone access 90 minutes (RAAM)</t>
+          <t>Count of Methadone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="X112" t="inlineStr"/>
@@ -9138,20 +9102,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr">
         <is>
-          <t>MetTmBk</t>
+          <t>MetMinDis</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Methadone Provider</t>
+          <t>Distance (mi) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X113" t="inlineStr"/>
@@ -9185,10 +9145,26 @@
           <t>Spatial Access to MOUDs</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
@@ -9205,25 +9181,17 @@
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr">
         <is>
-          <t>MetTmDr</t>
+          <t>MetRm30</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Methadone Provider</t>
+          <t>Methadone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X114" t="inlineStr"/>
@@ -9257,10 +9225,26 @@
           <t>Spatial Access to MOUDs</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
@@ -9277,25 +9261,17 @@
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr">
         <is>
-          <t>MetTmWk</t>
+          <t>MetRm60</t>
         </is>
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Methadone Provider</t>
+          <t>Methadone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X115" t="inlineStr"/>
@@ -9329,10 +9305,26 @@
           <t>Spatial Access to MOUDs</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
@@ -9349,21 +9341,17 @@
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr">
         <is>
-          <t>MoudMinDis</t>
+          <t>MetRm90</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest MOUD (any)</t>
+          <t>Methadone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X116" t="inlineStr"/>
@@ -9422,16 +9410,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T117" t="inlineStr"/>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr">
         <is>
-          <t>NaltCntBk30</t>
+          <t>MetTmBk</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min bike)</t>
+          <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X117" t="inlineStr"/>
@@ -9490,16 +9482,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T118" t="inlineStr"/>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr">
         <is>
-          <t>NaltCntBk60</t>
+          <t>MetTmDr</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min bike)</t>
+          <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X118" t="inlineStr"/>
@@ -9558,16 +9554,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T119" t="inlineStr"/>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr">
         <is>
-          <t>NaltCntDr30</t>
+          <t>MetTmWk</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min drive)</t>
+          <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X119" t="inlineStr"/>
@@ -9612,7 +9612,11 @@
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
@@ -9626,12 +9630,12 @@
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr">
         <is>
-          <t>NaltCntDr60</t>
+          <t>MoudMinDis</t>
         </is>
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers (drive)</t>
+          <t>Distance (mi) to nearest MOUD (any)</t>
         </is>
       </c>
       <c r="X120" t="inlineStr"/>
@@ -9694,12 +9698,12 @@
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr">
         <is>
-          <t>NaltCntWk30</t>
+          <t>NaltCntBk30</t>
         </is>
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min walk)</t>
+          <t>Count of Naltrexone Providers (30-min bike)</t>
         </is>
       </c>
       <c r="X121" t="inlineStr"/>
@@ -9762,12 +9766,12 @@
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr">
         <is>
-          <t>NaltCntWk60</t>
+          <t>NaltCntBk60</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min walk)</t>
+          <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="X122" t="inlineStr"/>
@@ -9830,12 +9834,12 @@
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr">
         <is>
-          <t>NaltMinDis</t>
+          <t>NaltCntDr30</t>
         </is>
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Naltrexone Provider</t>
+          <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="X123" t="inlineStr"/>
@@ -9880,26 +9884,26 @@
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr">
         <is>
-          <t>NaltRm30</t>
+          <t>NaltCntDr60</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>Naltrexone access 30 minutes (RAAM)</t>
+          <t>Count of naltrexone providers (drive)</t>
         </is>
       </c>
       <c r="X124" t="inlineStr"/>
@@ -9953,17 +9957,21 @@
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr">
         <is>
-          <t>NaltRm60</t>
+          <t>NaltCntWk30</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>Naltrexone access 60 minutes (RAAM)</t>
+          <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="X125" t="inlineStr"/>
@@ -10017,17 +10025,21 @@
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr">
         <is>
-          <t>NaltRm90</t>
+          <t>NaltCntWk60</t>
         </is>
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>Naltrexone access 90 minutes (RAAM)</t>
+          <t>Count of Naltrexone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="X126" t="inlineStr"/>
@@ -10086,20 +10098,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T127" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr">
         <is>
-          <t>NaltTmBk</t>
+          <t>NaltMinDis</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Naltrexone Provider</t>
+          <t>Distance (mi) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X127" t="inlineStr"/>
@@ -10153,25 +10161,17 @@
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr">
         <is>
-          <t>NaltTmDr</t>
+          <t>NaltRm30</t>
         </is>
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Naltrexone Provider</t>
+          <t>Naltrexone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X128" t="inlineStr"/>
@@ -10225,25 +10225,17 @@
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr">
         <is>
-          <t>NaltTmWk</t>
+          <t>NaltRm60</t>
         </is>
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+          <t>Naltrexone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X129" t="inlineStr"/>
@@ -10288,30 +10280,26 @@
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr">
         <is>
-          <t>OtpCntDr</t>
+          <t>NaltRm90</t>
         </is>
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
+          <t>Naltrexone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X130" t="inlineStr"/>
@@ -10356,12 +10344,12 @@
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
@@ -10370,16 +10358,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T131" t="inlineStr"/>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr">
         <is>
-          <t>OtpMinDis</t>
+          <t>NaltTmBk</t>
         </is>
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>Distance to nearest OTP</t>
+          <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X131" t="inlineStr"/>
@@ -10424,12 +10416,12 @@
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
@@ -10446,12 +10438,12 @@
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>OtpTmDr</t>
+          <t>NaltTmDr</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X132" t="inlineStr"/>
@@ -10496,7 +10488,11 @@
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
@@ -10506,16 +10502,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T133" t="inlineStr"/>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr">
         <is>
-          <t>TlBupCntBk30</t>
+          <t>NaltTmWk</t>
         </is>
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>Count of telehealth buprenorphine providers within 30-minute bike ride</t>
+          <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X133" t="inlineStr"/>
@@ -10561,7 +10561,11 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
@@ -10574,12 +10578,12 @@
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr">
         <is>
-          <t>TlBupCntDr30</t>
+          <t>OtpCntDr</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>Count of telehealth buprenorphine providers within 30-minute drive</t>
+          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="X134" t="inlineStr"/>
@@ -10625,7 +10629,11 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
@@ -10638,12 +10646,12 @@
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr">
         <is>
-          <t>TlBupCntDr60</t>
+          <t>OtpMinDis</t>
         </is>
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>Count of telehealth buprenorphine providers within 60-minute drive</t>
+          <t>Distance to nearest OTP</t>
         </is>
       </c>
       <c r="X135" t="inlineStr"/>
@@ -10689,7 +10697,11 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
@@ -10698,16 +10710,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T136" t="inlineStr"/>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr">
         <is>
-          <t>TlBupCntWk30</t>
+          <t>OtpTmDr</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>Count of telehealth buprenorphine providers within 30-minute walk</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="X136" t="inlineStr"/>
@@ -10766,12 +10782,12 @@
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr">
         <is>
-          <t>TlBupMinDis</t>
+          <t>TlBupCntBk30</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>Minimum distance to telehealth buprenorphine provider</t>
+          <t>Count of telehealth buprenorphine providers within 30-minute bike ride</t>
         </is>
       </c>
       <c r="X137" t="inlineStr"/>
@@ -10830,12 +10846,12 @@
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr">
         <is>
-          <t>TlBupTmBk</t>
+          <t>TlBupCntDr30</t>
         </is>
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>Biking time to nearest telehealth buprenorphine provider</t>
+          <t>Count of telehealth buprenorphine providers within 30-minute drive</t>
         </is>
       </c>
       <c r="X138" t="inlineStr"/>
@@ -10894,12 +10910,12 @@
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr">
         <is>
-          <t>TlBupTmDr</t>
+          <t>TlBupCntDr60</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Driving time to nearest telehealth buprenorphine provider</t>
+          <t>Count of telehealth buprenorphine providers within 60-minute drive</t>
         </is>
       </c>
       <c r="X139" t="inlineStr"/>
@@ -10958,12 +10974,12 @@
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr">
         <is>
-          <t>TlBupTmWk</t>
+          <t>TlBupCntWk30</t>
         </is>
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>Walking time to nearest telehealth buprenorphine provider</t>
+          <t>Count of telehealth buprenorphine providers within 30-minute walk</t>
         </is>
       </c>
       <c r="X140" t="inlineStr"/>
@@ -10994,7 +11010,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -11008,11 +11024,7 @@
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
@@ -11026,28 +11038,28 @@
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr">
         <is>
-          <t>MhCntDr</t>
+          <t>TlBupMinDis</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>Count of Mental Health Providers (30-min drive)</t>
+          <t>Minimum distance to telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB141" t="inlineStr"/>
@@ -11062,7 +11074,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -11076,11 +11088,7 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
@@ -11094,28 +11102,28 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr">
         <is>
-          <t>MhMinDis</t>
+          <t>TlBupTmBk</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Mental Health Provider</t>
+          <t>Biking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB142" t="inlineStr"/>
@@ -11130,7 +11138,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -11144,11 +11152,7 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
@@ -11158,36 +11162,32 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr">
         <is>
-          <t>MhTmDr</t>
+          <t>TlBupTmDr</t>
         </is>
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Driving time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB143" t="inlineStr"/>
@@ -11202,7 +11202,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -11215,43 +11215,43 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr">
         <is>
-          <t>RxCntDr</t>
+          <t>TlBupTmWk</t>
         </is>
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>Count of Pharmacies (30-min drive)</t>
+          <t>Walking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA144" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB144" t="inlineStr"/>
@@ -11266,7 +11266,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -11279,43 +11279,47 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr">
         <is>
-          <t>RxMinDis</t>
+          <t>MhCntDr</t>
         </is>
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Pharmacy</t>
+          <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA145" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB145" t="inlineStr"/>
@@ -11330,7 +11334,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -11343,47 +11347,47 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr">
         <is>
-          <t>RxTmDr</t>
+          <t>MhMinDis</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Pharmacy</t>
+          <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB146" t="inlineStr"/>
@@ -11398,7 +11402,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -11426,22 +11430,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T147" t="inlineStr"/>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>SutCntDr</t>
+          <t>MhTmDr</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
@@ -11466,7 +11474,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -11479,47 +11487,43 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr">
         <is>
-          <t>SutMinDis</t>
+          <t>RxCntDr</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
+          <t>Count of Pharmacies (30-min drive)</t>
         </is>
       </c>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr"/>
@@ -11534,7 +11538,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -11547,51 +11551,43 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr">
         <is>
-          <t>SutTmDr</t>
+          <t>RxMinDis</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
+          <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB149" t="inlineStr"/>
@@ -11606,7 +11602,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -11619,43 +11615,47 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr">
         <is>
-          <t>HcvCntDr</t>
+          <t>RxTmDr</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>Count of HCV Providers</t>
+          <t>Driving Time (min) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB150" t="inlineStr"/>
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -11684,7 +11684,11 @@
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
@@ -11698,28 +11702,28 @@
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr">
         <is>
-          <t>HcvMinDis</t>
+          <t>SutCntDr</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Distance to nearest HCV Provider</t>
+          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
         </is>
       </c>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB151" t="inlineStr"/>
@@ -11734,7 +11738,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -11748,7 +11752,11 @@
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
@@ -11762,28 +11770,28 @@
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr">
         <is>
-          <t>HcvTmDr</t>
+          <t>SutMinDis</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Driving time to nearest HCV Provider</t>
+          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB152" t="inlineStr"/>
@@ -11798,7 +11806,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -11812,7 +11820,11 @@
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
@@ -11822,32 +11834,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T153" t="inlineStr"/>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr">
         <is>
-          <t>HivCntDr</t>
+          <t>SutTmDr</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Count of HIV Providers</t>
+          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB153" t="inlineStr"/>
@@ -11862,7 +11878,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -11876,7 +11892,11 @@
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
@@ -11890,28 +11910,28 @@
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr">
         <is>
-          <t>HivMinDis</t>
+          <t>FqhcCntDr</t>
         </is>
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>Distance to nearest HIV Provider</t>
+          <t>Count of Federally Qualified Health Centers (FQHCs) within 30-min drive</t>
         </is>
       </c>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB154" t="inlineStr"/>
@@ -11926,7 +11946,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -11940,7 +11960,11 @@
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
@@ -11954,28 +11978,28 @@
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr">
         <is>
-          <t>HivTmDr</t>
+          <t>FqhcMinDis</t>
         </is>
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>Driving time to nearest HIV Provider</t>
+          <t>Distance (mi) to nearest Federally Qualified Health Centers (FQHC)</t>
         </is>
       </c>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB155" t="inlineStr"/>
@@ -11990,7 +12014,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -12018,16 +12042,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T156" t="inlineStr"/>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr">
         <is>
-          <t>FqhcCntDr</t>
+          <t>FqhcTmDr</t>
         </is>
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>Count of FQHCs (30-min drive)</t>
+          <t>Driving time (min) to nearest Federally Qualified Health Centers (FQHC)</t>
         </is>
       </c>
       <c r="X156" t="inlineStr"/>
@@ -12038,12 +12066,12 @@
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB156" t="inlineStr"/>
@@ -12058,7 +12086,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -12072,11 +12100,7 @@
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
@@ -12086,16 +12110,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T157" t="inlineStr"/>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>FqhcMinDis</t>
+          <t>FqhcTmDr2</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest FQHC</t>
+          <t>Driving time (min) to nearest Federally Qualified Health Centers (FQHC), with Impedance factor</t>
         </is>
       </c>
       <c r="X157" t="inlineStr"/>
@@ -12106,12 +12134,12 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB157" t="inlineStr"/>
@@ -12126,7 +12154,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -12140,11 +12168,7 @@
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
@@ -12154,36 +12178,32 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr">
         <is>
-          <t>FqhcTmDr</t>
+          <t>HcvCntDr</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest FQHC</t>
+          <t>Count of HCV Providers</t>
         </is>
       </c>
       <c r="X158" t="inlineStr"/>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="AA158" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AB158" t="inlineStr"/>
@@ -12198,17 +12218,13 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -12221,33 +12237,37 @@
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr">
         <is>
-          <t>Ruca1</t>
+          <t>HcvMinDis</t>
         </is>
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Distance to nearest HCV Provider</t>
         </is>
       </c>
       <c r="X159" t="inlineStr"/>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="AA159" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AB159" t="inlineStr"/>
@@ -12262,17 +12282,13 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
@@ -12285,33 +12301,37 @@
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr">
         <is>
-          <t>Ruca2</t>
+          <t>HcvTmDr</t>
         </is>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Driving time to nearest HCV Provider</t>
         </is>
       </c>
       <c r="X160" t="inlineStr"/>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="AA160" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AB160" t="inlineStr"/>
@@ -12326,17 +12346,13 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
@@ -12349,37 +12365,37 @@
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
-      <c r="T161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr">
         <is>
-          <t>Rurality</t>
+          <t>HivCntDr</t>
         </is>
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>Urban-Suburban-Rural</t>
+          <t>Count of HIV Providers</t>
         </is>
       </c>
       <c r="X161" t="inlineStr"/>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AB161" t="inlineStr"/>
@@ -12389,12 +12405,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -12406,44 +12422,44 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr"/>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>HivMinDis</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Distance to nearest HIV Provider</t>
         </is>
       </c>
       <c r="X162" t="inlineStr"/>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="AA162" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AB162" t="inlineStr"/>
@@ -12453,12 +12469,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -12470,52 +12486,44 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr"/>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>HivTmDr</t>
         </is>
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>Driving time to nearest HIV Provider</t>
         </is>
       </c>
       <c r="X163" t="inlineStr"/>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="AA163" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AB163" t="inlineStr"/>
@@ -12525,69 +12533,61 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>Ruca1</t>
         </is>
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="X164" t="inlineStr"/>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA164" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB164" t="inlineStr"/>
@@ -12597,69 +12597,61 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>Ruca2</t>
         </is>
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="X165" t="inlineStr"/>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA165" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB165" t="inlineStr"/>
@@ -12669,69 +12661,65 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="inlineStr"/>
-      <c r="T166" t="inlineStr"/>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>Rurality</t>
         </is>
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Urban-Suburban-Rural</t>
         </is>
       </c>
       <c r="X166" t="inlineStr"/>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB166" t="inlineStr"/>
@@ -12764,30 +12752,22 @@
         </is>
       </c>
       <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="X167" t="inlineStr"/>
@@ -12818,7 +12798,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -12836,38 +12816,46 @@
         </is>
       </c>
       <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="X168" t="inlineStr"/>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA168" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB168" t="inlineStr"/>
@@ -12882,7 +12870,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -12900,38 +12888,46 @@
         </is>
       </c>
       <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="X169" t="inlineStr"/>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB169" t="inlineStr"/>
@@ -12946,17 +12942,13 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
@@ -12986,28 +12978,28 @@
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="X170" t="inlineStr"/>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB170" t="inlineStr"/>
@@ -13022,7 +13014,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Internet Access</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -13034,44 +13026,52 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="X171" t="inlineStr"/>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>ACS 2019</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA171" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5-Year Estimate</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB171" t="inlineStr"/>
@@ -13086,17 +13086,13 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
@@ -13126,28 +13122,28 @@
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="X172" t="inlineStr"/>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA172" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB172" t="inlineStr"/>
@@ -13162,17 +13158,13 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
@@ -13184,46 +13176,38 @@
         </is>
       </c>
       <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>ForDqP</t>
         </is>
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
       <c r="X173" t="inlineStr"/>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA173" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB173" t="inlineStr"/>
@@ -13238,29 +13222,13 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Great Recession Foreclosure Rate</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
@@ -13272,50 +13240,38 @@
         </is>
       </c>
       <c r="M174" t="inlineStr"/>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="X174" t="inlineStr"/>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z174" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA174" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB174" t="inlineStr"/>
@@ -13330,24 +13286,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Great Recession Foreclosure Rate</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
           <t>x</t>
@@ -13379,35 +13323,31 @@
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr"/>
-      <c r="U175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="X175" t="inlineStr"/>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA175" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB175" t="inlineStr"/>
@@ -13417,12 +13357,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SDOH Indices &amp; Typology</t>
+          <t>Internet Access</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -13430,52 +13370,48 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="inlineStr"/>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr">
         <is>
-          <t>LimMobInd</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>Limited Moblility Index</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="X176" t="inlineStr"/>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>ACS 2019</t>
         </is>
       </c>
       <c r="AA176" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>American Community Survey 2015-2019 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB176" t="inlineStr"/>
@@ -13485,65 +13421,73 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SDOH Indices &amp; Typology</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr"/>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R177" t="inlineStr"/>
       <c r="S177" t="inlineStr"/>
-      <c r="T177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T177" t="inlineStr"/>
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr">
         <is>
-          <t>MicaInd</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>Mixed Immigrant Cohesion and Accesibility (MICA) Index</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="X177" t="inlineStr"/>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z177" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA177" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB177" t="inlineStr"/>
@@ -13553,61 +13497,73 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SDOH Indices &amp; Typology</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M178" t="inlineStr"/>
-      <c r="N178" t="inlineStr"/>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr">
         <is>
-          <t>NeighbTyp</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>Neighborhood Type</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="X178" t="inlineStr"/>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA178" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB178" t="inlineStr"/>
@@ -13617,65 +13573,89 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SDOH Indices &amp; Typology</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="inlineStr"/>
-      <c r="T179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>SocEcAdvIn</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>Socioeconomic Advantage Index</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="X179" t="inlineStr"/>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA179" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB179" t="inlineStr"/>
@@ -13685,65 +13665,89 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SDOH Indices &amp; Typology</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
-      <c r="T180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>UrbCoreInd</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>Urban Core Opportunity Index</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z180" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA180" t="inlineStr">
         <is>
-          <t>Kolak et al., 2020</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB180" t="inlineStr"/>
@@ -13758,7 +13762,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>SDOH Indices &amp; Typology</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -13766,56 +13770,52 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
-      <c r="T181" t="inlineStr"/>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr">
         <is>
-          <t>SviSmryRnk</t>
+          <t>LimMobInd</t>
         </is>
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
+          <t>Limited Moblility Index</t>
         </is>
       </c>
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AA181" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AB181" t="inlineStr"/>
@@ -13830,7 +13830,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>SDOH Indices &amp; Typology</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -13838,27 +13838,19 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
@@ -13870,28 +13862,28 @@
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr">
         <is>
-          <t>SviTh1</t>
+          <t>MicaInd</t>
         </is>
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
+          <t>Mixed Immigrant Cohesion and Accesibility (MICA) Index</t>
         </is>
       </c>
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AB182" t="inlineStr"/>
@@ -13906,7 +13898,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>SDOH Indices &amp; Typology</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -13914,27 +13906,19 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="inlineStr"/>
@@ -13942,28 +13926,28 @@
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr">
         <is>
-          <t>SviTh2</t>
+          <t>NeighbTyp</t>
         </is>
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
+          <t>Neighborhood Type</t>
         </is>
       </c>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AB183" t="inlineStr"/>
@@ -13978,7 +13962,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>SDOH Indices &amp; Typology</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -13986,56 +13970,52 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr"/>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr">
         <is>
-          <t>SviTh3</t>
+          <t>SocEcAdvIn</t>
         </is>
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 3</t>
+          <t>Socioeconomic Advantage Index</t>
         </is>
       </c>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AA184" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AB184" t="inlineStr"/>
@@ -14050,7 +14030,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>SDOH Indices &amp; Typology</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -14058,27 +14038,19 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="inlineStr"/>
@@ -14090,33 +14062,401 @@
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr">
         <is>
-          <t>SviTh4</t>
+          <t>UrbCoreInd</t>
         </is>
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
+          <t>Urban Core Opportunity Index</t>
         </is>
       </c>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="Z185" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AA185" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AB185" t="inlineStr"/>
       <c r="AC185" t="inlineStr"/>
       <c r="AD185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>SviSmryRnk</t>
+        </is>
+      </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
+        </is>
+      </c>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Z186" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA186" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>SviTh1</t>
+        </is>
+      </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 1</t>
+        </is>
+      </c>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Z187" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA187" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>SviTh2</t>
+        </is>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 2</t>
+        </is>
+      </c>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Z188" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA188" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>SviTh3</t>
+        </is>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 3</t>
+        </is>
+      </c>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Z189" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA189" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>SviTh4</t>
+        </is>
+      </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 4</t>
+        </is>
+      </c>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Z190" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA190" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/src/reference/data-dictionaries/T_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/T_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD190"/>
+  <dimension ref="A1:AD173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7605,11 +7605,7 @@
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr">
@@ -7673,11 +7669,7 @@
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr">
@@ -7741,11 +7733,7 @@
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
           <t>x</t>
@@ -7813,11 +7801,7 @@
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr">
@@ -7881,11 +7865,7 @@
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr">
@@ -7949,11 +7929,7 @@
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr">
@@ -8008,26 +7984,26 @@
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr">
         <is>
-          <t>BupCntDr60</t>
+          <t>BupCntWk30</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers (drive)</t>
+          <t>Count of Buprenorphine Providers (30-min walk)</t>
         </is>
       </c>
       <c r="X97" t="inlineStr"/>
@@ -8081,21 +8057,17 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr">
         <is>
-          <t>BupCntWk30</t>
+          <t>BupCntWk60</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min walk)</t>
+          <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
       <c r="X98" t="inlineStr"/>
@@ -8149,21 +8121,17 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr">
         <is>
-          <t>BupCntWk60</t>
+          <t>BupMinDis</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min walk)</t>
+          <t>Distance (mi) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X99" t="inlineStr"/>
@@ -8217,21 +8185,17 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr">
         <is>
-          <t>BupMinDis</t>
+          <t>BupRm30</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Buprenorphine Provider</t>
+          <t>Buprenorphine access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X100" t="inlineStr"/>
@@ -8290,12 +8254,12 @@
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr">
         <is>
-          <t>BupRm30</t>
+          <t>BupRm60</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>Buprenorphine access 30 minutes (RAAM)</t>
+          <t>Buprenorphine access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X101" t="inlineStr"/>
@@ -8354,12 +8318,12 @@
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr">
         <is>
-          <t>BupRm60</t>
+          <t>BupRm90</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>Buprenorphine access 60 minutes (RAAM)</t>
+          <t>Buprenorphine access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X102" t="inlineStr"/>
@@ -8413,17 +8377,25 @@
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr">
         <is>
-          <t>BupRm90</t>
+          <t>BupTmBk</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>Buprenorphine access 90 minutes (RAAM)</t>
+          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X103" t="inlineStr"/>
@@ -8490,12 +8462,12 @@
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr">
         <is>
-          <t>BupTmBk</t>
+          <t>BupTmDr</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X104" t="inlineStr"/>
@@ -8562,12 +8534,12 @@
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr">
         <is>
-          <t>BupTmDr</t>
+          <t>BupTmWk</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X105" t="inlineStr"/>
@@ -8621,25 +8593,17 @@
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr">
         <is>
-          <t>BupTmWk</t>
+          <t>MetCntBk30</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Count of methadone providers (30-min bike)</t>
         </is>
       </c>
       <c r="X106" t="inlineStr"/>
@@ -8693,21 +8657,17 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr">
         <is>
-          <t>MetCntBk30</t>
+          <t>MetCntBk60</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>Count of methadone providers (30-min bike)</t>
+          <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="X107" t="inlineStr"/>
@@ -8761,21 +8721,17 @@
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr">
         <is>
-          <t>MetCntBk60</t>
+          <t>MetCntDr30</t>
         </is>
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min bike)</t>
+          <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="X108" t="inlineStr"/>
@@ -8829,21 +8785,17 @@
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr">
         <is>
-          <t>MetCntDr30</t>
+          <t>MetCntWk30</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min drive)</t>
+          <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="X109" t="inlineStr"/>
@@ -8888,26 +8840,26 @@
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr">
         <is>
-          <t>MetCntDr60</t>
+          <t>MetCntWk60</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>Count of methadone providers (drive)</t>
+          <t>Count of Methadone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="X110" t="inlineStr"/>
@@ -8961,21 +8913,17 @@
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr">
         <is>
-          <t>MetCntWk30</t>
+          <t>MetMinDis</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min walk)</t>
+          <t>Distance (mi) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X111" t="inlineStr"/>
@@ -9009,10 +8957,26 @@
           <t>Spatial Access to MOUDs</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
@@ -9029,21 +8993,17 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr">
         <is>
-          <t>MetCntWk60</t>
+          <t>MetRm30</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min walk)</t>
+          <t>Methadone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X112" t="inlineStr"/>
@@ -9077,10 +9037,26 @@
           <t>Spatial Access to MOUDs</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
@@ -9097,21 +9073,17 @@
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr">
         <is>
-          <t>MetMinDis</t>
+          <t>MetRm60</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Methadone Provider</t>
+          <t>Methadone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X113" t="inlineStr"/>
@@ -9186,12 +9158,12 @@
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr">
         <is>
-          <t>MetRm30</t>
+          <t>MetRm90</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>Methadone access 30 minutes (RAAM)</t>
+          <t>Methadone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X114" t="inlineStr"/>
@@ -9225,26 +9197,10 @@
           <t>Spatial Access to MOUDs</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
@@ -9261,17 +9217,25 @@
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr">
         <is>
-          <t>MetRm60</t>
+          <t>MetTmBk</t>
         </is>
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>Methadone access 60 minutes (RAAM)</t>
+          <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X115" t="inlineStr"/>
@@ -9305,26 +9269,10 @@
           <t>Spatial Access to MOUDs</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
@@ -9341,17 +9289,25 @@
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr">
         <is>
-          <t>MetRm90</t>
+          <t>MetTmDr</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>Methadone access 90 minutes (RAAM)</t>
+          <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X116" t="inlineStr"/>
@@ -9418,12 +9374,12 @@
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr">
         <is>
-          <t>MetTmBk</t>
+          <t>MetTmWk</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Methadone Provider</t>
+          <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X117" t="inlineStr"/>
@@ -9477,25 +9433,17 @@
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr">
         <is>
-          <t>MetTmDr</t>
+          <t>MoudMinDis</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Methadone Provider</t>
+          <t>Distance (mi) to nearest MOUD (any)</t>
         </is>
       </c>
       <c r="X118" t="inlineStr"/>
@@ -9549,25 +9497,17 @@
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr">
         <is>
-          <t>MetTmWk</t>
+          <t>NaltCntBk30</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Methadone Provider</t>
+          <t>Count of Naltrexone Providers (30-min bike)</t>
         </is>
       </c>
       <c r="X119" t="inlineStr"/>
@@ -9621,21 +9561,17 @@
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr">
         <is>
-          <t>MoudMinDis</t>
+          <t>NaltCntBk60</t>
         </is>
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest MOUD (any)</t>
+          <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="X120" t="inlineStr"/>
@@ -9689,21 +9625,17 @@
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr">
         <is>
-          <t>NaltCntBk30</t>
+          <t>NaltCntDr30</t>
         </is>
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min bike)</t>
+          <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="X121" t="inlineStr"/>
@@ -9757,21 +9689,17 @@
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr">
         <is>
-          <t>NaltCntBk60</t>
+          <t>NaltCntWk30</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min bike)</t>
+          <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="X122" t="inlineStr"/>
@@ -9825,21 +9753,17 @@
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr">
         <is>
-          <t>NaltCntDr30</t>
+          <t>NaltCntWk60</t>
         </is>
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min drive)</t>
+          <t>Count of Naltrexone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="X123" t="inlineStr"/>
@@ -9884,26 +9808,26 @@
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr">
         <is>
-          <t>NaltCntDr60</t>
+          <t>NaltMinDis</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers (drive)</t>
+          <t>Distance (mi) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X124" t="inlineStr"/>
@@ -9957,21 +9881,17 @@
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr">
         <is>
-          <t>NaltCntWk30</t>
+          <t>NaltRm30</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min walk)</t>
+          <t>Naltrexone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X125" t="inlineStr"/>
@@ -10025,21 +9945,17 @@
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr">
         <is>
-          <t>NaltCntWk60</t>
+          <t>NaltRm60</t>
         </is>
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min walk)</t>
+          <t>Naltrexone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X126" t="inlineStr"/>
@@ -10093,21 +10009,17 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr">
         <is>
-          <t>NaltMinDis</t>
+          <t>NaltRm90</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Naltrexone Provider</t>
+          <t>Naltrexone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="X127" t="inlineStr"/>
@@ -10161,17 +10073,25 @@
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr">
         <is>
-          <t>NaltRm30</t>
+          <t>NaltTmBk</t>
         </is>
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>Naltrexone access 30 minutes (RAAM)</t>
+          <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X128" t="inlineStr"/>
@@ -10225,17 +10145,25 @@
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr">
         <is>
-          <t>NaltRm60</t>
+          <t>NaltTmDr</t>
         </is>
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Naltrexone access 60 minutes (RAAM)</t>
+          <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X129" t="inlineStr"/>
@@ -10289,17 +10217,25 @@
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr">
         <is>
-          <t>NaltRm90</t>
+          <t>NaltTmWk</t>
         </is>
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>Naltrexone access 90 minutes (RAAM)</t>
+          <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X130" t="inlineStr"/>
@@ -10344,34 +10280,26 @@
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr">
         <is>
-          <t>NaltTmBk</t>
+          <t>OtpCntDr</t>
         </is>
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Naltrexone Provider</t>
+          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="X131" t="inlineStr"/>
@@ -10416,34 +10344,26 @@
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T132" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>NaltTmDr</t>
+          <t>OtpMinDis</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Naltrexone Provider</t>
+          <t>Distance to nearest OTP</t>
         </is>
       </c>
       <c r="X132" t="inlineStr"/>
@@ -10488,20 +10408,16 @@
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr">
         <is>
           <t>x</t>
@@ -10510,12 +10426,12 @@
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr">
         <is>
-          <t>NaltTmWk</t>
+          <t>OtpTmDr</t>
         </is>
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="X133" t="inlineStr"/>
@@ -10546,7 +10462,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -10560,46 +10476,42 @@
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr">
         <is>
-          <t>OtpCntDr</t>
+          <t>MhCntDr</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
+          <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
       <c r="X134" t="inlineStr"/>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB134" t="inlineStr"/>
@@ -10614,7 +10526,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -10628,46 +10540,42 @@
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr">
         <is>
-          <t>OtpMinDis</t>
+          <t>MhMinDis</t>
         </is>
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>Distance to nearest OTP</t>
+          <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="X135" t="inlineStr"/>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr"/>
@@ -10682,7 +10590,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -10696,20 +10604,16 @@
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr">
         <is>
           <t>x</t>
@@ -10718,28 +10622,28 @@
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr">
         <is>
-          <t>OtpTmDr</t>
+          <t>MhTmDr</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="X136" t="inlineStr"/>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr"/>
@@ -10754,7 +10658,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -10767,43 +10671,43 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr">
         <is>
-          <t>TlBupCntBk30</t>
+          <t>RxCntDr</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>Count of telehealth buprenorphine providers within 30-minute bike ride</t>
+          <t>Count of Pharmacies (30-min drive)</t>
         </is>
       </c>
       <c r="X137" t="inlineStr"/>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr"/>
@@ -10818,7 +10722,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -10831,43 +10735,43 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr">
         <is>
-          <t>TlBupCntDr30</t>
+          <t>RxMinDis</t>
         </is>
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>Count of telehealth buprenorphine providers within 30-minute drive</t>
+          <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="X138" t="inlineStr"/>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA138" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB138" t="inlineStr"/>
@@ -10882,7 +10786,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -10895,43 +10799,47 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr">
         <is>
-          <t>TlBupCntDr60</t>
+          <t>RxTmDr</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Count of telehealth buprenorphine providers within 60-minute drive</t>
+          <t>Driving Time (min) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="X139" t="inlineStr"/>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB139" t="inlineStr"/>
@@ -10946,7 +10854,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -10960,42 +10868,42 @@
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr">
         <is>
-          <t>TlBupCntWk30</t>
+          <t>SutCntDr</t>
         </is>
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>Count of telehealth buprenorphine providers within 30-minute walk</t>
+          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
         </is>
       </c>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA140" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB140" t="inlineStr"/>
@@ -11010,7 +10918,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -11024,42 +10932,42 @@
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr">
         <is>
-          <t>TlBupMinDis</t>
+          <t>SutMinDis</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>Minimum distance to telehealth buprenorphine provider</t>
+          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB141" t="inlineStr"/>
@@ -11074,7 +10982,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -11088,42 +10996,46 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr">
         <is>
-          <t>TlBupTmBk</t>
+          <t>SutTmDr</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>Biking time to nearest telehealth buprenorphine provider</t>
+          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB142" t="inlineStr"/>
@@ -11138,7 +11050,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -11152,7 +11064,11 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
@@ -11166,28 +11082,28 @@
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr">
         <is>
-          <t>TlBupTmDr</t>
+          <t>FqhcCntDr</t>
         </is>
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>Driving time to nearest telehealth buprenorphine provider</t>
+          <t>Count of Federally Qualified Health Centers (FQHCs) within 30-min drive</t>
         </is>
       </c>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB143" t="inlineStr"/>
@@ -11202,7 +11118,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -11216,42 +11132,42 @@
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr">
         <is>
-          <t>TlBupTmWk</t>
+          <t>FqhcMinDis</t>
         </is>
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>Walking time to nearest telehealth buprenorphine provider</t>
+          <t>Distance (mi) to nearest Federally Qualified Health Centers (FQHC)</t>
         </is>
       </c>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA144" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB144" t="inlineStr"/>
@@ -11266,7 +11182,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -11294,32 +11210,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T145" t="inlineStr"/>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr">
         <is>
-          <t>MhCntDr</t>
+          <t>FqhcTmDr</t>
         </is>
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>Count of Mental Health Providers (30-min drive)</t>
+          <t>Driving time (min) to nearest Federally Qualified Health Centers (FQHC)</t>
         </is>
       </c>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA145" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB145" t="inlineStr"/>
@@ -11334,7 +11254,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -11348,11 +11268,7 @@
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
@@ -11362,32 +11278,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T146" t="inlineStr"/>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr">
         <is>
-          <t>MhMinDis</t>
+          <t>FqhcTmDr2</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Mental Health Provider</t>
+          <t>Driving time (min) to nearest Federally Qualified Health Centers (FQHC), with Impedance factor</t>
         </is>
       </c>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB146" t="inlineStr"/>
@@ -11402,13 +11322,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
@@ -11416,50 +11340,38 @@
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>MhTmDr</t>
+          <t>Ruca1</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB147" t="inlineStr"/>
@@ -11474,24 +11386,24 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
@@ -11502,28 +11414,28 @@
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr">
         <is>
-          <t>RxCntDr</t>
+          <t>Ruca2</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Count of Pharmacies (30-min drive)</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr"/>
@@ -11538,56 +11450,60 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
       <c r="S149" t="inlineStr"/>
-      <c r="T149" t="inlineStr"/>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr">
         <is>
-          <t>RxMinDis</t>
+          <t>Rurality</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Pharmacy</t>
+          <t>Urban-Suburban-Rural</t>
         </is>
       </c>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB149" t="inlineStr"/>
@@ -11597,12 +11513,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -11614,48 +11530,44 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr">
         <is>
-          <t>RxTmDr</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Pharmacy</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB150" t="inlineStr"/>
@@ -11665,12 +11577,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -11682,7 +11594,11 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
@@ -11691,39 +11607,39 @@
       </c>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr">
         <is>
-          <t>SutCntDr</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB151" t="inlineStr"/>
@@ -11733,12 +11649,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -11750,7 +11666,11 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
@@ -11759,39 +11679,39 @@
       </c>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr">
         <is>
-          <t>SutMinDis</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB152" t="inlineStr"/>
@@ -11801,12 +11721,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -11818,7 +11738,11 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
@@ -11827,43 +11751,39 @@
       </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr">
         <is>
-          <t>SutTmDr</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB153" t="inlineStr"/>
@@ -11873,12 +11793,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -11890,7 +11810,11 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
@@ -11899,39 +11823,39 @@
       </c>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr">
         <is>
-          <t>FqhcCntDr</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>Count of Federally Qualified Health Centers (FQHCs) within 30-min drive</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB154" t="inlineStr"/>
@@ -11941,12 +11865,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -11958,7 +11882,11 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
@@ -11967,39 +11895,39 @@
       </c>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr">
         <is>
-          <t>FqhcMinDis</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Federally Qualified Health Centers (FQHC)</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB155" t="inlineStr"/>
@@ -12009,12 +11937,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -12026,52 +11954,44 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr">
         <is>
-          <t>FqhcTmDr</t>
+          <t>ForDqP</t>
         </is>
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest Federally Qualified Health Centers (FQHC)</t>
+          <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB156" t="inlineStr"/>
@@ -12081,12 +12001,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -12098,48 +12018,44 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>FqhcTmDr2</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest Federally Qualified Health Centers (FQHC), with Impedance factor</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="X157" t="inlineStr"/>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB157" t="inlineStr"/>
@@ -12149,61 +12065,73 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr">
         <is>
-          <t>HcvCntDr</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>Count of HCV Providers</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="X158" t="inlineStr"/>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA158" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB158" t="inlineStr"/>
@@ -12213,12 +12141,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Internet Access</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -12231,43 +12159,43 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr">
         <is>
-          <t>HcvMinDis</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>Distance to nearest HCV Provider</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="X159" t="inlineStr"/>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>ACS 2019</t>
         </is>
       </c>
       <c r="AA159" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>American Community Survey 2015-2019 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB159" t="inlineStr"/>
@@ -12277,61 +12205,73 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr">
         <is>
-          <t>HcvTmDr</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>Driving time to nearest HCV Provider</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="X160" t="inlineStr"/>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA160" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB160" t="inlineStr"/>
@@ -12341,61 +12281,73 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr">
         <is>
-          <t>HivCntDr</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>Count of HIV Providers</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="X161" t="inlineStr"/>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB161" t="inlineStr"/>
@@ -12405,61 +12357,89 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
-      <c r="U162" t="inlineStr"/>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>HivMinDis</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>Distance to nearest HIV Provider</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="X162" t="inlineStr"/>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA162" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB162" t="inlineStr"/>
@@ -12469,61 +12449,89 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr"/>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>HivTmDr</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>Driving time to nearest HIV Provider</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="X163" t="inlineStr"/>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA163" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB163" t="inlineStr"/>
@@ -12533,24 +12541,24 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>SDOH Indices &amp; Typology</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -12562,32 +12570,36 @@
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr"/>
-      <c r="T164" t="inlineStr"/>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr">
         <is>
-          <t>Ruca1</t>
+          <t>LimMobInd</t>
         </is>
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Limited Moblility Index</t>
         </is>
       </c>
       <c r="X164" t="inlineStr"/>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AA164" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AB164" t="inlineStr"/>
@@ -12597,24 +12609,24 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>SDOH Indices &amp; Typology</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -12626,32 +12638,36 @@
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
-      <c r="T165" t="inlineStr"/>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr">
         <is>
-          <t>Ruca2</t>
+          <t>MicaInd</t>
         </is>
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Mixed Immigrant Cohesion and Accesibility (MICA) Index</t>
         </is>
       </c>
       <c r="X165" t="inlineStr"/>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AA165" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AB165" t="inlineStr"/>
@@ -12661,24 +12677,24 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>SDOH Indices &amp; Typology</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -12690,36 +12706,32 @@
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="inlineStr"/>
-      <c r="T166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr">
         <is>
-          <t>Rurality</t>
+          <t>NeighbTyp</t>
         </is>
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>Urban-Suburban-Rural</t>
+          <t>Neighborhood Type</t>
         </is>
       </c>
       <c r="X166" t="inlineStr"/>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AB166" t="inlineStr"/>
@@ -12729,12 +12741,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>SDOH Indices &amp; Typology</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -12742,15 +12754,15 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
@@ -12758,32 +12770,36 @@
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="inlineStr"/>
-      <c r="T167" t="inlineStr"/>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>SocEcAdvIn</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Socioeconomic Advantage Index</t>
         </is>
       </c>
       <c r="X167" t="inlineStr"/>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AA167" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AB167" t="inlineStr"/>
@@ -12793,12 +12809,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>SDOH Indices &amp; Typology</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -12806,56 +12822,52 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
-      <c r="T168" t="inlineStr"/>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>UrbCoreInd</t>
         </is>
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>Urban Core Opportunity Index</t>
         </is>
       </c>
       <c r="X168" t="inlineStr"/>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AA168" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>Kolak et al., 2020</t>
         </is>
       </c>
       <c r="AB168" t="inlineStr"/>
@@ -12865,12 +12877,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -12894,40 +12906,40 @@
         </is>
       </c>
       <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>SviSmryRnk</t>
         </is>
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
       <c r="X169" t="inlineStr"/>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB169" t="inlineStr"/>
@@ -12937,12 +12949,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -12966,40 +12978,44 @@
         </is>
       </c>
       <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
-      <c r="T170" t="inlineStr"/>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>SviTh1</t>
         </is>
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
+          <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
       <c r="X170" t="inlineStr"/>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB170" t="inlineStr"/>
@@ -13009,12 +13025,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -13038,40 +13054,40 @@
         </is>
       </c>
       <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>SviTh2</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
       <c r="X171" t="inlineStr"/>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA171" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB171" t="inlineStr"/>
@@ -13081,12 +13097,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -13110,40 +13126,40 @@
         </is>
       </c>
       <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>SviTh3</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>Social Vulnerability Index (SVI) 3</t>
         </is>
       </c>
       <c r="X172" t="inlineStr"/>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA172" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB172" t="inlineStr"/>
@@ -13153,12 +13169,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -13176,1287 +13192,55 @@
         </is>
       </c>
       <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="inlineStr"/>
-      <c r="T173" t="inlineStr"/>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>SviTh4</t>
         </is>
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
       <c r="X173" t="inlineStr"/>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA173" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB173" t="inlineStr"/>
       <c r="AC173" t="inlineStr"/>
       <c r="AD173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Great Recession Foreclosure Rate</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="inlineStr"/>
-      <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr"/>
-      <c r="V174" t="inlineStr">
-        <is>
-          <t>ForDqTot</t>
-        </is>
-      </c>
-      <c r="W174" t="inlineStr">
-        <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
-        </is>
-      </c>
-      <c r="X174" t="inlineStr"/>
-      <c r="Y174" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
-        </is>
-      </c>
-      <c r="Z174" t="inlineStr">
-        <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
-        </is>
-      </c>
-      <c r="AA174" t="inlineStr">
-        <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
-        </is>
-      </c>
-      <c r="AB174" t="inlineStr"/>
-      <c r="AC174" t="inlineStr"/>
-      <c r="AD174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Great Recession Foreclosure Rate</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="inlineStr"/>
-      <c r="T175" t="inlineStr"/>
-      <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr">
-        <is>
-          <t>GiniCoeff</t>
-        </is>
-      </c>
-      <c r="W175" t="inlineStr">
-        <is>
-          <t>Income Inequality (Gini Coefficient)</t>
-        </is>
-      </c>
-      <c r="X175" t="inlineStr"/>
-      <c r="Y175" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
-        </is>
-      </c>
-      <c r="Z175" t="inlineStr">
-        <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
-        </is>
-      </c>
-      <c r="AA175" t="inlineStr">
-        <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
-        </is>
-      </c>
-      <c r="AB175" t="inlineStr"/>
-      <c r="AC175" t="inlineStr"/>
-      <c r="AD175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Internet Access</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="inlineStr"/>
-      <c r="T176" t="inlineStr"/>
-      <c r="U176" t="inlineStr"/>
-      <c r="V176" t="inlineStr">
-        <is>
-          <t>NoIntP</t>
-        </is>
-      </c>
-      <c r="W176" t="inlineStr">
-        <is>
-          <t>Households without Internet Access %</t>
-        </is>
-      </c>
-      <c r="X176" t="inlineStr"/>
-      <c r="Y176" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
-        </is>
-      </c>
-      <c r="Z176" t="inlineStr">
-        <is>
-          <t>ACS 2019</t>
-        </is>
-      </c>
-      <c r="AA176" t="inlineStr">
-        <is>
-          <t>American Community Survey 2015-2019 5-Year Estimate</t>
-        </is>
-      </c>
-      <c r="AB176" t="inlineStr"/>
-      <c r="AC176" t="inlineStr"/>
-      <c r="AD176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="inlineStr"/>
-      <c r="T177" t="inlineStr"/>
-      <c r="U177" t="inlineStr"/>
-      <c r="V177" t="inlineStr">
-        <is>
-          <t>MedInc</t>
-        </is>
-      </c>
-      <c r="W177" t="inlineStr">
-        <is>
-          <t>Median Income</t>
-        </is>
-      </c>
-      <c r="X177" t="inlineStr"/>
-      <c r="Y177" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
-        </is>
-      </c>
-      <c r="Z177" t="inlineStr">
-        <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
-        </is>
-      </c>
-      <c r="AA177" t="inlineStr">
-        <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
-        </is>
-      </c>
-      <c r="AB177" t="inlineStr"/>
-      <c r="AC177" t="inlineStr"/>
-      <c r="AD177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M178" t="inlineStr"/>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="inlineStr"/>
-      <c r="T178" t="inlineStr"/>
-      <c r="U178" t="inlineStr"/>
-      <c r="V178" t="inlineStr">
-        <is>
-          <t>PciE</t>
-        </is>
-      </c>
-      <c r="W178" t="inlineStr">
-        <is>
-          <t>Per Capita Income</t>
-        </is>
-      </c>
-      <c r="X178" t="inlineStr"/>
-      <c r="Y178" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
-        </is>
-      </c>
-      <c r="Z178" t="inlineStr">
-        <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
-        </is>
-      </c>
-      <c r="AA178" t="inlineStr">
-        <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
-        </is>
-      </c>
-      <c r="AB178" t="inlineStr"/>
-      <c r="AC178" t="inlineStr"/>
-      <c r="AD178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="inlineStr"/>
-      <c r="T179" t="inlineStr"/>
-      <c r="U179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V179" t="inlineStr">
-        <is>
-          <t>PovP</t>
-        </is>
-      </c>
-      <c r="W179" t="inlineStr">
-        <is>
-          <t>Poverty %</t>
-        </is>
-      </c>
-      <c r="X179" t="inlineStr"/>
-      <c r="Y179" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
-        </is>
-      </c>
-      <c r="Z179" t="inlineStr">
-        <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
-        </is>
-      </c>
-      <c r="AA179" t="inlineStr">
-        <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
-        </is>
-      </c>
-      <c r="AB179" t="inlineStr"/>
-      <c r="AC179" t="inlineStr"/>
-      <c r="AD179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="inlineStr"/>
-      <c r="T180" t="inlineStr"/>
-      <c r="U180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V180" t="inlineStr">
-        <is>
-          <t>UnempP</t>
-        </is>
-      </c>
-      <c r="W180" t="inlineStr">
-        <is>
-          <t>Unemployment %</t>
-        </is>
-      </c>
-      <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
-        </is>
-      </c>
-      <c r="Z180" t="inlineStr">
-        <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
-        </is>
-      </c>
-      <c r="AA180" t="inlineStr">
-        <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
-        </is>
-      </c>
-      <c r="AB180" t="inlineStr"/>
-      <c r="AC180" t="inlineStr"/>
-      <c r="AD180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>SDOH Indices &amp; Typology</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="inlineStr"/>
-      <c r="T181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U181" t="inlineStr"/>
-      <c r="V181" t="inlineStr">
-        <is>
-          <t>LimMobInd</t>
-        </is>
-      </c>
-      <c r="W181" t="inlineStr">
-        <is>
-          <t>Limited Moblility Index</t>
-        </is>
-      </c>
-      <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
-        </is>
-      </c>
-      <c r="Z181" t="inlineStr">
-        <is>
-          <t>Kolak et al., 2020</t>
-        </is>
-      </c>
-      <c r="AA181" t="inlineStr">
-        <is>
-          <t>Kolak et al., 2020</t>
-        </is>
-      </c>
-      <c r="AB181" t="inlineStr"/>
-      <c r="AC181" t="inlineStr"/>
-      <c r="AD181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>SDOH Indices &amp; Typology</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr"/>
-      <c r="T182" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U182" t="inlineStr"/>
-      <c r="V182" t="inlineStr">
-        <is>
-          <t>MicaInd</t>
-        </is>
-      </c>
-      <c r="W182" t="inlineStr">
-        <is>
-          <t>Mixed Immigrant Cohesion and Accesibility (MICA) Index</t>
-        </is>
-      </c>
-      <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
-        </is>
-      </c>
-      <c r="Z182" t="inlineStr">
-        <is>
-          <t>Kolak et al., 2020</t>
-        </is>
-      </c>
-      <c r="AA182" t="inlineStr">
-        <is>
-          <t>Kolak et al., 2020</t>
-        </is>
-      </c>
-      <c r="AB182" t="inlineStr"/>
-      <c r="AC182" t="inlineStr"/>
-      <c r="AD182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>SDOH Indices &amp; Typology</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
-      <c r="T183" t="inlineStr"/>
-      <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr">
-        <is>
-          <t>NeighbTyp</t>
-        </is>
-      </c>
-      <c r="W183" t="inlineStr">
-        <is>
-          <t>Neighborhood Type</t>
-        </is>
-      </c>
-      <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
-        </is>
-      </c>
-      <c r="Z183" t="inlineStr">
-        <is>
-          <t>Kolak et al., 2020</t>
-        </is>
-      </c>
-      <c r="AA183" t="inlineStr">
-        <is>
-          <t>Kolak et al., 2020</t>
-        </is>
-      </c>
-      <c r="AB183" t="inlineStr"/>
-      <c r="AC183" t="inlineStr"/>
-      <c r="AD183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>SDOH Indices &amp; Typology</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr">
-        <is>
-          <t>SocEcAdvIn</t>
-        </is>
-      </c>
-      <c r="W184" t="inlineStr">
-        <is>
-          <t>Socioeconomic Advantage Index</t>
-        </is>
-      </c>
-      <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
-        </is>
-      </c>
-      <c r="Z184" t="inlineStr">
-        <is>
-          <t>Kolak et al., 2020</t>
-        </is>
-      </c>
-      <c r="AA184" t="inlineStr">
-        <is>
-          <t>Kolak et al., 2020</t>
-        </is>
-      </c>
-      <c r="AB184" t="inlineStr"/>
-      <c r="AC184" t="inlineStr"/>
-      <c r="AD184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>SDOH Indices &amp; Typology</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr"/>
-      <c r="T185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr">
-        <is>
-          <t>UrbCoreInd</t>
-        </is>
-      </c>
-      <c r="W185" t="inlineStr">
-        <is>
-          <t>Urban Core Opportunity Index</t>
-        </is>
-      </c>
-      <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
-        </is>
-      </c>
-      <c r="Z185" t="inlineStr">
-        <is>
-          <t>Kolak et al., 2020</t>
-        </is>
-      </c>
-      <c r="AA185" t="inlineStr">
-        <is>
-          <t>Kolak et al., 2020</t>
-        </is>
-      </c>
-      <c r="AB185" t="inlineStr"/>
-      <c r="AC185" t="inlineStr"/>
-      <c r="AD185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="inlineStr"/>
-      <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr">
-        <is>
-          <t>SviSmryRnk</t>
-        </is>
-      </c>
-      <c r="W186" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
-        </is>
-      </c>
-      <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z186" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA186" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB186" t="inlineStr"/>
-      <c r="AC186" t="inlineStr"/>
-      <c r="AD186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="inlineStr"/>
-      <c r="T187" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr">
-        <is>
-          <t>SviTh1</t>
-        </is>
-      </c>
-      <c r="W187" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
-        </is>
-      </c>
-      <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z187" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA187" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB187" t="inlineStr"/>
-      <c r="AC187" t="inlineStr"/>
-      <c r="AD187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="inlineStr"/>
-      <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr"/>
-      <c r="V188" t="inlineStr">
-        <is>
-          <t>SviTh2</t>
-        </is>
-      </c>
-      <c r="W188" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
-        </is>
-      </c>
-      <c r="X188" t="inlineStr"/>
-      <c r="Y188" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z188" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA188" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB188" t="inlineStr"/>
-      <c r="AC188" t="inlineStr"/>
-      <c r="AD188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="inlineStr"/>
-      <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr"/>
-      <c r="V189" t="inlineStr">
-        <is>
-          <t>SviTh3</t>
-        </is>
-      </c>
-      <c r="W189" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 3</t>
-        </is>
-      </c>
-      <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z189" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA189" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB189" t="inlineStr"/>
-      <c r="AC189" t="inlineStr"/>
-      <c r="AD189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="inlineStr"/>
-      <c r="T190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr">
-        <is>
-          <t>SviTh4</t>
-        </is>
-      </c>
-      <c r="W190" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
-        </is>
-      </c>
-      <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z190" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA190" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB190" t="inlineStr"/>
-      <c r="AC190" t="inlineStr"/>
-      <c r="AD190" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/src/reference/data-dictionaries/T_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/T_Dict.xlsx
@@ -8377,11 +8377,7 @@
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr">
         <is>
           <t>x</t>
@@ -8449,11 +8445,7 @@
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr">
         <is>
           <t>x</t>
@@ -8521,11 +8513,7 @@
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr">
         <is>
           <t>x</t>
@@ -9217,11 +9205,7 @@
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr">
         <is>
           <t>x</t>
@@ -9289,11 +9273,7 @@
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr">
         <is>
           <t>x</t>
@@ -9361,11 +9341,7 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr">
         <is>
           <t>x</t>
@@ -10073,11 +10049,7 @@
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr">
         <is>
           <t>x</t>
@@ -10145,11 +10117,7 @@
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr">
         <is>
           <t>x</t>
@@ -10217,11 +10185,7 @@
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr">
         <is>
           <t>x</t>
